--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="273">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,333 +124,956 @@
     <t>信息提示</t>
   </si>
   <si>
+    <t>后台获取数据失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询单位信息…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rememberPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgerPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光杆功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectProfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>linkaddress</t>
+  </si>
+  <si>
+    <t>linkshow</t>
+  </si>
+  <si>
+    <t>油气生产智能监控系统 V9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《油气生产智能监控系统 V9.3》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emptyMsg</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>collapseAll</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>expandAll</t>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>workType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfaceAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trendCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamicData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备概览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceOverview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井筒分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellboreAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅件设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliaryDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionalInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWattDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杆柱应力</t>
+  </si>
+  <si>
+    <t>泵效组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStressRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应力百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod2</t>
+  </si>
+  <si>
+    <t>rod3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η充满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η漏失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有功功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimizationSuggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上载荷线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论下载荷线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄转角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTowardInside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTowardOutside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramWorkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpFSDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEfficiencyComposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentTorqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectTorqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击饼图不同区域或标签，查看相应统计数据</t>
+  </si>
+  <si>
+    <t>statPieChartToolTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数</t>
+  </si>
+  <si>
+    <t>deviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间</t>
+  </si>
+  <si>
+    <t>acqTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线</t>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>与后台联系的时候出了问题</t>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史曲线</t>
+  </si>
+  <si>
+    <t>历史数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形平铺</t>
+  </si>
+  <si>
+    <t>tiledDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史曲线设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表曲线设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间</t>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台获取数据失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询单位信息…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收缩全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterUserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rememberPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgerPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FESDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光杆功图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectProfile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>linkaddress</t>
-  </si>
-  <si>
-    <t>linkshow</t>
-  </si>
-  <si>
-    <t>油气生产智能监控系统 V9.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《油气生产智能监控系统 V9.3》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emptyMsg</t>
-  </si>
-  <si>
-    <t>totalCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>collapseAll</t>
-  </si>
-  <si>
-    <t>expand</t>
-  </si>
-  <si>
-    <t>expandAll</t>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>workType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surfaceAnalysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trendCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamicData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备概览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceOverview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况诊断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井筒分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wellboreAnalysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趋势曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅件设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auxiliaryDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>additionalInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
+    <t>Infotip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~23之间的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minuteValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~59之间的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值无效，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleDeviceReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +1114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,14 +1137,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -823,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -837,13 +1475,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -873,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -884,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -895,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -906,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -917,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -928,7 +1566,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -961,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -982,7 +1620,9 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
@@ -991,9 +1631,11 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,7 +1644,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,7 +1653,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,19 +1661,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1684,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,7 +1693,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1058,7 +1702,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +1711,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1076,7 +1720,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1085,7 +1729,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1094,7 +1738,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,7 +1747,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,7 +1756,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1765,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,7 +1774,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,7 +1783,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,26 +1792,28 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1180,22 +1826,18 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1203,10 +1845,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,10 +1856,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,16 +1867,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -1440,6 +2088,11 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1453,7 +2106,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1464,13 +2117,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1509,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1518,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1635,27 +2288,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1663,21 +2316,530 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1687,27 +2849,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1715,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,10 +2888,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1737,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,10 +2910,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,10 +2921,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1770,10 +2932,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1784,7 +2946,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,10 +2954,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,10 +2965,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,10 +2976,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,10 +2987,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,10 +2998,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1847,10 +3009,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,10 +3020,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1869,10 +3031,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,10 +3042,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,10 +3053,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,10 +3064,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,10 +3075,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,7 +3086,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -1935,10 +3097,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,10 +3108,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,38 +3119,2450 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1"/>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1"/>
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="409">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,935 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rememberPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgerPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光杆功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectProfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>linkaddress</t>
+  </si>
+  <si>
+    <t>linkshow</t>
+  </si>
+  <si>
+    <t>油气生产智能监控系统 V9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《油气生产智能监控系统 V9.3》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emptyMsg</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>collapseAll</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>expandAll</t>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>workType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfaceAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trendCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamicData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备概览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceOverview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井筒分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellboreAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅件设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliaryDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionalInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWattDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杆柱应力</t>
+  </si>
+  <si>
+    <t>泵效组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStressRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应力百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod2</t>
+  </si>
+  <si>
+    <t>rod3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η充满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η漏失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有功功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimizationSuggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上载荷线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论下载荷线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄转角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTowardInside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTowardOutside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramWorkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpFSDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEfficiencyComposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentTorqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectTorqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击饼图不同区域或标签，查看相应统计数据</t>
+  </si>
+  <si>
+    <t>statPieChartToolTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数</t>
+  </si>
+  <si>
+    <t>deviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间</t>
+  </si>
+  <si>
+    <t>acqTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线</t>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>与后台联系的时候出了问题</t>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史曲线</t>
+  </si>
+  <si>
+    <t>历史数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形平铺</t>
+  </si>
+  <si>
+    <t>tiledDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史曲线设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表曲线设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间</t>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infotip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~23之间的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minuteValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~59之间的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值无效，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleDeviceReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>批量导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulkExportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在更新数据，请稍后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息更新失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,261 +1113,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收缩全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterUserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rememberPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgerPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光杆功图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectProfile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>linkaddress</t>
-  </si>
-  <si>
-    <t>linkshow</t>
-  </si>
-  <si>
-    <t>油气生产智能监控系统 V9.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《油气生产智能监控系统 V9.3》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emptyMsg</t>
-  </si>
-  <si>
-    <t>totalCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>collapseAll</t>
-  </si>
-  <si>
-    <t>expand</t>
-  </si>
-  <si>
-    <t>expandAll</t>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>workType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surfaceAnalysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trendCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamicData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备概览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceOverview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况诊断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井筒分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wellboreAnalysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趋势曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅件设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auxiliaryDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>additionalInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceName</t>
+    <t>updateWait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您必须选择一行数据以便操作</t>
+  </si>
+  <si>
+    <t>checkOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noDataChange</t>
+  </si>
+  <si>
+    <t>无数据被修改</t>
+  </si>
+  <si>
+    <t>是否要删除这些被选择的数据？</t>
+  </si>
+  <si>
+    <t>是否要删除？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmDeleteData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表曲线</t>
+  </si>
+  <si>
+    <t>daliyReportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班报表曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyReportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twoHours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,634 +1216,394 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泵功图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWattDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电功图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杆柱应力</t>
-  </si>
-  <si>
-    <t>泵效组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStressRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应力百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rod1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rod2</t>
-  </si>
-  <si>
-    <t>rod3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rod4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>η冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>η充满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>η漏失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>η收缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有功功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liquidProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optimizationSuggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upStroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downStroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论上载荷线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论下载荷线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lowerLoadLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>degreeBalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扭矩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>torqueCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲柄转角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crankAngle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveTowardInside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveTowardOutside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balanceTorque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netTorque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净扭矩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSDiagramWorkType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperLoadLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displacement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpFSDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEfficiencyComposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>torque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前扭矩曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentTorqueCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扭矩曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期扭矩曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crankTorque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectTorqueCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upStrokeMaxValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上冲程最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下冲程最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downStrokeMaxValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击饼图不同区域或标签，查看相应统计数据</t>
-  </si>
-  <si>
-    <t>statPieChartToolTip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备数</t>
-  </si>
-  <si>
-    <t>deviceCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proportion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时间</t>
-  </si>
-  <si>
-    <t>acqTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲线</t>
-  </si>
-  <si>
-    <t>curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>与后台联系的时候出了问题</t>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史曲线</t>
-  </si>
-  <si>
-    <t>历史数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形平铺</t>
-  </si>
-  <si>
-    <t>tiledDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diagramSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史曲线设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表曲线设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyDiagramSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportDiagramSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细</t>
-  </si>
-  <si>
-    <t>details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区间</t>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infotip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalidData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~23之间的整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hourlyValidData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minuteValidData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~59之间的整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secondValidData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值无效，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>singleDeviceReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hourlyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
+    <t>工况诊断报警</t>
+  </si>
+  <si>
+    <t>报警数据</t>
+  </si>
+  <si>
+    <t>运行状态报警</t>
+  </si>
+  <si>
+    <t>通信状态报警</t>
+  </si>
+  <si>
+    <t>数据量报警</t>
+  </si>
+  <si>
+    <t>枚举量报警</t>
+  </si>
+  <si>
+    <t>开关量报警</t>
+  </si>
+  <si>
+    <t>一级报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送短信</t>
+  </si>
+  <si>
+    <t>runStatusAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSendMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDeviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportAlarmData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FESDiagramResultAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatusAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSendEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出报警数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转速计产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改历史数据计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联生产数据计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPCCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCPCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editHistoryDataCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkProductionDataCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportRequestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功图计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出请求数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reTotalCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储字段表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议隶属迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元组态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例组态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态字段选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属运行项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属停止项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProtocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnMappingTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocoDeviceTypeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusColumnSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runConditionConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopConditionConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1461,27 +1991,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1511,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1522,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1533,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1544,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1555,7 +2085,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1566,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1599,7 +2129,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -1621,7 +2151,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1632,28 +2162,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,10 +2195,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,10 +2206,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,7 +2218,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,25 +2227,29 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,7 +2258,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,7 +2267,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,7 +2276,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,7 +2285,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1756,52 +2294,62 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,35 +2357,43 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,10 +2401,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,21 +2412,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,46 +2432,80 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -2093,6 +2681,41 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2117,13 +2740,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,10 +2765,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -2162,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -2171,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2302,13 +2925,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +2950,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +2972,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +2983,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +2994,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +3005,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +3016,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +3027,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,10 +3038,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,10 +3049,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +3060,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +3071,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,10 +3082,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,10 +3093,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +3104,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,10 +3115,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,10 +3126,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,10 +3137,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,10 +3159,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,10 +3170,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,10 +3181,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,10 +3192,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,10 +3203,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,10 +3214,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,10 +3225,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,10 +3236,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,10 +3247,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,10 +3258,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,10 +3269,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,10 +3280,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,10 +3291,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,10 +3302,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,10 +3313,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,10 +3324,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +3335,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +3346,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,10 +3357,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,10 +3368,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +3379,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,10 +3390,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,10 +3401,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,10 +3412,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +3423,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,27 +3472,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C471"/>
+  <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,10 +3511,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +3522,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,10 +3533,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,10 +3544,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,7 +3569,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,10 +3588,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,10 +3599,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,10 +3610,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,10 +3621,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,10 +3632,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,10 +3643,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,10 +3654,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,10 +3665,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3053,10 +3676,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,10 +3687,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,10 +3698,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,7 +3709,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -3097,10 +3720,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,10 +3731,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,43 +3742,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,10 +3786,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,10 +3797,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,43 +3808,43 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,10 +3852,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,10 +3863,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,43 +3874,43 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,10 +3918,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3306,10 +3929,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,32 +3940,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,10 +3973,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3361,21 +3984,21 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3383,10 +4006,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,21 +4017,21 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,10 +4039,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,21 +4050,21 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,10 +4072,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,21 +4083,21 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,10 +4105,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3493,296 +4116,592 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
@@ -5563,6 +6482,81 @@
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1"/>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1"/>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1"/>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1"/>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="649">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,14 +70,2352 @@
     <t>refresh</t>
   </si>
   <si>
+    <t>数据加载中，请稍后…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息提示</t>
+  </si>
+  <si>
+    <t>后台获取数据失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询单位信息…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rememberPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgerPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光杆功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectProfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>linkaddress</t>
+  </si>
+  <si>
+    <t>linkshow</t>
+  </si>
+  <si>
+    <t>油气生产智能监控系统 V9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《油气生产智能监控系统 V9.3》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>collapseAll</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>expandAll</t>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>workType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfaceAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trendCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamicData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备概览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceOverview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井筒分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellboreAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅件设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliaryDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionalInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWattDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电功图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杆柱应力</t>
+  </si>
+  <si>
+    <t>泵效组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStressRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应力百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod2</t>
+  </si>
+  <si>
+    <t>rod3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η充满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η漏失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有功功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimizationSuggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上载荷线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论下载荷线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄转角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTowardInside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTowardOutside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramWorkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpFSDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEfficiencyComposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentTorqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期扭矩曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectTorqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击饼图不同区域或标签，查看相应统计数据</t>
+  </si>
+  <si>
+    <t>statPieChartToolTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数</t>
+  </si>
+  <si>
+    <t>deviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间</t>
+  </si>
+  <si>
+    <t>acqTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线</t>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>与后台联系的时候出了问题</t>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史曲线</t>
+  </si>
+  <si>
+    <t>历史数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形平铺</t>
+  </si>
+  <si>
+    <t>tiledDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史曲线设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表曲线设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间</t>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infotip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~23之间的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minuteValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~59之间的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值无效，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulkExportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在更新数据，请稍后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息更新失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您必须选择一行数据以便操作</t>
+  </si>
+  <si>
+    <t>无数据被修改</t>
+  </si>
+  <si>
+    <t>是否要删除这些被选择的数据？</t>
+  </si>
+  <si>
+    <t>是否要删除？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmDeleteData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表曲线</t>
+  </si>
+  <si>
+    <t>daliyReportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班报表曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyReportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twoHours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况诊断报警</t>
+  </si>
+  <si>
+    <t>报警数据</t>
+  </si>
+  <si>
+    <t>运行状态报警</t>
+  </si>
+  <si>
+    <t>通信状态报警</t>
+  </si>
+  <si>
+    <t>数据量报警</t>
+  </si>
+  <si>
+    <t>枚举量报警</t>
+  </si>
+  <si>
+    <t>开关量报警</t>
+  </si>
+  <si>
+    <t>一级报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送短信</t>
+  </si>
+  <si>
+    <t>runStatusAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSendMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDeviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportAlarmData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FESDiagramResultAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatusAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSendEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出报警数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转速计产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改历史数据计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联生产数据计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPCCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCPCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editHistoryDataCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkProductionDataCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportRequestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功图计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出请求数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reTotalCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元组态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例组态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态字段选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属运行项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProtocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnMappingTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusColumnSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runConditionConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议隶属迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocoDeviceTypeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储字段表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属停止项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopConditionConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议隶属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议隶属迁移成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议隶属迁移失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolBelongTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeOwner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传数据格式有误！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话超时</t>
+  </si>
+  <si>
+    <t>请您重新登录</t>
+  </si>
+  <si>
+    <t>系统在转化JSON信息时报异常错误</t>
+  </si>
+  <si>
+    <t>ajaxError400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaxError404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionThrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadDataError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常抛出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeProtocolBelongToSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeProtocolBelongToFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeOwnerFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotBeEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noDataCanBeSaved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可保存的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请与管理员联系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件内容过大，请减少内容后重新上传！</t>
+  </si>
+  <si>
+    <t>uploadFileTooLarge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法格式有错，服务器请求失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unauthorized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactSupplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginAgain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉您的软件尚未授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，请您跟产品提供商联系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP版本不受支持！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器请求失败！请检查SERVER连接或者SQL/HQL执行语句。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器异常！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaxError500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话超时，请重新登录！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaxError505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionTimeoutInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonExceptionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errotCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象不存在</t>
+  </si>
+  <si>
+    <t>noExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>loading</t>
-  </si>
-  <si>
-    <t>数据加载中，请稍后…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeOwnerSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgChangeOwnerFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移失败,目标组织不能为自身及所有子节点。</t>
+  </si>
+  <si>
+    <t>采控项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加采控组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单组入库间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单组定时间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控单元配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加采控单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectGroupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupTimingInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupSavingInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控单元已存在相同采集组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupCollisionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控单元列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警单元列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示单元列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表单元列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传单元列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleDeviceReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控实例列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警实例列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示实例列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表实例列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信实例列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控单元已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示单元已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警单元已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表单元已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控实例已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示实例已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警实例已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表实例已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信实例已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示单元配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加显示单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noDataChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataTypeError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisitionItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDisplayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择计算类型</t>
+  </si>
+  <si>
+    <t>selectCalculateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警单元配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加报警单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警颜色配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关量列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举量列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusNoData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValueList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValueList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foregroundColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAlarmUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmColorConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goOnline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,7 +2423,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在线</t>
+    <t>离线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,15 +2431,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行</t>
+    <t>停止</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,872 +2439,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总记录数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息提示</t>
-  </si>
-  <si>
-    <t>后台获取数据失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询单位信息…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收缩全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterUserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rememberPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgerPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光杆功图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectProfile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>linkaddress</t>
-  </si>
-  <si>
-    <t>linkshow</t>
-  </si>
-  <si>
-    <t>油气生产智能监控系统 V9.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《油气生产智能监控系统 V9.3》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emptyMsg</t>
-  </si>
-  <si>
-    <t>totalCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>collapseAll</t>
-  </si>
-  <si>
-    <t>expand</t>
-  </si>
-  <si>
-    <t>expandAll</t>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>workType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surfaceAnalysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trendCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamicData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备概览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceOverview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况诊断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井筒分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wellboreAnalysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趋势曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅件设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auxiliaryDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>additionalInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵功图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWattDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电功图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杆柱应力</t>
-  </si>
-  <si>
-    <t>泵效组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStressRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应力百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rod1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rod2</t>
-  </si>
-  <si>
-    <t>rod3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rod4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>η冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>η充满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>η漏失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>η收缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有功功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liquidProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optimizationSuggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upStroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downStroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论上载荷线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论下载荷线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lowerLoadLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>degreeBalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扭矩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>torqueCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲柄转角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crankAngle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveTowardInside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveTowardOutside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balanceTorque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netTorque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净扭矩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSDiagramWorkType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperLoadLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displacement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpFSDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEfficiencyComposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>torque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前扭矩曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentTorqueCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扭矩曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期扭矩曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crankTorque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectTorqueCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upStrokeMaxValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上冲程最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下冲程最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downStrokeMaxValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击饼图不同区域或标签，查看相应统计数据</t>
-  </si>
-  <si>
-    <t>statPieChartToolTip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备数</t>
-  </si>
-  <si>
-    <t>deviceCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proportion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时间</t>
-  </si>
-  <si>
-    <t>acqTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲线</t>
-  </si>
-  <si>
-    <t>curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>与后台联系的时候出了问题</t>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史曲线</t>
-  </si>
-  <si>
-    <t>历史数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形平铺</t>
-  </si>
-  <si>
-    <t>tiledDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diagramSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史曲线设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表曲线设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyDiagramSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportDiagramSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细</t>
-  </si>
-  <si>
-    <t>details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区间</t>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infotip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalidData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~23之间的整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hourlyValidData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minuteValidData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~59之间的整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secondValidData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值无效，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表单元配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -982,628 +2455,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>singleDeviceReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirm</t>
-  </si>
-  <si>
-    <t>批量导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulkExportData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateFailure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateSuccessfully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在更新数据，请稍后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息更新失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateWait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您必须选择一行数据以便操作</t>
-  </si>
-  <si>
-    <t>checkOne</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noDataChange</t>
-  </si>
-  <si>
-    <t>无数据被修改</t>
-  </si>
-  <si>
-    <t>是否要删除这些被选择的数据？</t>
-  </si>
-  <si>
-    <t>是否要删除？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirmDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirmDeleteData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日报表曲线</t>
-  </si>
-  <si>
-    <t>daliyReportCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班报表曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hourlyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hourlyReportCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twoHours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oneHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况诊断报警</t>
-  </si>
-  <si>
-    <t>报警数据</t>
-  </si>
-  <si>
-    <t>运行状态报警</t>
-  </si>
-  <si>
-    <t>通信状态报警</t>
-  </si>
-  <si>
-    <t>数据量报警</t>
-  </si>
-  <si>
-    <t>枚举量报警</t>
-  </si>
-  <si>
-    <t>开关量报警</t>
-  </si>
-  <si>
-    <t>一级报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发送短信</t>
-  </si>
-  <si>
-    <t>runStatusAlarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numericValueAlarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enumValueAlarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchingValueAlarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmLevel1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmLevel2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmLevel3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSendMessage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出设备列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportDeviceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportAlarmData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FESDiagramResultAlarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commStatusAlarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发送邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSendEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出报警数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转速计产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改历史数据计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联生产数据计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPCCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCPCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>singleRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editHistoryDataCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkProductionDataCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportRequestData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功图计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单条记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出请求数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reTotalCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储字段表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议隶属迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元组态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采控单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例组态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采控实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行状态配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行状态字段选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属运行项配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属停止项配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocolConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tabProperties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instanceConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMSInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>properties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addProtocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnMappingTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocoDeviceTypeChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runStatusConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocolList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runStatusColumnSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runConditionConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopConditionConfig</t>
+    <t>单井班报表模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日报表模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日报表模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井班报表内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日报表内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addReportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加报表单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井班报表模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>reportContentConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +2566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1628,6 +2583,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1682,7 +2645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1690,6 +2653,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1991,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2005,13 +2969,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -2041,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -2052,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2063,7 +3027,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2074,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -2085,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -2096,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2129,10 +3093,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,10 +3104,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,10 +3115,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,10 +3126,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,10 +3137,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>400</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,10 +3148,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,10 +3159,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>293</v>
+        <v>409</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,28 +3170,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>291</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,10 +3203,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>308</v>
+        <v>422</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,46 +3214,54 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>245</v>
+        <v>424</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>242</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,18 +3270,16 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2313,10 +3287,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>276</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2324,65 +3298,55 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2390,10 +3354,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2401,10 +3365,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2412,19 +3376,21 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>267</v>
+        <v>569</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>571</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2432,35 +3398,43 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>460</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,10 +3442,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2479,10 +3453,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,10 +3464,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2501,181 +3475,375 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -2716,6 +3884,46 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2729,7 +3937,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2740,13 +3948,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,10 +3962,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2765,10 +3973,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2776,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -2785,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -2794,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2913,7 +4121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -2925,13 +4133,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2939,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,10 +4158,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,10 +4169,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,10 +4180,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2983,10 +4191,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2994,10 +4202,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,10 +4213,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,10 +4224,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3038,10 +4246,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,10 +4257,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3060,10 +4268,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,10 +4279,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3082,10 +4290,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,10 +4301,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3104,10 +4312,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3115,10 +4323,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3126,10 +4334,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3137,10 +4345,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3148,10 +4356,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3159,10 +4367,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3170,10 +4378,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3181,10 +4389,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3192,10 +4400,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3203,10 +4411,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3214,10 +4422,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3225,10 +4433,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3236,10 +4444,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3247,10 +4455,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3258,10 +4466,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,10 +4477,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,10 +4488,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3291,10 +4499,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3302,10 +4510,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3313,10 +4521,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3324,10 +4532,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3335,10 +4543,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3346,10 +4554,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,10 +4565,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3368,10 +4576,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3379,10 +4587,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3390,10 +4598,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3401,10 +4609,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3412,10 +4620,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3423,10 +4631,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,27 +4680,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C486"/>
+  <dimension ref="A1:C507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B204" sqref="B203:B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3500,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3511,10 +4719,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3522,10 +4730,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3533,10 +4741,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3544,10 +4752,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3555,10 +4763,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3569,7 +4777,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3577,10 +4785,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3588,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3599,10 +4807,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,10 +4818,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3621,10 +4829,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3632,10 +4840,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,10 +4851,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3654,10 +4862,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3665,10 +4873,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,10 +4884,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3687,10 +4895,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3698,10 +4906,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3709,10 +4917,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,10 +4928,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,10 +4939,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3742,10 +4950,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,7 +4961,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -3764,10 +4972,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3775,10 +4983,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3786,10 +4994,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3797,10 +5005,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3808,10 +5016,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3819,10 +5027,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,10 +5038,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3841,10 +5049,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3852,10 +5060,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,10 +5071,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,10 +5082,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,10 +5093,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3896,10 +5104,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3907,10 +5115,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,10 +5126,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3929,10 +5137,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3940,10 +5148,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3951,10 +5159,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3962,10 +5170,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3973,10 +5181,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3984,10 +5192,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3995,10 +5203,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4006,10 +5214,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4017,10 +5225,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4028,10 +5236,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4039,10 +5247,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4050,10 +5258,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>251</v>
+        <v>527</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4061,10 +5269,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>248</v>
+        <v>621</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4072,10 +5280,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>300</v>
+        <v>529</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>249</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4083,10 +5291,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>250</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4094,10 +5302,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4105,10 +5313,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4116,10 +5324,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4127,10 +5335,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4138,10 +5346,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4149,10 +5357,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4160,10 +5368,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4171,10 +5379,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4182,10 +5390,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4193,10 +5401,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4204,10 +5412,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,10 +5423,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,10 +5434,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4237,10 +5445,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,10 +5456,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,10 +5467,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,10 +5478,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,10 +5489,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,10 +5500,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,10 +5511,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4314,21 +5522,21 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>329</v>
+        <v>597</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>319</v>
+        <v>596</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4336,10 +5544,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4347,21 +5555,21 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,21 +5577,21 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,21 +5599,21 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -4413,21 +5621,21 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4435,21 +5643,21 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,21 +5665,21 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4479,659 +5687,1221 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
@@ -6557,6 +8327,111 @@
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1"/>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1"/>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1"/>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1"/>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1"/>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1"/>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -11,13 +11,16 @@
     <sheet name="oem" sheetId="2" r:id="rId2"/>
     <sheet name="calculate" sheetId="3" r:id="rId3"/>
     <sheet name="module" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1071">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2207,862 +2210,1975 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>离线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表单元配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日报表模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加报表单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井班报表模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井班报表模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日报表模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上插入一行</t>
+  </si>
+  <si>
+    <t>向下插入一行</t>
+  </si>
+  <si>
+    <t>向左插入一列</t>
+  </si>
+  <si>
+    <t>向右插入一列</t>
+  </si>
+  <si>
+    <t>删除行</t>
+  </si>
+  <si>
+    <t>删除列</t>
+  </si>
+  <si>
+    <t>合并单元格</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>剪切</t>
+  </si>
+  <si>
+    <t>粘贴</t>
+  </si>
+  <si>
+    <t>采控项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采控项配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqAndCtrlItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisitionItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqAndCtrlItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择采控单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqProtocolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrlProtocolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInPrefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInIDHex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeatPrefixSuffixHex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集协议类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制协议类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册包前后缀十六进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInPrefixSuffixHex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInSuffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册包ID十六进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳包前后缀十六进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeatPrefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册包前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册包后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳包前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳包后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeatSuffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单包发送间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packetSendInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择显示单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectDisplayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDisplayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAlarmUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择报警单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAlarmUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramWorkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井班报表内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日报表内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日报表内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井班报表内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择报表单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addReportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectReportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProtocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectProtocolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择协议类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owningDeviceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAcqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织隶属迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgRootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收报警邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收报警短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alreadyExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台获取数据失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionThrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emptyMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userOrgChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户隶属迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请再输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterPasswordAgain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
+  </si>
+  <si>
+    <t>enterpwdNotEqual</t>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的手机号码格式不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumberFormatError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的邮箱格式不正确</t>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailFormatError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQuickLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveAlarmMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveAlarmSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectLanguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该输入项为必输项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgParentChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前组织列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建组织信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owningOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先添加组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addOrgFirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据显示级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频密钥编辑权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleLicense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTypeLicense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleVideoKeyEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionalInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择下位机TCP类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adddDevie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceOrgChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateDataConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editVideoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAcqInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectdisplayInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectReportInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAlarmInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机TCP类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectDeviceTcpType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpingInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备隶属迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算数据配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑视频密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择应用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectApplicationScenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择采控实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择显示实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择报表实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择报警实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTcpType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册包ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机IP端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错峰延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peakDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备从地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油机详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliaryDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productionData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationScenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectDeviceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然气相对密度</t>
+  </si>
+  <si>
+    <t>泵筒类型</t>
+  </si>
+  <si>
+    <t>泵级别</t>
+  </si>
+  <si>
+    <t>一级杆类型</t>
+  </si>
+  <si>
+    <t>一级杆级别</t>
+  </si>
+  <si>
+    <t>二级杆类型</t>
+  </si>
+  <si>
+    <t>二级杆级别</t>
+  </si>
+  <si>
+    <t>三级杆类型</t>
+  </si>
+  <si>
+    <t>三级杆级别</t>
+  </si>
+  <si>
+    <t>四级杆类型</t>
+  </si>
+  <si>
+    <t>四级杆级别</t>
+  </si>
+  <si>
+    <t>工况干预</t>
+  </si>
+  <si>
+    <t>waterCut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crudeOilDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naturalGasRelativeDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saturationPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱和压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirTemperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油层中部深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油层中部温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirDepth_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirTemperature_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层中部深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层中部温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casingPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellHeadTemperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井口温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含水率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productionGasOilRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>producingfluidLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpSettingDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpBoreDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plungerLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingStringInsideDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingStringOutsideDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodGrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodGrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodGrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manualInterventionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netGrossRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netGrossValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelCorrectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产气油比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动液面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油管内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反演液面校正值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净毛值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净毛比(小数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵级数</t>
+  </si>
+  <si>
+    <t>钢杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃钢杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空心抽油杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整筒泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingPressure_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不干预</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层气井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册包ID/IP端口和设备从地址与其他设备冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataCollision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionInfo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionInfo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机IP端口和设备从地址与其他设备冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>模块控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superModule</t>
+  </si>
+  <si>
+    <t>父级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleMemo</t>
+  </si>
+  <si>
+    <t>moduleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleView</t>
+  </si>
+  <si>
+    <t>moduleControlller</t>
+  </si>
+  <si>
+    <t>moduleIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建模块信息</t>
+  </si>
+  <si>
+    <t>修改模块信息</t>
+  </si>
+  <si>
+    <t>editModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataModuleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataModuleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolBelongTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionaryBelongTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectLeafNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addParameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择叶子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建字典信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字典信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infotip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>dataColumnCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumnParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段参数设置</t>
+  </si>
+  <si>
+    <t>addDataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建字典数据项值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字典数据项值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editDataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑数据项值，以 * 号的文本框是必填项！</t>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarrelLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵筒长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarrelSeries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转子直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotorDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公称排量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerComputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>online</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表单元配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井日报表模板列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域日报模板列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域日报模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表内容配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportUnitConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportContentConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加报表单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井班报表模板列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceHourlyReportTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceDailyReportTemplateList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDailyReportTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceHourlyReportTemplateList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井班报表模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井日报表模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDailyReportTemplateList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向上插入一行</t>
-  </si>
-  <si>
-    <t>向下插入一行</t>
-  </si>
-  <si>
-    <t>向左插入一列</t>
-  </si>
-  <si>
-    <t>向右插入一列</t>
-  </si>
-  <si>
-    <t>删除行</t>
-  </si>
-  <si>
-    <t>删除列</t>
-  </si>
-  <si>
-    <t>合并单元格</t>
-  </si>
-  <si>
-    <t>复制</t>
-  </si>
-  <si>
-    <t>剪切</t>
-  </si>
-  <si>
-    <t>粘贴</t>
-  </si>
-  <si>
-    <t>采控项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveSuccessfully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveFailure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkOne</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集项配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采控项配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqAndCtrlItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acquisitionItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqAndCtrlItemConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addAcqInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择采控单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqProtocolType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrlProtocolType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signInPrefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signInIDHex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heartbeatPrefixSuffixHex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instanceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instanceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集协议类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制协议类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册包前后缀十六进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signInPrefixSuffixHex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signInSuffix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册包ID十六进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心跳包前后缀十六进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heartbeatPrefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册包前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册包后缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心跳包前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心跳包后缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heartbeatSuffix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单包发送间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>packetSendInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculateItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择显示单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectDisplayUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addDisplayUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectAlarmUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择报警单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addAlarmUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numericValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSDiagramWorkType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井班报表内容配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井日报表内容配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井日报表内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域日报内容配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域日报内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceHourlyReportContentConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceHourlyReportContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceDailyReportContentConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDailyReportContentConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井班报表内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceDailyReportTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceDailyReportContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDailyReportContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择报表单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addReportUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectReportUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addProtocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addAcqUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addAcqGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectProtocolType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择协议类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owningDeviceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectAcqUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织隶属迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织根节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgRootNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收报警邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收报警短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alreadyExist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台获取数据失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addSuccessfully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addFailure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptionThrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contactAdmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emptyMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordReset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userOrgChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户隶属迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请再输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterPasswordAgain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两次密码不一致</t>
-  </si>
-  <si>
-    <t>enterpwdNotEqual</t>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的手机号码格式不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNumberFormatError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的邮箱格式不正确</t>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailFormatError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userQuickLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveAlarmMail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveAlarmSMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectLanguage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该输入项为必输项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgParentChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前组织列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建组织信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addOrg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetOrg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owningOrg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先添加组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addOrgFirst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建角色信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据显示级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频密钥编辑权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleLicense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleLevel</t>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperComputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RWType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolutionMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始地址(十进制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculationColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联计算字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3070,929 +4186,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>viewFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceTypeLicense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleVideoKeyEdit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleRemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>additionalInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择下位机TCP类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adddDevie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceOrgChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>videoConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculateDataConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editVideoKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectAcqInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectdisplayInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectReportInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectAlarmInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下位机TCP类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectDeviceTcpType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpingInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batchAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备隶属迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算数据配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑视频密钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择应用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectApplicationScenarios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择采控实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择显示实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择报表实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择报警实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceTcpType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册包ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signInId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下位机IP端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错峰延时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peakDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备从地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽油机详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auxiliaryDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productionData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicationScenarios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectDeviceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天然气相对密度</t>
-  </si>
-  <si>
-    <t>泵筒类型</t>
-  </si>
-  <si>
-    <t>泵级别</t>
-  </si>
-  <si>
-    <t>一级杆类型</t>
-  </si>
-  <si>
-    <t>一级杆级别</t>
-  </si>
-  <si>
-    <t>二级杆类型</t>
-  </si>
-  <si>
-    <t>二级杆级别</t>
-  </si>
-  <si>
-    <t>三级杆类型</t>
-  </si>
-  <si>
-    <t>三级杆级别</t>
-  </si>
-  <si>
-    <t>四级杆类型</t>
-  </si>
-  <si>
-    <t>四级杆级别</t>
-  </si>
-  <si>
-    <t>工况干预</t>
-  </si>
-  <si>
-    <t>waterCut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crudeOilDensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterDensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naturalGasRelativeDensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saturationPressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱和压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservoirDepth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservoirTemperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油层中部深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油层中部温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservoirDepth_cbm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservoirTemperature_cbm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤层中部深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤层中部温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tubingPressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casingPressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wellHeadTemperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井口温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含水率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productionGasOilRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>producingfluidLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpSettingDepth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barrelType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpBoreDiameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plungerLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tubingStringInsideDiameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tubingStringOutsideDiameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringType3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodGrade1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringOutsideDiameter1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringInsideDiameter1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringLength1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodGrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringOutsideDiameter2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringInsideDiameter2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringLength2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodGrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringOutsideDiameter3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringInsideDiameter3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringLength3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manualInterventionCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netGrossRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netGrossValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelCorrectValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产气油比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动液面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱塞长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油管内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套管内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反演液面校正值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净毛值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净毛比(小数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵筒长(m)</t>
-  </si>
-  <si>
-    <t>泵级数</t>
-  </si>
-  <si>
-    <t>转子直径(mm)</t>
-  </si>
-  <si>
-    <t>公称排量(ml/转)</t>
-  </si>
-  <si>
-    <t>钢杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃钢杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空心抽油杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合泵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整筒泵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tubingPressure_cbm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不干预</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤层气井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册包ID/IP端口和设备从地址与其他设备冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataCollision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collisionInfo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collisionInfo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下位机IP端口和设备从地址与其他设备冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailedInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽油机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manufacturer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>模块控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>superModule</t>
-  </si>
-  <si>
-    <t>父级模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleMemo</t>
-  </si>
-  <si>
-    <t>moduleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleView</t>
-  </si>
-  <si>
-    <t>moduleControlller</t>
-  </si>
-  <si>
-    <t>moduleIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建模块信息</t>
-  </si>
-  <si>
-    <t>修改模块信息</t>
-  </si>
-  <si>
-    <t>editModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataModuleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataModuleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocolBelongTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionaryBelongTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectLeafNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addParameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择叶子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建字典信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addDictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改字典信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editDictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infotip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>dataColumnCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataColumnName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sortNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataColumnParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段参数设置</t>
-  </si>
-  <si>
-    <t>addDataItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建字典数据项值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改字典数据项值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editDataItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑数据项值，以 * 号的文本框是必填项！</t>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requiredInfo</t>
+    <t>showLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculateColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4394,8 +4615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4453,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -4552,7 +4773,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -4563,7 +4784,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>207</v>
@@ -4574,7 +4795,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>364</v>
@@ -4596,7 +4817,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>375</v>
@@ -4618,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>382</v>
@@ -4662,7 +4883,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>247</v>
@@ -4707,7 +4928,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4746,10 +4967,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4757,10 +4978,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4768,10 +4989,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4779,7 +5000,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>240</v>
@@ -4790,7 +5011,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>523</v>
@@ -4801,7 +5022,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>524</v>
@@ -4812,7 +5033,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>241</v>
@@ -4856,7 +5077,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>242</v>
@@ -4867,7 +5088,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>243</v>
@@ -4889,7 +5110,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>245</v>
@@ -4932,7 +5153,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>560</v>
+        <v>1018</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>559</v>
@@ -4969,10 +5190,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4991,10 +5212,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,7 +5234,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
@@ -5156,7 +5377,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>413</v>
@@ -5258,7 +5479,7 @@
         <v>528</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5300,70 +5521,70 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6058,7 +6279,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6242,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6367,7 +6588,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>120</v>
@@ -6759,445 +6980,553 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
       <c r="B47" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="C63" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C64" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="C71" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="C86" s="1" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="6" t="s">
-        <v>928</v>
-      </c>
-    </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1013</v>
+      </c>
       <c r="C95" s="6" t="s">
-        <v>929</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1015</v>
+      </c>
       <c r="C96" s="6" t="s">
-        <v>930</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7209,14 +7538,14 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="6" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="6" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7238,21 +7567,21 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -7264,7 +7593,7 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -7966,10 +8295,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C587"/>
+  <dimension ref="A1:C596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8071,10 +8400,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>797</v>
+        <v>1053</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8093,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>66</v>
@@ -8104,7 +8433,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>67</v>
@@ -8115,7 +8444,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>68</v>
@@ -8192,10 +8521,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8203,7 +8532,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -8225,7 +8554,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>78</v>
@@ -8236,7 +8565,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>79</v>
@@ -8566,7 +8895,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>222</v>
@@ -8591,7 +8920,7 @@
         <v>223</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8885,7 +9214,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>296</v>
@@ -9028,10 +9357,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -9072,7 +9401,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>519</v>
@@ -9083,10 +9412,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -9094,10 +9423,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -9105,10 +9434,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -9119,7 +9448,7 @@
         <v>330</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -9127,10 +9456,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -9138,10 +9467,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -9149,10 +9478,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -9237,7 +9566,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>350</v>
@@ -9336,10 +9665,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -9347,7 +9676,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>359</v>
@@ -9380,10 +9709,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -9391,10 +9720,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -9468,10 +9797,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -9479,10 +9808,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -9490,10 +9819,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -9501,10 +9830,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -9512,10 +9841,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -9523,10 +9852,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -9534,7 +9863,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>441</v>
@@ -9545,7 +9874,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>427</v>
@@ -9688,10 +10017,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -9787,10 +10116,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -10010,7 +10339,7 @@
         <v>530</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -10051,7 +10380,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>514</v>
@@ -10062,7 +10391,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>515</v>
@@ -10106,7 +10435,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>555</v>
@@ -10139,7 +10468,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>536</v>
@@ -10205,10 +10534,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -10216,10 +10545,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -10227,10 +10556,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -10238,10 +10567,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -10249,10 +10578,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -10260,10 +10589,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -10271,10 +10600,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -10282,10 +10611,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -10293,10 +10622,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -10304,10 +10633,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -10315,10 +10644,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -10326,10 +10655,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -10337,10 +10666,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -10348,10 +10677,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -10359,10 +10688,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -10370,10 +10699,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -10381,10 +10710,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -10392,10 +10721,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -10403,10 +10732,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -10414,10 +10743,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -10425,10 +10754,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -10436,10 +10765,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -10447,10 +10776,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -10458,10 +10787,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -10469,10 +10798,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -10480,10 +10809,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -10491,10 +10820,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -10502,10 +10831,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -10513,10 +10842,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -10524,10 +10853,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -10535,10 +10864,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -10546,10 +10875,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -10557,10 +10886,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -10568,10 +10897,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -10579,10 +10908,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -10590,10 +10919,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -10601,10 +10930,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -10612,10 +10941,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -10623,10 +10952,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -10634,10 +10963,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -10645,10 +10974,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -10656,10 +10985,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -10667,10 +10996,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -10678,10 +11007,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -10689,10 +11018,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -10700,10 +11029,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -10711,10 +11040,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -10722,10 +11051,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -10733,10 +11062,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -10744,10 +11073,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -10755,10 +11084,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -10766,10 +11095,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -10777,10 +11106,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -10788,10 +11117,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -10799,10 +11128,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -10810,10 +11139,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -10821,10 +11150,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -10832,10 +11161,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -10843,10 +11172,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -10854,10 +11183,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -10865,10 +11194,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -10876,10 +11205,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -10887,10 +11216,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -10898,10 +11227,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -10909,10 +11238,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -10920,10 +11249,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -10931,10 +11260,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -10942,10 +11271,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -10953,10 +11282,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -10964,10 +11293,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -10975,10 +11304,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -10986,10 +11315,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -10997,10 +11326,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>778</v>
+        <v>1062</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -11008,10 +11337,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -11019,10 +11348,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -11030,10 +11359,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -11041,10 +11370,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -11052,10 +11381,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -11063,10 +11392,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -11074,10 +11403,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -11085,10 +11414,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -11096,10 +11425,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -11107,10 +11436,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -11118,10 +11447,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -11129,10 +11458,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -11140,10 +11469,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -11151,10 +11480,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -11162,10 +11491,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -11173,10 +11502,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -11184,10 +11513,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -11195,10 +11524,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -11206,10 +11535,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -11217,10 +11546,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -11228,10 +11557,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -11239,10 +11568,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -11250,10 +11579,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -11261,10 +11590,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -11272,10 +11601,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -11283,10 +11612,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -11294,10 +11623,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -11305,10 +11634,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -11316,10 +11645,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -11327,10 +11656,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -11338,10 +11667,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -11349,10 +11678,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -11360,10 +11689,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -11371,10 +11700,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -11382,10 +11711,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -11393,10 +11722,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -11404,10 +11733,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -11415,10 +11744,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -11426,10 +11755,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -11437,10 +11766,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -11448,10 +11777,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -11459,10 +11788,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -11470,10 +11799,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>994</v>
+        <v>1060</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -11481,10 +11810,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -11492,10 +11821,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -11503,10 +11832,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -11514,10 +11843,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -11525,10 +11854,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -11536,10 +11865,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -11547,10 +11876,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -11558,10 +11887,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -11569,10 +11898,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -11580,10 +11909,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -11591,10 +11920,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -11602,10 +11931,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -11613,140 +11942,286 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1057</v>
+      </c>
       <c r="C348" s="1" t="s">
-        <v>939</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1052</v>
+      </c>
       <c r="C349" s="1" t="s">
-        <v>940</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
@@ -11936,12 +12411,16 @@
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
+      <c r="C394" s="1" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
+      <c r="C395" s="1" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
@@ -12902,10 +13381,95 @@
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
+      <c r="C588" s="1"/>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
+      <c r="C589" s="1"/>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1"/>
+      <c r="B590" s="1"/>
+      <c r="C590" s="1"/>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1"/>
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1"/>
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1"/>
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1"/>
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1"/>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1416">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3084,72 +3084,1680 @@
     <t>天然气相对密度</t>
   </si>
   <si>
+    <t>泵级别</t>
+  </si>
+  <si>
+    <t>一级杆类型</t>
+  </si>
+  <si>
+    <t>一级杆级别</t>
+  </si>
+  <si>
+    <t>二级杆类型</t>
+  </si>
+  <si>
+    <t>二级杆级别</t>
+  </si>
+  <si>
+    <t>三级杆类型</t>
+  </si>
+  <si>
+    <t>三级杆级别</t>
+  </si>
+  <si>
+    <t>四级杆类型</t>
+  </si>
+  <si>
+    <t>四级杆级别</t>
+  </si>
+  <si>
+    <t>工况干预</t>
+  </si>
+  <si>
+    <t>水密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱和压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油层中部温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirTemperature_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层中部深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层中部温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井口温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含水率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpBoreDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plungerLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodGrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodGrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelCorrectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产气油比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动液面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油管内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净毛值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净毛比(小数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵级数</t>
+  </si>
+  <si>
+    <t>玻璃钢杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空心抽油杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整筒泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层气井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册包ID/IP端口和设备从地址与其他设备冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataCollision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionInfo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionInfo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机IP端口和设备从地址与其他设备冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superModule</t>
+  </si>
+  <si>
+    <t>父级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleMemo</t>
+  </si>
+  <si>
+    <t>moduleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleView</t>
+  </si>
+  <si>
+    <t>moduleControlller</t>
+  </si>
+  <si>
+    <t>moduleIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建模块信息</t>
+  </si>
+  <si>
+    <t>修改模块信息</t>
+  </si>
+  <si>
+    <t>editModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataModuleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataModuleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolBelongTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionaryBelongTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectLeafNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addParameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择叶子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建字典信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字典信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infotip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>dataColumnCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumnParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段参数设置</t>
+  </si>
+  <si>
+    <t>addDataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建字典数据项值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字典数据项值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editDataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑数据项值，以 * 号的文本框是必填项！</t>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵筒长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转子直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotorDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公称排量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerComputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperComputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolutionMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始地址(十进制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculationColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联计算字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataShowLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RWType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSendMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSendEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupTimingInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupSavingInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculateColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owningDeviceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTypeRootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retriggerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hystersis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtimeMonitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchItemAlarmValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时持续检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次触发间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averageSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线统计类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqProtocolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrlProtocolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮或者双击表格，查看历史数据</t>
+  </si>
+  <si>
+    <t>showHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showHistoryBtnTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时监控数据</t>
+  </si>
+  <si>
+    <t>realtimeMonitoringExpFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y轴坐标在设置的最大最小值基础上再次自适应</t>
+  </si>
+  <si>
+    <t>reportDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramSetTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y轴预设最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y轴预设最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisMaxSetValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisMinSetValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄重心半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单块曲柄重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单块曲柄销重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构不平衡重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡块重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡块位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmTime</t>
+  </si>
+  <si>
+    <t>报警时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光杆功图叠加</t>
+  </si>
+  <si>
+    <t>电功图叠加</t>
+  </si>
+  <si>
+    <t>电流图叠加</t>
+  </si>
+  <si>
+    <t>FSDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owningOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceOverview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转方向</t>
+  </si>
+  <si>
+    <t>逆时针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificType</t>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteProtocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveAcqModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writeOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeAcqModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加采控组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑采控组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除采控组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCPCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPCCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisitionItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisition</t>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最旧值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyTotalValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井班报表模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井班报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleVideoKeyEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addVideoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoUrl</t>
+  </si>
+  <si>
+    <t>监控路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteVideoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crudeOilDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirTemperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casingPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellHeadTemperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterCut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productionGasOilRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>producingfluidLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpSettingDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingPressure_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naturalGasRelativeDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saturationPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirDepth_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarrelLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarrelSeries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>泵筒类型</t>
-  </si>
-  <si>
-    <t>泵级别</t>
-  </si>
-  <si>
-    <t>一级杆类型</t>
-  </si>
-  <si>
-    <t>一级杆级别</t>
-  </si>
-  <si>
-    <t>二级杆类型</t>
-  </si>
-  <si>
-    <t>二级杆级别</t>
-  </si>
-  <si>
-    <t>三级杆类型</t>
-  </si>
-  <si>
-    <t>三级杆级别</t>
-  </si>
-  <si>
-    <t>四级杆类型</t>
-  </si>
-  <si>
-    <t>四级杆级别</t>
-  </si>
-  <si>
-    <t>工况干预</t>
-  </si>
-  <si>
-    <t>waterCut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crudeOilDensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterDensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naturalGasRelativeDensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saturationPressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱和压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservoirDepth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservoirTemperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingStringInsideDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingStringOutsideDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodGrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netGrossRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netGrossValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反演液面校正值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manualInterventionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringType4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodGrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3157,1232 +4765,805 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油层中部温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservoirDepth_cbm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservoirTemperature_cbm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤层中部深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤层中部温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tubingPressure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>casingPressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wellHeadTemperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井口温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含水率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productionGasOilRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>producingfluidLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpSettingDepth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpBoreDiameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plungerLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tubingStringInsideDiameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tubingStringOutsideDiameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringType3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodGrade1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringOutsideDiameter1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringInsideDiameter1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringLength1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodGrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringOutsideDiameter2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringInsideDiameter2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringLength2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodGrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringOutsideDiameter3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringInsideDiameter3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringLength3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manualInterventionCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netGrossRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netGrossValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelCorrectValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产气油比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动液面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱塞长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油管内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套管内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反演液面校正值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净毛值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净毛比(小数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵级数</t>
-  </si>
-  <si>
-    <t>玻璃钢杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空心抽油杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整筒泵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tubingPressure_cbm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不干预</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤层气井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册包ID/IP端口和设备从地址与其他设备冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataCollision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collisionInfo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collisionInfo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下位机IP端口和设备从地址与其他设备冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailedInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽油机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>superModule</t>
-  </si>
-  <si>
-    <t>父级模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleMemo</t>
-  </si>
-  <si>
-    <t>moduleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleView</t>
-  </si>
-  <si>
-    <t>moduleControlller</t>
-  </si>
-  <si>
-    <t>moduleIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建模块信息</t>
-  </si>
-  <si>
-    <t>修改模块信息</t>
-  </si>
-  <si>
-    <t>editModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataModuleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataModuleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocolBelongTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionaryBelongTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectLeafNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addParameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择叶子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建字典信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addDictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改字典信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editDictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infotip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>dataColumnCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sortNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataColumnParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段参数设置</t>
-  </si>
-  <si>
-    <t>addDataItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建字典数据项值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改字典数据项值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editDataItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑数据项值，以 * 号的文本框是必填项！</t>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requiredInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BarrelLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵筒长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BarrelSeries</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转子直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RotorDiameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公称排量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上位机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lowerComputer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下位机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperComputer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeDataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储数据数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读写类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小数位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换算比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolutionMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始地址(十进制)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meaning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日累计字段名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculationColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联计算字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmLogic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataShowLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFDataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RWType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSendMessage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSendEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupTimingInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupSavingInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日累计计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyCalculateColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owningDeviceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceTypeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型根节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rootNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceTypeRootNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲线配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retriggerTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hystersis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realtimeMonitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警使能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchItemAlarmValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lowerLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延时持续检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次触发间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataColumnName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataSource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>averageSign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sumSign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲线统计类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instanceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqProtocolType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrlProtocolType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮或者双击表格，查看历史数据</t>
-  </si>
-  <si>
-    <t>showHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showHistoryBtnTooltip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时监控数据</t>
-  </si>
-  <si>
-    <t>realtimeMonitoringExpFileName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y轴坐标在设置的最大最小值基础上再次自适应</t>
-  </si>
-  <si>
-    <t>reportDiagramSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diagramSetTooltip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y轴预设最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y轴预设最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yAxisMaxSetValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yAxisMinSetValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
+    <t>noIntervention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡块信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y轴位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择Y轴位置</t>
+  </si>
+  <si>
+    <t>selectYAxisPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineDash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择线型</t>
+  </si>
+  <si>
+    <t>selectLineDash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameplateStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄旋转方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankRotationDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balancePosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺时针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铭牌冲程</t>
-  </si>
-  <si>
-    <t>曲柄旋转方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clockwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticlockwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotationDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曲柄偏置角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲柄重心半径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单块曲柄重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单块曲柄销重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构不平衡重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡块重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡块位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmTime</t>
-  </si>
-  <si>
-    <t>报警时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光杆功图叠加</t>
-  </si>
-  <si>
-    <t>电功图叠加</t>
-  </si>
-  <si>
-    <t>电流图叠加</t>
-  </si>
-  <si>
-    <t>FSDiagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSDiagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDiagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signInId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveSMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveMail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owningOrg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manufacturer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceOverview</t>
+    <t>offsetAngleOfCrank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankGravityRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleCrankWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleCrankPinWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structuralUnbalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线时率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞有效冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽空柱塞有效冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论下载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论排量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬时产液量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬时产油量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬时产水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞有效冲程计算产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵间隙漏失量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游动凡尔漏失量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定凡尔漏失量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计产液量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计产油量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计产水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光杆功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井下效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功图面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吨液百米耗电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油杆伸长量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油管伸缩量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惯性载荷增量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙漏失系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体收缩系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总泵效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口就地气液比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口粘度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口原油体积系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口就地气液比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口粘度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口原油体积系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程最大电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程最大功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程最大功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流平衡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉没度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVLeakWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commTimeEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runTimeEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noLiquidAvailablePlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLineOfExact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theoreticalProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStrokeProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpClearanceleakProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasInfluenceProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStrokeProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpClearanceleakProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasInfluenceProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averageWatt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polishRodPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfaceSystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellDownSystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyPer100mLift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodFlexLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingFlexLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inertiaLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeGOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeVisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletGOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletVisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeIMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeIMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeWattMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeWattMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDegreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wattDegreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deltaRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelDifferenceValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calcProducingfluidLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submergence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1_pcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体收缩系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullnessCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽空充满系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noLiquidFullnessCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑沉没压力的理论上载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞有效冲程计算产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVLeakVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVLeakWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVLeakVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有功功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲程损失系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容积效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2_pcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程最大电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率平衡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液面校正差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反演动液面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4390,390 +5571,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旋转方向</t>
-  </si>
-  <si>
-    <t>顺时针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆时针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specificType</t>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numericValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enumValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteProtocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveAcqModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writeOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activeAcqModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addAcqGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加采控组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑采控组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editAcqGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除采控组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteAcqGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCPCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmSign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmLevel1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPCCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acquisitionItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acquisition</t>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最旧值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日累计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avgValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyTotalValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceHourlyReportTemplateList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井班报表模板列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井班报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单井日报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceDailyReportTemplateList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceDailyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域日报模板列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域日报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDailyReportTemplateList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceHourlyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDailyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType_avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newestValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldestValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sumValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加密钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除密钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频密钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleVideoKeyEdit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>videoKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addVideoKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>videoUrl</t>
-  </si>
-  <si>
-    <t>监控路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteVideoKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合泵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barrelType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barrelType_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barrelType_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringType3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringTypeValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringTypeValue2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringTypeValue3</t>
+    <t>井底压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BottomHolePressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>转速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5175,8 +5984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5333,7 +6142,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>927</v>
+        <v>900</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -5344,7 +6153,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>196</v>
@@ -5355,7 +6164,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>341</v>
@@ -5659,7 +6468,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1152</v>
+        <v>1117</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>232</v>
@@ -5730,7 +6539,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>524</v>
@@ -5928,7 +6737,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>390</v>
@@ -7012,10 +7821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7051,7 +7860,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1093</v>
+        <v>1060</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>84</v>
@@ -7106,7 +7915,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1112</v>
+        <v>1079</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>88</v>
@@ -7337,7 +8146,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1094</v>
+        <v>1061</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>112</v>
@@ -7414,7 +8223,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1095</v>
+        <v>1062</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>133</v>
@@ -7535,10 +8344,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>794</v>
+        <v>1176</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>944</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7546,10 +8355,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>795</v>
+        <v>1184</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7557,7 +8366,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>796</v>
+        <v>1187</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>781</v>
@@ -7568,10 +8377,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>797</v>
+        <v>1188</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7579,10 +8388,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>802</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7590,10 +8399,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>801</v>
+        <v>1177</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7601,10 +8410,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>804</v>
+        <v>1189</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7612,10 +8421,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7623,10 +8432,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>808</v>
+        <v>1210</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7634,10 +8443,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>867</v>
+        <v>1185</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7645,10 +8454,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>809</v>
+        <v>1178</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7656,10 +8465,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>810</v>
+        <v>1179</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7667,10 +8476,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>793</v>
+        <v>1180</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7678,10 +8487,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>815</v>
+        <v>1181</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7689,10 +8498,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>816</v>
+        <v>1182</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7700,10 +8509,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>817</v>
+        <v>1183</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7711,10 +8520,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>782</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7722,10 +8531,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>819</v>
+        <v>1193</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7733,10 +8542,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7744,10 +8553,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7755,10 +8564,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7766,10 +8575,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7777,10 +8586,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7788,10 +8597,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>826</v>
+        <v>1196</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7799,10 +8608,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7810,10 +8619,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>828</v>
+        <v>1197</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7821,10 +8630,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>829</v>
+        <v>1198</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7832,10 +8641,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7843,10 +8652,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7854,10 +8663,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7865,10 +8674,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7876,10 +8685,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7887,10 +8696,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7898,10 +8707,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7909,10 +8718,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -7920,10 +8729,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7931,10 +8740,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -7942,10 +8751,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7953,10 +8762,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>834</v>
+        <v>1205</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -7964,10 +8773,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>835</v>
+        <v>1206</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7975,10 +8784,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>836</v>
+        <v>1207</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7986,10 +8795,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>837</v>
+        <v>1208</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7997,10 +8806,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>838</v>
+        <v>1202</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -8008,10 +8817,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>839</v>
+        <v>1199</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -8019,10 +8828,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -8030,10 +8839,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>852</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -8041,10 +8850,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>945</v>
+        <v>1190</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>946</v>
+        <v>917</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -8052,10 +8861,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>947</v>
+        <v>1191</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -8063,10 +8872,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>949</v>
+        <v>919</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>948</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -8074,10 +8883,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>951</v>
+        <v>921</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>950</v>
+        <v>920</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -8085,10 +8894,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1207</v>
+        <v>1171</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1204</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -8096,10 +8905,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1206</v>
+        <v>1170</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>866</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -8107,10 +8916,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1211</v>
+        <v>1175</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1208</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -8118,10 +8927,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1212</v>
+        <v>1173</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>864</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -8129,522 +8938,1078 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1243</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>869</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1254</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>1074</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1255</v>
+      </c>
       <c r="C111" s="1" t="s">
-        <v>1075</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="C112" s="1" t="s">
-        <v>1076</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1247</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>1077</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1244</v>
+      </c>
       <c r="C114" s="1" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1250</v>
+      </c>
       <c r="C115" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1248</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>1080</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1249</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1413</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>1082</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1312</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>1116</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1313</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>1117</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1379</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>1118</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1263</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1268</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1271</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1272</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1273</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1396</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1277</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1278</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1271</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>1272</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>1273</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1277</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1278</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>1288</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>1289</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>1290</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>1298</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>1299</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>1300</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>1303</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>1304</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>1306</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>1307</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>1410</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>1308</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
@@ -8880,6 +10245,196 @@
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8890,10 +10445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C636"/>
+  <dimension ref="A1:C638"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8995,7 +10550,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>735</v>
@@ -9006,7 +10561,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1114</v>
+        <v>1081</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>63</v>
@@ -9028,7 +10583,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1087</v>
+        <v>1054</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>65</v>
@@ -9138,7 +10693,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1052</v>
+        <v>1022</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
@@ -9149,10 +10704,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1053</v>
+        <v>1023</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1051</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9193,10 +10748,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1055</v>
+        <v>1025</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1054</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9248,7 +10803,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1085</v>
+        <v>1052</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>168</v>
@@ -9259,7 +10814,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1061</v>
+        <v>1031</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>169</v>
@@ -9292,10 +10847,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1049</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9303,10 +10858,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1057</v>
+        <v>1027</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1056</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9325,7 +10880,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1027</v>
+        <v>997</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>175</v>
@@ -9380,7 +10935,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1059</v>
+        <v>1029</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>184</v>
@@ -9391,10 +10946,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1058</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9402,10 +10957,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1068</v>
+        <v>1038</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1067</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9413,10 +10968,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1069</v>
+        <v>1039</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1062</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9424,10 +10979,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1065</v>
+        <v>1035</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1063</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9435,10 +10990,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1064</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9468,7 +11023,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1088</v>
+        <v>1055</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>241</v>
@@ -9567,10 +11122,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1099</v>
+        <v>1066</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1096</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9578,10 +11133,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1100</v>
+        <v>1067</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1097</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9589,10 +11144,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1101</v>
+        <v>1068</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1098</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9842,7 +11397,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1150</v>
+        <v>1115</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>276</v>
@@ -9853,7 +11408,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1151</v>
+        <v>1116</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>260</v>
@@ -9897,7 +11452,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>994</v>
+        <v>964</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>263</v>
@@ -9908,7 +11463,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>995</v>
+        <v>965</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>277</v>
@@ -9941,10 +11496,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1083</v>
+        <v>1050</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1084</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -9952,7 +11507,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>279</v>
@@ -9974,7 +11529,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1154</v>
+        <v>1119</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>289</v>
@@ -9985,7 +11540,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1147</v>
+        <v>1112</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>282</v>
@@ -10062,7 +11617,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1148</v>
+        <v>1113</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>290</v>
@@ -10106,10 +11661,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1007</v>
+        <v>977</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1008</v>
+        <v>978</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -10117,10 +11672,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1011</v>
+        <v>981</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1009</v>
+        <v>979</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -10260,7 +11815,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>322</v>
@@ -10271,7 +11826,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>323</v>
@@ -10282,7 +11837,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1072</v>
+        <v>1042</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>324</v>
@@ -10425,7 +11980,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>932</v>
+        <v>905</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>534</v>
@@ -10436,7 +11991,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>913</v>
+        <v>886</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>336</v>
@@ -10469,10 +12024,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1005</v>
+        <v>975</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1006</v>
+        <v>976</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -10546,10 +12101,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1129</v>
+        <v>1094</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1132</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -10557,10 +12112,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1130</v>
+        <v>1095</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1121</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -10568,10 +12123,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1133</v>
+        <v>1098</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1122</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -10579,10 +12134,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1134</v>
+        <v>1099</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1123</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -10590,10 +12145,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1135</v>
+        <v>1100</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1124</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -10601,10 +12156,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1131</v>
+        <v>1096</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1125</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -10634,7 +12189,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1159</v>
+        <v>1123</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>561</v>
@@ -10700,10 +12255,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1137</v>
+        <v>1102</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1138</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -10711,10 +12266,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1140</v>
+        <v>1105</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1139</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -10722,10 +12277,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1142</v>
+        <v>1107</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1141</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -10744,7 +12299,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1115</v>
+        <v>1411</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>404</v>
@@ -10788,10 +12343,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1143</v>
+        <v>1108</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1136</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -10799,7 +12354,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1144</v>
+        <v>1109</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>421</v>
@@ -10821,7 +12376,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>996</v>
+        <v>966</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>413</v>
@@ -10832,7 +12387,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>997</v>
+        <v>967</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>408</v>
@@ -10854,7 +12409,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1010</v>
+        <v>980</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>419</v>
@@ -10876,10 +12431,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1146</v>
+        <v>1111</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1145</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11239,7 +12794,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1155</v>
+        <v>1120</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>482</v>
@@ -11283,7 +12838,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1126</v>
+        <v>1091</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>521</v>
@@ -11305,10 +12860,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1128</v>
+        <v>1093</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1127</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -11404,10 +12959,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1090</v>
+        <v>1057</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1089</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -11415,10 +12970,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1187</v>
+        <v>1151</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1180</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -11426,10 +12981,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1178</v>
+        <v>1142</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1179</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -11470,10 +13025,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1183</v>
+        <v>1147</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1181</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -11481,7 +13036,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1182</v>
+        <v>1146</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>532</v>
@@ -11525,10 +13080,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1188</v>
+        <v>1152</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1185</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -11536,10 +13091,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1186</v>
+        <v>1150</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1184</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -11602,10 +13157,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1161</v>
+        <v>1125</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1153</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -11613,10 +13168,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1156</v>
+        <v>1393</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1157</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -11624,10 +13179,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1160</v>
+        <v>1124</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1158</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -11635,10 +13190,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1192</v>
+        <v>1156</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1173</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -11646,10 +13201,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1168</v>
+        <v>1132</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1165</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -11657,10 +13212,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1169</v>
+        <v>1133</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1166</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -11668,10 +13223,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1170</v>
+        <v>1134</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1167</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -11679,10 +13234,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1190</v>
+        <v>1154</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1162</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -11690,10 +13245,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1191</v>
+        <v>1155</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -11701,10 +13256,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1171</v>
+        <v>1135</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1164</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -11723,7 +13278,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1046</v>
+        <v>1016</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>571</v>
@@ -11734,7 +13289,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1047</v>
+        <v>1017</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>575</v>
@@ -11745,7 +13300,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1048</v>
+        <v>1018</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>576</v>
@@ -11899,7 +13454,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1091</v>
+        <v>1058</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>665</v>
@@ -11943,7 +13498,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1092</v>
+        <v>1059</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>639</v>
@@ -12108,7 +13663,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1073</v>
+        <v>1043</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>647</v>
@@ -12119,7 +13674,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1199</v>
+        <v>1163</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>690</v>
@@ -12130,7 +13685,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>648</v>
@@ -12141,7 +13696,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>942</v>
+        <v>915</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>691</v>
@@ -12152,10 +13707,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>943</v>
+        <v>916</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>941</v>
+        <v>914</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -12174,7 +13729,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1108</v>
+        <v>1075</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>698</v>
@@ -12218,10 +13773,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1104</v>
+        <v>1071</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1107</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -12229,10 +13784,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1105</v>
+        <v>1072</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1106</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -12240,10 +13795,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1110</v>
+        <v>1077</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1109</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -12361,7 +13916,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>713</v>
@@ -12372,7 +13927,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1196</v>
+        <v>1160</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>714</v>
@@ -12559,7 +14114,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1102</v>
+        <v>1069</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>768</v>
@@ -12581,7 +14136,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1103</v>
+        <v>1070</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>774</v>
@@ -12625,10 +14180,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -12636,10 +14191,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>875</v>
+        <v>848</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -12647,10 +14202,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -12658,10 +14213,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -12669,10 +14224,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1113</v>
+        <v>1080</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>883</v>
+        <v>856</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -12680,10 +14235,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1111</v>
+        <v>1078</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -12691,10 +14246,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1120</v>
+        <v>1085</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1119</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -12702,10 +14257,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>890</v>
+        <v>863</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -12713,10 +14268,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>892</v>
+        <v>865</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>893</v>
+        <v>866</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -12724,10 +14279,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>896</v>
+        <v>869</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>895</v>
+        <v>868</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -12735,10 +14290,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>897</v>
+        <v>870</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -12746,10 +14301,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>898</v>
+        <v>871</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -12757,10 +14312,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>899</v>
+        <v>872</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -12768,10 +14323,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>900</v>
+        <v>873</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>886</v>
+        <v>859</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -12779,10 +14334,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>901</v>
+        <v>874</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -12790,10 +14345,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>888</v>
+        <v>861</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -12801,10 +14356,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>894</v>
+        <v>867</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -12812,10 +14367,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>905</v>
+        <v>878</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>902</v>
+        <v>875</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -12823,10 +14378,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>903</v>
+        <v>876</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -12834,10 +14389,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -12845,10 +14400,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1086</v>
+        <v>1053</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -12856,10 +14411,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>911</v>
+        <v>884</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>910</v>
+        <v>883</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -12867,10 +14422,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -12878,10 +14433,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>914</v>
+        <v>887</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -12889,10 +14444,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -12900,10 +14455,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>917</v>
+        <v>890</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -12911,10 +14466,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -12922,10 +14477,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -12933,10 +14488,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>926</v>
+        <v>899</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>925</v>
+        <v>898</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -12944,10 +14499,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>955</v>
+        <v>925</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -12955,10 +14510,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1039</v>
+        <v>1009</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>929</v>
+        <v>902</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -12966,10 +14521,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -12977,10 +14532,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>933</v>
+        <v>906</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>934</v>
+        <v>907</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -12988,10 +14543,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>936</v>
+        <v>909</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -12999,10 +14554,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -13010,10 +14565,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>961</v>
+        <v>931</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -13021,10 +14576,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -13032,10 +14587,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>958</v>
+        <v>928</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,10 +14598,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -13054,10 +14609,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>965</v>
+        <v>935</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,10 +14620,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>966</v>
+        <v>936</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,10 +14631,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>992</v>
+        <v>962</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>967</v>
+        <v>937</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -13087,10 +14642,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>993</v>
+        <v>963</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>968</v>
+        <v>938</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -13098,10 +14653,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>989</v>
+        <v>959</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>969</v>
+        <v>939</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -13109,10 +14664,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>970</v>
+        <v>940</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -13120,10 +14675,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>991</v>
+        <v>961</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>971</v>
+        <v>941</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -13131,10 +14686,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>959</v>
+        <v>929</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -13142,10 +14697,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>973</v>
+        <v>943</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -13153,10 +14708,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1021</v>
+        <v>991</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -13164,10 +14719,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>983</v>
+        <v>953</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>982</v>
+        <v>952</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -13175,10 +14730,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>976</v>
+        <v>946</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -13186,10 +14741,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>979</v>
+        <v>949</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>984</v>
+        <v>954</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -13197,10 +14752,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>985</v>
+        <v>955</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>986</v>
+        <v>956</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -13208,10 +14763,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1003</v>
+        <v>973</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -13219,10 +14774,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1004</v>
+        <v>974</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -13230,10 +14785,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>998</v>
+        <v>968</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -13241,10 +14796,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1001</v>
+        <v>971</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -13252,10 +14807,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1045</v>
+        <v>1015</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>988</v>
+        <v>958</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -13263,10 +14818,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1014</v>
+        <v>984</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1013</v>
+        <v>983</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -13274,10 +14829,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1022</v>
+        <v>992</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1024</v>
+        <v>994</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -13285,10 +14840,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1025</v>
+        <v>995</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1026</v>
+        <v>996</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -13296,10 +14851,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1023</v>
+        <v>993</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1012</v>
+        <v>982</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -13307,10 +14862,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -13318,10 +14873,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1016</v>
+        <v>986</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -13329,10 +14884,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1017</v>
+        <v>987</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -13340,10 +14895,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1018</v>
+        <v>988</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1032</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -13351,10 +14906,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1019</v>
+        <v>989</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1033</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -13362,10 +14917,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1149</v>
+        <v>1114</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1028</v>
+        <v>998</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -13373,10 +14928,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1029</v>
+        <v>999</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1034</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -13384,10 +14939,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1035</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -13395,10 +14950,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1042</v>
+        <v>1012</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1036</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -13406,10 +14961,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1043</v>
+        <v>1013</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1037</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -13417,10 +14972,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1041</v>
+        <v>1011</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1038</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -13428,10 +14983,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1172</v>
+        <v>1136</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1044</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -13439,10 +14994,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1175</v>
+        <v>1139</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1173</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -13450,10 +15005,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1189</v>
+        <v>1153</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1174</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -13461,10 +15016,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1176</v>
+        <v>1140</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1165</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -13472,10 +15027,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1177</v>
+        <v>1141</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1166</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -13483,10 +15038,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1197</v>
+        <v>1161</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1195</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -13494,10 +15049,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -13505,10 +15060,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1198</v>
+        <v>1162</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1193</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -13516,100 +15071,184 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1203</v>
+        <v>1167</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1194</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="1"/>
-      <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="1"/>
-      <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1220</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="1"/>
-      <c r="B424" s="1"/>
-      <c r="C424" s="1"/>
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
-      <c r="B425" s="1"/>
-      <c r="C425" s="1"/>
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="1"/>
-      <c r="B426" s="1"/>
-      <c r="C426" s="1"/>
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>1229</v>
+      </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="1"/>
-      <c r="B427" s="1"/>
-      <c r="C427" s="1"/>
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="1"/>
-      <c r="B428" s="1"/>
-      <c r="C428" s="1"/>
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1232</v>
+      </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="1"/>
-      <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="1"/>
-      <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1238</v>
+      </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
-      <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="1"/>
-      <c r="B433" s="1"/>
-      <c r="C433" s="1"/>
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1258</v>
+      </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="1"/>
-      <c r="B434" s="1"/>
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1378</v>
+      </c>
       <c r="C434" s="1" t="s">
-        <v>870</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
-      <c r="C435" s="1" t="s">
-        <v>871</v>
-      </c>
+      <c r="C435" s="1"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
+      <c r="C436" s="1" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
+      <c r="C437" s="1" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
@@ -14605,6 +16244,16 @@
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1"/>
+      <c r="B637" s="1"/>
+      <c r="C637" s="1"/>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1"/>
+      <c r="B638" s="1"/>
+      <c r="C638" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -6509,8 +6509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -18162,8 +18162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1558">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5605,33 +5605,6 @@
     <t>工况报警</t>
   </si>
   <si>
-    <t>BJQJYS</t>
-  </si>
-  <si>
-    <t>dc2828</t>
-  </si>
-  <si>
-    <t>f09614</t>
-  </si>
-  <si>
-    <t>fae600</t>
-  </si>
-  <si>
-    <t>BJYS</t>
-  </si>
-  <si>
-    <t>00ff00</t>
-  </si>
-  <si>
-    <t>#808080</t>
-  </si>
-  <si>
-    <t>BJYSTMD</t>
-  </si>
-  <si>
-    <t>BJYSTMD3</t>
-  </si>
-  <si>
     <t>DEVICETYPE</t>
   </si>
   <si>
@@ -5671,443 +5644,407 @@
     <t>LANGUAGE</t>
   </si>
   <si>
+    <t>MD_TYPE</t>
+  </si>
+  <si>
+    <t>启用模块</t>
+  </si>
+  <si>
+    <t>备用模块</t>
+  </si>
+  <si>
+    <t>SYSTEMACTION</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>用户退出</t>
+  </si>
+  <si>
+    <t>驱动配置</t>
+  </si>
+  <si>
+    <t>模块访问</t>
+  </si>
+  <si>
+    <t>数据导出</t>
+  </si>
+  <si>
+    <t>ITEMNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goOnline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emptyMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽喷</t>
+  </si>
+  <si>
+    <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>图形呈平行四边形；充满系数≥0.6。</t>
+  </si>
+  <si>
+    <t>充满不足</t>
+  </si>
+  <si>
+    <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
+  </si>
+  <si>
+    <t>供液不足</t>
+  </si>
+  <si>
+    <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
+  </si>
+  <si>
+    <t>间抽或降低冲次</t>
+  </si>
+  <si>
+    <t>供液极差</t>
+  </si>
+  <si>
+    <t>图形下面部分呈角度；充满系数﹤0.1。</t>
+  </si>
+  <si>
+    <t>抽空</t>
+  </si>
+  <si>
+    <t>图形呈条状；产量为零。</t>
+  </si>
+  <si>
+    <t>泵下堵</t>
+  </si>
+  <si>
+    <t>充满系数﹤0.3；沉没度较高。</t>
+  </si>
+  <si>
+    <t>洗井或加药</t>
+  </si>
+  <si>
+    <t>气锁</t>
+  </si>
+  <si>
+    <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
+  </si>
+  <si>
+    <t>合理控制气体</t>
+  </si>
+  <si>
+    <t>气影响</t>
+  </si>
+  <si>
+    <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
+  </si>
+  <si>
+    <t>间隙漏</t>
+  </si>
+  <si>
+    <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
+  </si>
+  <si>
+    <t>检泵</t>
+  </si>
+  <si>
+    <t>油管漏</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
+  </si>
+  <si>
+    <t>油管打压试验</t>
+  </si>
+  <si>
+    <t>游动凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
+  </si>
+  <si>
+    <t>洗井、碰泵或检泵</t>
+  </si>
+  <si>
+    <t>固定凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
+  </si>
+  <si>
+    <t>双凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
+  </si>
+  <si>
+    <t>游动凡尔失灵/油管漏</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
+  </si>
+  <si>
+    <t>洗井、碰泵或检泵/打压、更换油管</t>
+  </si>
+  <si>
+    <t>固定凡尔失灵</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
+  </si>
+  <si>
+    <t>双凡尔失灵</t>
+  </si>
+  <si>
+    <t>上死点别、碰</t>
+  </si>
+  <si>
+    <t>校正井口设备</t>
+  </si>
+  <si>
+    <t>碰泵</t>
+  </si>
+  <si>
+    <t>图形左下角拖尾。</t>
+  </si>
+  <si>
+    <t>上提（增大）防冲距</t>
+  </si>
+  <si>
+    <t>活塞/底部断脱/未入工作筒</t>
+  </si>
+  <si>
+    <t>检泵/下放（缩小）防冲距</t>
+  </si>
+  <si>
+    <t>柱塞脱出工作筒</t>
+  </si>
+  <si>
+    <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
+  </si>
+  <si>
+    <t>下放（缩小）防冲距</t>
+  </si>
+  <si>
+    <t>杆断脱</t>
+  </si>
+  <si>
+    <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
+  </si>
+  <si>
+    <t>替换抽油杆</t>
+  </si>
+  <si>
+    <t>杆(泵)卡</t>
+  </si>
+  <si>
+    <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
+  </si>
+  <si>
+    <t>洗井或检泵</t>
+  </si>
+  <si>
+    <t>结蜡</t>
+  </si>
+  <si>
+    <t>图形肥大；产量下降。</t>
+  </si>
+  <si>
+    <t>严重结蜡</t>
+  </si>
+  <si>
+    <t>出砂</t>
+  </si>
+  <si>
+    <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
+  </si>
+  <si>
+    <t>防砂</t>
+  </si>
+  <si>
+    <t>严重出砂</t>
+  </si>
+  <si>
+    <t>惯性载荷大</t>
+  </si>
+  <si>
+    <t>图形顺时针偏转。</t>
+  </si>
+  <si>
+    <t>降低冲次</t>
+  </si>
+  <si>
+    <t>应力超标</t>
+  </si>
+  <si>
+    <t>优化抽油杆柱组合</t>
+  </si>
+  <si>
+    <t>采集异常</t>
+  </si>
+  <si>
+    <t>检查采集仪表</t>
+  </si>
+  <si>
+    <t>停抽</t>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTTEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTDESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTIMIZATIONSUGGESTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形右上角凸起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMLEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMLEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCPCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingOpenValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingCloseValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTSTATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTSTATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEMACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLICATIONSCENARIOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationScenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICETYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>zh_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ru</t>
-  </si>
-  <si>
-    <t>MD_TYPE</t>
-  </si>
-  <si>
-    <t>启用模块</t>
-  </si>
-  <si>
-    <t>备用模块</t>
-  </si>
-  <si>
-    <t>PROTOCOL</t>
-  </si>
-  <si>
-    <t>modbus-tcp</t>
-  </si>
-  <si>
-    <t>modbus-rtu</t>
-  </si>
-  <si>
-    <t>SYSTEMACTION</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>用户退出</t>
-  </si>
-  <si>
-    <t>驱动配置</t>
-  </si>
-  <si>
-    <t>模块访问</t>
-  </si>
-  <si>
-    <t>数据导出</t>
-  </si>
-  <si>
-    <t>TXBJQJYS</t>
-  </si>
-  <si>
-    <t>6c6262</t>
-  </si>
-  <si>
-    <t>TXBJYS</t>
-  </si>
-  <si>
-    <t>TXBJYSTMD</t>
-  </si>
-  <si>
-    <t>YXBJQJYS</t>
-  </si>
-  <si>
-    <t>YXBJYS</t>
-  </si>
-  <si>
-    <t>YXBJYSTMD</t>
-  </si>
-  <si>
-    <t>ITEMNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goOnline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emptyMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽喷</t>
-  </si>
-  <si>
-    <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>图形呈平行四边形；充满系数≥0.6。</t>
-  </si>
-  <si>
-    <t>充满不足</t>
-  </si>
-  <si>
-    <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
-  </si>
-  <si>
-    <t>供液不足</t>
-  </si>
-  <si>
-    <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
-  </si>
-  <si>
-    <t>间抽或降低冲次</t>
-  </si>
-  <si>
-    <t>供液极差</t>
-  </si>
-  <si>
-    <t>图形下面部分呈角度；充满系数﹤0.1。</t>
-  </si>
-  <si>
-    <t>抽空</t>
-  </si>
-  <si>
-    <t>图形呈条状；产量为零。</t>
-  </si>
-  <si>
-    <t>泵下堵</t>
-  </si>
-  <si>
-    <t>充满系数﹤0.3；沉没度较高。</t>
-  </si>
-  <si>
-    <t>洗井或加药</t>
-  </si>
-  <si>
-    <t>气锁</t>
-  </si>
-  <si>
-    <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
-  </si>
-  <si>
-    <t>合理控制气体</t>
-  </si>
-  <si>
-    <t>气影响</t>
-  </si>
-  <si>
-    <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
-  </si>
-  <si>
-    <t>间隙漏</t>
-  </si>
-  <si>
-    <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
-  </si>
-  <si>
-    <t>检泵</t>
-  </si>
-  <si>
-    <t>油管漏</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
-  </si>
-  <si>
-    <t>油管打压试验</t>
-  </si>
-  <si>
-    <t>游动凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
-  </si>
-  <si>
-    <t>洗井、碰泵或检泵</t>
-  </si>
-  <si>
-    <t>固定凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
-  </si>
-  <si>
-    <t>双凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
-  </si>
-  <si>
-    <t>游动凡尔失灵/油管漏</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
-  </si>
-  <si>
-    <t>洗井、碰泵或检泵/打压、更换油管</t>
-  </si>
-  <si>
-    <t>固定凡尔失灵</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
-  </si>
-  <si>
-    <t>双凡尔失灵</t>
-  </si>
-  <si>
-    <t>上死点别、碰</t>
-  </si>
-  <si>
-    <t>校正井口设备</t>
-  </si>
-  <si>
-    <t>碰泵</t>
-  </si>
-  <si>
-    <t>图形左下角拖尾。</t>
-  </si>
-  <si>
-    <t>上提（增大）防冲距</t>
-  </si>
-  <si>
-    <t>活塞/底部断脱/未入工作筒</t>
-  </si>
-  <si>
-    <t>检泵/下放（缩小）防冲距</t>
-  </si>
-  <si>
-    <t>柱塞脱出工作筒</t>
-  </si>
-  <si>
-    <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
-  </si>
-  <si>
-    <t>下放（缩小）防冲距</t>
-  </si>
-  <si>
-    <t>杆断脱</t>
-  </si>
-  <si>
-    <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
-  </si>
-  <si>
-    <t>替换抽油杆</t>
-  </si>
-  <si>
-    <t>杆(泵)卡</t>
-  </si>
-  <si>
-    <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
-  </si>
-  <si>
-    <t>洗井或检泵</t>
-  </si>
-  <si>
-    <t>结蜡</t>
-  </si>
-  <si>
-    <t>图形肥大；产量下降。</t>
-  </si>
-  <si>
-    <t>严重结蜡</t>
-  </si>
-  <si>
-    <t>出砂</t>
-  </si>
-  <si>
-    <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
-  </si>
-  <si>
-    <t>防砂</t>
-  </si>
-  <si>
-    <t>严重出砂</t>
-  </si>
-  <si>
-    <t>惯性载荷大</t>
-  </si>
-  <si>
-    <t>图形顺时针偏转。</t>
-  </si>
-  <si>
-    <t>降低冲次</t>
-  </si>
-  <si>
-    <t>应力超标</t>
-  </si>
-  <si>
-    <t>优化抽油杆柱组合</t>
-  </si>
-  <si>
-    <t>采集异常</t>
-  </si>
-  <si>
-    <t>检查采集仪表</t>
-  </si>
-  <si>
-    <t>停抽</t>
-  </si>
-  <si>
-    <t>IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTTEMPLATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTDESCRIPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPTIMIZATIONSUGGESTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形右上角凸起。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALARMLEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALARMLEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPCCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCPCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchingValueAlarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchingOpenValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchingCloseValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BJQJYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTSTATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTSTATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEMACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALARMTYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPLICATIONSCENARIOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicationScenarios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROTOCOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRPCalculate</t>
   </si>
 </sst>
 </file>
@@ -6509,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7053,10 +6990,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1472</v>
+        <v>1449</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1471</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7064,7 +7001,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1473</v>
+        <v>1450</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>519</v>
@@ -7075,7 +7012,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1474</v>
+        <v>1451</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>520</v>
@@ -7119,10 +7056,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1475</v>
+        <v>1452</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1476</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10972,8 +10909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C641"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11900,7 +11837,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1563</v>
+        <v>1539</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>257</v>
@@ -12054,7 +11991,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>286</v>
@@ -12065,7 +12002,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1560</v>
+        <v>1536</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>279</v>
@@ -14551,7 +14488,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1575</v>
+        <v>1550</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>738</v>
@@ -15761,10 +15698,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1564</v>
+        <v>1540</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1561</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -15772,10 +15709,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1562</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -16816,10 +16753,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16840,7 +16777,7 @@
         <v>1406</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1468</v>
+        <v>1446</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1407</v>
@@ -16852,7 +16789,7 @@
         <v>1409</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1469</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16860,7 +16797,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1572</v>
+        <v>1547</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1411</v>
@@ -16928,7 +16865,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1574</v>
+        <v>1549</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1416</v>
@@ -16966,7 +16903,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1557</v>
+        <v>1534</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>1419</v>
@@ -16983,10 +16920,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1556</v>
+        <v>1533</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1558</v>
+        <v>1535</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -17000,7 +16937,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1557</v>
+        <v>1534</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>1420</v>
@@ -17017,7 +16954,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1556</v>
+        <v>1533</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>1421</v>
@@ -17034,7 +16971,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1556</v>
+        <v>1533</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>1422</v>
@@ -17048,16 +16985,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1566</v>
+        <v>1424</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1470</v>
+        <v>1425</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -17065,16 +17002,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>1424</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -17082,16 +17019,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1424</v>
+        <v>1552</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D15" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -17099,16 +17036,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1424</v>
+        <v>1543</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D16" s="1">
-        <v>300</v>
+        <v>-44</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -17116,16 +17053,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1428</v>
+        <v>1542</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1429</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -17133,16 +17070,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1428</v>
+        <v>1543</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>-66</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -17150,16 +17087,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1428</v>
+        <v>1542</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="D19" s="1">
-        <v>200</v>
+        <v>-77</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -17167,16 +17104,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1428</v>
+        <v>1542</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="D20" s="1">
-        <v>300</v>
+        <v>-88</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -17184,16 +17121,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1428</v>
+        <v>1542</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="D21" s="1">
-        <v>400</v>
+        <v>-99</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -17201,13 +17138,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
+        <v>1542</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1434</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -17218,16 +17155,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
+        <v>1542</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1435</v>
       </c>
       <c r="D23" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -17235,16 +17172,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
+        <v>1553</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1554</v>
       </c>
       <c r="D24" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -17252,16 +17189,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
+        <v>1436</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>1555</v>
       </c>
       <c r="D25" s="1">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -17269,16 +17206,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
+        <v>1544</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>1556</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -17286,16 +17223,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C27" s="7">
+        <v>1437</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D27" s="1">
         <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -17303,16 +17240,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
+        <v>1545</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>1439</v>
       </c>
       <c r="D28" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -17320,16 +17257,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C29" s="7">
+        <v>1546</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D29" s="1">
         <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>300</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -17337,16 +17274,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="D30" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -17354,16 +17291,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="D31" s="1">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -17371,16 +17308,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1436</v>
+        <v>1444</v>
       </c>
       <c r="D32" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -17388,16 +17325,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1568</v>
+        <v>1440</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
       <c r="D33" s="1">
-        <v>-44</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -17405,16 +17342,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1438</v>
+        <v>257</v>
       </c>
       <c r="D34" s="1">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -17422,16 +17359,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1568</v>
+        <v>1548</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1439</v>
+        <v>256</v>
       </c>
       <c r="D35" s="1">
-        <v>-66</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -17439,16 +17376,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>1440</v>
+        <v>255</v>
       </c>
       <c r="D36" s="1">
-        <v>-77</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -17456,16 +17393,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1441</v>
+        <v>254</v>
       </c>
       <c r="D37" s="1">
-        <v>-88</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -17473,16 +17410,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1442</v>
+        <v>1423</v>
       </c>
       <c r="D38" s="1">
-        <v>-99</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -17490,16 +17427,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>1443</v>
+        <v>255</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -17507,649 +17444,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>1444</v>
+        <v>253</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>57</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>58</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>59</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>80</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>81</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>90</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>91</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>94</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>95</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>96</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>97</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>98</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>99</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>100</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>101</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>102</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>103</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>104</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>105</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C59" s="7">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>106</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C60" s="7">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>107</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C61" s="7">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>117</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>118</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>119</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>120</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>121</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>122</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>123</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C68" s="7">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>124</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C69" s="7">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>125</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C70" s="7">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>126</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>127</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>128</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>129</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D74" s="1">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>130</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D75" s="1">
-        <v>4</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>131</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D76" s="1">
-        <v>5</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>132</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D77" s="1">
-        <v>6</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18162,7 +17470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -18177,25 +17485,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1548</v>
+        <v>1525</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1550</v>
+        <v>1527</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1578</v>
+        <v>1551</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1551</v>
+        <v>1528</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1549</v>
+        <v>1526</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1552</v>
+        <v>1529</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1553</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -18206,14 +17514,14 @@
         <v>1201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1477</v>
+        <v>1454</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1478</v>
+        <v>1455</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>1479</v>
+        <v>1456</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -18228,11 +17536,11 @@
         <v>1419</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1480</v>
+        <v>1457</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1479</v>
+        <v>1456</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -18244,14 +17552,14 @@
         <v>1203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1481</v>
+        <v>1458</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1482</v>
+        <v>1459</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1479</v>
+        <v>1456</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -18263,14 +17571,14 @@
         <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1483</v>
+        <v>1460</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1484</v>
+        <v>1461</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1485</v>
+        <v>1462</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -18282,14 +17590,14 @@
         <v>1205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1486</v>
+        <v>1463</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1487</v>
+        <v>1464</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1485</v>
+        <v>1462</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -18301,14 +17609,14 @@
         <v>1206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1488</v>
+        <v>1465</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1489</v>
+        <v>1466</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1485</v>
+        <v>1462</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -18320,14 +17628,14 @@
         <v>1207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1490</v>
+        <v>1467</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1491</v>
+        <v>1468</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>1492</v>
+        <v>1469</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -18339,14 +17647,14 @@
         <v>1208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1493</v>
+        <v>1470</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1494</v>
+        <v>1471</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>1495</v>
+        <v>1472</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -18358,14 +17666,14 @@
         <v>1209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1496</v>
+        <v>1473</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1497</v>
+        <v>1474</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>1495</v>
+        <v>1472</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -18377,14 +17685,14 @@
         <v>1210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1498</v>
+        <v>1475</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1500</v>
+        <v>1477</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -18396,14 +17704,14 @@
         <v>1211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1501</v>
+        <v>1478</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1502</v>
+        <v>1479</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>1503</v>
+        <v>1480</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -18415,14 +17723,14 @@
         <v>1212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1504</v>
+        <v>1481</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1505</v>
+        <v>1482</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1506</v>
+        <v>1483</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -18434,14 +17742,14 @@
         <v>1213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1507</v>
+        <v>1484</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1508</v>
+        <v>1485</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>1506</v>
+        <v>1483</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -18453,14 +17761,14 @@
         <v>1214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1509</v>
+        <v>1486</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1510</v>
+        <v>1487</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1506</v>
+        <v>1483</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -18472,14 +17780,14 @@
         <v>1215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1511</v>
+        <v>1488</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1512</v>
+        <v>1489</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>1513</v>
+        <v>1490</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -18491,14 +17799,14 @@
         <v>1216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1514</v>
+        <v>1491</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1515</v>
+        <v>1492</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1506</v>
+        <v>1483</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -18510,14 +17818,14 @@
         <v>1217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1516</v>
+        <v>1493</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1554</v>
+        <v>1531</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1506</v>
+        <v>1483</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -18529,14 +17837,14 @@
         <v>1218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1517</v>
+        <v>1494</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1555</v>
+        <v>1532</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1518</v>
+        <v>1495</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -18548,14 +17856,14 @@
         <v>1219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1519</v>
+        <v>1496</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1520</v>
+        <v>1497</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>1521</v>
+        <v>1498</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -18567,14 +17875,14 @@
         <v>1220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1522</v>
+        <v>1499</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1512</v>
+        <v>1489</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1523</v>
+        <v>1500</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -18586,14 +17894,14 @@
         <v>1221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1524</v>
+        <v>1501</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1525</v>
+        <v>1502</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1526</v>
+        <v>1503</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -18605,14 +17913,14 @@
         <v>1222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1527</v>
+        <v>1504</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1528</v>
+        <v>1505</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1529</v>
+        <v>1506</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -18624,14 +17932,14 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1530</v>
+        <v>1507</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1531</v>
+        <v>1508</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>1532</v>
+        <v>1509</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -18643,14 +17951,14 @@
         <v>1224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1533</v>
+        <v>1510</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1534</v>
+        <v>1511</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1492</v>
+        <v>1469</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -18662,12 +17970,12 @@
         <v>1225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1535</v>
+        <v>1512</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1492</v>
+        <v>1469</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -18679,14 +17987,14 @@
         <v>1226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1536</v>
+        <v>1513</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1537</v>
+        <v>1514</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1538</v>
+        <v>1515</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -18698,12 +18006,12 @@
         <v>1227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1539</v>
+        <v>1516</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1538</v>
+        <v>1515</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -18715,14 +18023,14 @@
         <v>1230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1540</v>
+        <v>1517</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1541</v>
+        <v>1518</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1542</v>
+        <v>1519</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -18734,12 +18042,12 @@
         <v>1231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1543</v>
+        <v>1520</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1544</v>
+        <v>1521</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -18751,12 +18059,12 @@
         <v>1232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1545</v>
+        <v>1522</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -18768,7 +18076,7 @@
         <v>1302</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1547</v>
+        <v>1524</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1560">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4875,1176 +4875,1184 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rotationDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲柄偏置角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offsetAngleOfCrank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankGravityRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleCrankWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleCrankPinWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structuralUnbalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线时率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞有效冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽空柱塞有效冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论下载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论排量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬时产液量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬时产油量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬时产水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞有效冲程计算产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵间隙漏失量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游动凡尔漏失量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定凡尔漏失量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计产液量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计产油量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计产水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光杆功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井下效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功图面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吨液百米耗电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油杆伸长量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惯性载荷增量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙漏失系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体收缩系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总泵效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口就地气液比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口粘度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口原油体积系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口就地气液比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口粘度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵出口原油体积系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程最大电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程最大功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下冲程最大功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流平衡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉没度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVLeakWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commTimeEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runTimeEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noLiquidAvailablePlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLineOfExact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theoreticalProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStrokeProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpClearanceleakProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasInfluenceProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStrokeProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpClearanceleakProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasInfluenceProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averageWatt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polishRodPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfaceSystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellDownSystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyPer100mLift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodFlexLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingFlexLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inertiaLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeGOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeVisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletGOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletVisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeIMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeIMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeWattMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeWattMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDegreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wattDegreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deltaRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelDifferenceValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calcProducingfluidLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submergence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1_pcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体收缩系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullnessCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽空充满系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noLiquidFullnessCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑沉没压力的理论上载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞有效冲程计算产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVLeakVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVLeakWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVLeakVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有功功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲程损失系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容积效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2_pcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵入口压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上冲程最大电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率平衡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液面校正差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反演动液面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井底压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BottomHolePressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimizationSuggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油管伸缩量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMVALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLECODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>添加设备</t>
+  </si>
+  <si>
+    <t>修改设备</t>
+  </si>
+  <si>
+    <t>删除设备</t>
+  </si>
+  <si>
+    <t>控制设备</t>
+  </si>
+  <si>
+    <t>APPLICATIONSCENARIOS</t>
+  </si>
+  <si>
+    <t>煤层气井</t>
+  </si>
+  <si>
+    <t>应用场景</t>
+  </si>
+  <si>
+    <t>油井</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>二级报警</t>
+  </si>
+  <si>
+    <t>三级报警</t>
+  </si>
+  <si>
+    <t>离线</t>
+  </si>
+  <si>
+    <t>工况报警</t>
+  </si>
+  <si>
+    <t>DEVICETYPE</t>
+  </si>
+  <si>
+    <t>抽油机</t>
+  </si>
+  <si>
+    <t>螺杆泵</t>
+  </si>
+  <si>
+    <t>短信设备</t>
+  </si>
+  <si>
+    <t>请求数据读取失败</t>
+  </si>
+  <si>
+    <t>请求数据解码失败</t>
+  </si>
+  <si>
+    <t>井数许可超限</t>
+  </si>
+  <si>
+    <t>计算异常</t>
+  </si>
+  <si>
+    <t>相应数据编码失败</t>
+  </si>
+  <si>
+    <t>数据校验错误</t>
+  </si>
+  <si>
+    <t>未计算</t>
+  </si>
+  <si>
+    <t>计算成功</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>MD_TYPE</t>
+  </si>
+  <si>
+    <t>启用模块</t>
+  </si>
+  <si>
+    <t>备用模块</t>
+  </si>
+  <si>
+    <t>SYSTEMACTION</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>用户退出</t>
+  </si>
+  <si>
+    <t>驱动配置</t>
+  </si>
+  <si>
+    <t>模块访问</t>
+  </si>
+  <si>
+    <t>数据导出</t>
+  </si>
+  <si>
+    <t>ITEMNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goOnline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emptyMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽喷</t>
+  </si>
+  <si>
+    <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>图形呈平行四边形；充满系数≥0.6。</t>
+  </si>
+  <si>
+    <t>充满不足</t>
+  </si>
+  <si>
+    <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
+  </si>
+  <si>
+    <t>供液不足</t>
+  </si>
+  <si>
+    <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
+  </si>
+  <si>
+    <t>间抽或降低冲次</t>
+  </si>
+  <si>
+    <t>供液极差</t>
+  </si>
+  <si>
+    <t>图形下面部分呈角度；充满系数﹤0.1。</t>
+  </si>
+  <si>
+    <t>抽空</t>
+  </si>
+  <si>
+    <t>图形呈条状；产量为零。</t>
+  </si>
+  <si>
+    <t>泵下堵</t>
+  </si>
+  <si>
+    <t>充满系数﹤0.3；沉没度较高。</t>
+  </si>
+  <si>
+    <t>洗井或加药</t>
+  </si>
+  <si>
+    <t>气锁</t>
+  </si>
+  <si>
+    <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
+  </si>
+  <si>
+    <t>合理控制气体</t>
+  </si>
+  <si>
+    <t>气影响</t>
+  </si>
+  <si>
+    <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
+  </si>
+  <si>
+    <t>间隙漏</t>
+  </si>
+  <si>
+    <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
+  </si>
+  <si>
+    <t>检泵</t>
+  </si>
+  <si>
+    <t>油管漏</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
+  </si>
+  <si>
+    <t>油管打压试验</t>
+  </si>
+  <si>
+    <t>游动凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
+  </si>
+  <si>
+    <t>洗井、碰泵或检泵</t>
+  </si>
+  <si>
+    <t>固定凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
+  </si>
+  <si>
+    <t>双凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
+  </si>
+  <si>
+    <t>游动凡尔失灵/油管漏</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
+  </si>
+  <si>
+    <t>洗井、碰泵或检泵/打压、更换油管</t>
+  </si>
+  <si>
+    <t>固定凡尔失灵</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
+  </si>
+  <si>
+    <t>双凡尔失灵</t>
+  </si>
+  <si>
+    <t>上死点别、碰</t>
+  </si>
+  <si>
+    <t>校正井口设备</t>
+  </si>
+  <si>
+    <t>碰泵</t>
+  </si>
+  <si>
+    <t>图形左下角拖尾。</t>
+  </si>
+  <si>
+    <t>上提（增大）防冲距</t>
+  </si>
+  <si>
+    <t>活塞/底部断脱/未入工作筒</t>
+  </si>
+  <si>
+    <t>检泵/下放（缩小）防冲距</t>
+  </si>
+  <si>
+    <t>柱塞脱出工作筒</t>
+  </si>
+  <si>
+    <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
+  </si>
+  <si>
+    <t>下放（缩小）防冲距</t>
+  </si>
+  <si>
+    <t>杆断脱</t>
+  </si>
+  <si>
+    <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
+  </si>
+  <si>
+    <t>替换抽油杆</t>
+  </si>
+  <si>
+    <t>杆(泵)卡</t>
+  </si>
+  <si>
+    <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
+  </si>
+  <si>
+    <t>洗井或检泵</t>
+  </si>
+  <si>
+    <t>结蜡</t>
+  </si>
+  <si>
+    <t>图形肥大；产量下降。</t>
+  </si>
+  <si>
+    <t>严重结蜡</t>
+  </si>
+  <si>
+    <t>出砂</t>
+  </si>
+  <si>
+    <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
+  </si>
+  <si>
+    <t>防砂</t>
+  </si>
+  <si>
+    <t>严重出砂</t>
+  </si>
+  <si>
+    <t>惯性载荷大</t>
+  </si>
+  <si>
+    <t>图形顺时针偏转。</t>
+  </si>
+  <si>
+    <t>降低冲次</t>
+  </si>
+  <si>
+    <t>应力超标</t>
+  </si>
+  <si>
+    <t>优化抽油杆柱组合</t>
+  </si>
+  <si>
+    <t>采集异常</t>
+  </si>
+  <si>
+    <t>检查采集仪表</t>
+  </si>
+  <si>
+    <t>停抽</t>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTTEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTDESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTIMIZATIONSUGGESTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形右上角凸起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMLEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMLEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCPCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingOpenValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingCloseValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTSTATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTSTATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEMACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLICATIONSCENARIOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationScenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICETYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRPCalculate</t>
+  </si>
+  <si>
     <t>anticlockwise</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rotationDirection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲柄偏置角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offsetAngleOfCrank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crankGravityRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>singleCrankWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>singleCrankPinWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>structuralUnbalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线时率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱塞有效冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽空柱塞有效冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充满系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论上载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论下载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论排量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬时产液量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬时产油量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬时产水量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱塞有效冲程计算产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵间隙漏失量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游动凡尔漏失量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定凡尔漏失量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日累计产液量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日累计产油量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日累计产水量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光杆功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井下效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功图面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吨液百米耗电量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽油杆伸长量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惯性载荷增量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隙漏失系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液体收缩系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总泵效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵入口温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵入口就地气液比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵入口粘度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵入口原油体积系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵出口压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵出口温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵出口就地气液比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵出口粘度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵出口原油体积系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下冲程最大电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上冲程最大功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下冲程最大功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流平衡度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉没度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVLeakWeightProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commTimeEfficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runTimeEfficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculateStroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plungerStroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noLiquidAvailablePlungerStroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lowerLoadLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperLoadLineOfExact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theoreticalProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liquidVolumetricProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterVolumetricProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>availablePlungerStrokeProd_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpClearanceleakProd_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gasInfluenceProd_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liquidVolumetricProduction_l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oilVolumetricProduction_l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterVolumetricProduction_l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liquidWeightProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oilWeightProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>availablePlungerStrokeProd_w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpClearanceleakProd_w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gasInfluenceProd_w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liquidWeightProduction_l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterWeightProduction_l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>averageWatt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>polishRodPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surfaceSystemEfficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wellDownSystemEfficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemEfficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energyPer100mLift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodFlexLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tubingFlexLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inertiaLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpIntakeP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpIntakeT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpIntakeGOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpIntakeVisl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpIntakeBo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpOutletP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpOutletT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpOutletGOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpOutletVisl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpOutletBo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upStrokeIMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downStrokeIMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upStrokeWattMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downStrokeWattMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iDegreeBalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wattDegreeBalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deltaRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelDifferenceValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calcProducingfluidLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>submergence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff1_pcp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液体收缩系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱塞冲程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>availablePlungerStroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullnessCoefficient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽空充满系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noLiquidFullnessCoefficient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperLoadLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑沉没压力的理论上载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oilVolumetricProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterWeightProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱塞有效冲程计算产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TVLeakVolumetricProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TVLeakWeightProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVLeakVolumetricProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oilWeightProduction_l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有功功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲程损失系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容积效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpEff2_pcp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵入口压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上冲程最大电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功率平衡度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液面校正差值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反演动液面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井底压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BottomHolePressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optimizationSuggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油管伸缩量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEMCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEMVALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLECODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>添加设备</t>
-  </si>
-  <si>
-    <t>修改设备</t>
-  </si>
-  <si>
-    <t>删除设备</t>
-  </si>
-  <si>
-    <t>控制设备</t>
-  </si>
-  <si>
-    <t>APPLICATIONSCENARIOS</t>
-  </si>
-  <si>
-    <t>煤层气井</t>
-  </si>
-  <si>
-    <t>应用场景</t>
-  </si>
-  <si>
-    <t>油井</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>二级报警</t>
-  </si>
-  <si>
-    <t>三级报警</t>
-  </si>
-  <si>
-    <t>离线</t>
-  </si>
-  <si>
-    <t>工况报警</t>
-  </si>
-  <si>
-    <t>DEVICETYPE</t>
-  </si>
-  <si>
-    <t>抽油机</t>
-  </si>
-  <si>
-    <t>螺杆泵</t>
-  </si>
-  <si>
-    <t>短信设备</t>
-  </si>
-  <si>
-    <t>请求数据读取失败</t>
-  </si>
-  <si>
-    <t>请求数据解码失败</t>
-  </si>
-  <si>
-    <t>井数许可超限</t>
-  </si>
-  <si>
-    <t>计算异常</t>
-  </si>
-  <si>
-    <t>相应数据编码失败</t>
-  </si>
-  <si>
-    <t>数据校验错误</t>
-  </si>
-  <si>
-    <t>未计算</t>
-  </si>
-  <si>
-    <t>计算成功</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>MD_TYPE</t>
-  </si>
-  <si>
-    <t>启用模块</t>
-  </si>
-  <si>
-    <t>备用模块</t>
-  </si>
-  <si>
-    <t>SYSTEMACTION</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>用户退出</t>
-  </si>
-  <si>
-    <t>驱动配置</t>
-  </si>
-  <si>
-    <t>模块访问</t>
-  </si>
-  <si>
-    <t>数据导出</t>
-  </si>
-  <si>
-    <t>ITEMNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goOnline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emptyMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽喷</t>
-  </si>
-  <si>
-    <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>图形呈平行四边形；充满系数≥0.6。</t>
-  </si>
-  <si>
-    <t>充满不足</t>
-  </si>
-  <si>
-    <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
-  </si>
-  <si>
-    <t>供液不足</t>
-  </si>
-  <si>
-    <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
-  </si>
-  <si>
-    <t>间抽或降低冲次</t>
-  </si>
-  <si>
-    <t>供液极差</t>
-  </si>
-  <si>
-    <t>图形下面部分呈角度；充满系数﹤0.1。</t>
-  </si>
-  <si>
-    <t>抽空</t>
-  </si>
-  <si>
-    <t>图形呈条状；产量为零。</t>
-  </si>
-  <si>
-    <t>泵下堵</t>
-  </si>
-  <si>
-    <t>充满系数﹤0.3；沉没度较高。</t>
-  </si>
-  <si>
-    <t>洗井或加药</t>
-  </si>
-  <si>
-    <t>气锁</t>
-  </si>
-  <si>
-    <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
-  </si>
-  <si>
-    <t>合理控制气体</t>
-  </si>
-  <si>
-    <t>气影响</t>
-  </si>
-  <si>
-    <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
-  </si>
-  <si>
-    <t>间隙漏</t>
-  </si>
-  <si>
-    <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
-  </si>
-  <si>
-    <t>检泵</t>
-  </si>
-  <si>
-    <t>油管漏</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
-  </si>
-  <si>
-    <t>油管打压试验</t>
-  </si>
-  <si>
-    <t>游动凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
-  </si>
-  <si>
-    <t>洗井、碰泵或检泵</t>
-  </si>
-  <si>
-    <t>固定凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
-  </si>
-  <si>
-    <t>双凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
-  </si>
-  <si>
-    <t>游动凡尔失灵/油管漏</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
-  </si>
-  <si>
-    <t>洗井、碰泵或检泵/打压、更换油管</t>
-  </si>
-  <si>
-    <t>固定凡尔失灵</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
-  </si>
-  <si>
-    <t>双凡尔失灵</t>
-  </si>
-  <si>
-    <t>上死点别、碰</t>
-  </si>
-  <si>
-    <t>校正井口设备</t>
-  </si>
-  <si>
-    <t>碰泵</t>
-  </si>
-  <si>
-    <t>图形左下角拖尾。</t>
-  </si>
-  <si>
-    <t>上提（增大）防冲距</t>
-  </si>
-  <si>
-    <t>活塞/底部断脱/未入工作筒</t>
-  </si>
-  <si>
-    <t>检泵/下放（缩小）防冲距</t>
-  </si>
-  <si>
-    <t>柱塞脱出工作筒</t>
-  </si>
-  <si>
-    <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
-  </si>
-  <si>
-    <t>下放（缩小）防冲距</t>
-  </si>
-  <si>
-    <t>杆断脱</t>
-  </si>
-  <si>
-    <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
-  </si>
-  <si>
-    <t>替换抽油杆</t>
-  </si>
-  <si>
-    <t>杆(泵)卡</t>
-  </si>
-  <si>
-    <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
-  </si>
-  <si>
-    <t>洗井或检泵</t>
-  </si>
-  <si>
-    <t>结蜡</t>
-  </si>
-  <si>
-    <t>图形肥大；产量下降。</t>
-  </si>
-  <si>
-    <t>严重结蜡</t>
-  </si>
-  <si>
-    <t>出砂</t>
-  </si>
-  <si>
-    <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
-  </si>
-  <si>
-    <t>防砂</t>
-  </si>
-  <si>
-    <t>严重出砂</t>
-  </si>
-  <si>
-    <t>惯性载荷大</t>
-  </si>
-  <si>
-    <t>图形顺时针偏转。</t>
-  </si>
-  <si>
-    <t>降低冲次</t>
-  </si>
-  <si>
-    <t>应力超标</t>
-  </si>
-  <si>
-    <t>优化抽油杆柱组合</t>
-  </si>
-  <si>
-    <t>采集异常</t>
-  </si>
-  <si>
-    <t>检查采集仪表</t>
-  </si>
-  <si>
-    <t>停抽</t>
-  </si>
-  <si>
-    <t>IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTTEMPLATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTDESCRIPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPTIMIZATIONSUGGESTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形右上角凸起。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALARMLEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALARMLEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCPCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchingValueAlarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchingOpenValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchingCloseValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTSTATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTSTATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEMACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALARMTYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPLICATIONSCENARIOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicationScenarios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICETYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRPCalculate</t>
+    <t>roleLanguageEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言编辑权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6990,10 +6998,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7001,7 +7009,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>519</v>
@@ -7012,7 +7020,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>520</v>
@@ -7056,10 +7064,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>1452</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8285,8 +8293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8421,7 +8429,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>117</v>
@@ -9477,10 +9485,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -9488,7 +9496,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1035</v>
@@ -9499,7 +9507,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1036</v>
@@ -9510,7 +9518,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1037</v>
@@ -9521,7 +9529,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1038</v>
@@ -9554,7 +9562,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1073</v>
@@ -9576,7 +9584,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1238</v>
+        <v>1557</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1074</v>
@@ -9587,10 +9595,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -9598,10 +9606,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -9609,10 +9617,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -9620,10 +9628,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -9631,10 +9639,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -9642,10 +9650,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -9653,10 +9661,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -9664,10 +9672,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -9675,10 +9683,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -9686,10 +9694,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -9697,10 +9705,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>1370</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -9708,10 +9716,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -9719,10 +9727,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -9730,10 +9738,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -9741,10 +9749,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -9752,10 +9760,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -9763,10 +9771,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -9774,10 +9782,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -9785,10 +9793,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -9796,10 +9804,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -9807,10 +9815,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -9818,10 +9826,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -9829,10 +9837,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -9840,10 +9848,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -9851,10 +9859,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -9862,10 +9870,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -9873,10 +9881,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -9884,10 +9892,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -9895,10 +9903,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -9906,10 +9914,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -9917,10 +9925,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -9928,10 +9936,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -9939,10 +9947,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -9950,10 +9958,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -9961,10 +9969,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -9972,10 +9980,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -9983,10 +9991,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -9994,10 +10002,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -10005,10 +10013,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -10016,10 +10024,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -10027,10 +10035,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -10038,10 +10046,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -10049,10 +10057,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -10060,10 +10068,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -10071,10 +10079,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -10082,10 +10090,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -10093,10 +10101,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -10104,10 +10112,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -10115,10 +10123,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -10126,10 +10134,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -10137,10 +10145,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -10148,10 +10156,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -10159,10 +10167,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -10170,10 +10178,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -10181,10 +10189,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -10192,10 +10200,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -10203,10 +10211,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -10214,10 +10222,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -10225,10 +10233,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -10236,10 +10244,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -10247,10 +10255,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -10258,10 +10266,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -10269,10 +10277,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -10280,10 +10288,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -10291,10 +10299,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -10302,10 +10310,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -10313,10 +10321,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -10324,10 +10332,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -10335,10 +10343,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -10346,10 +10354,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -10357,10 +10365,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -10368,10 +10376,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -10379,10 +10387,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -10390,10 +10398,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -10401,10 +10409,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -10412,10 +10420,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -10423,10 +10431,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -10434,10 +10442,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -10445,10 +10453,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -10456,10 +10464,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -10467,10 +10475,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -10907,10 +10915,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C641"/>
+  <dimension ref="A1:C642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11837,7 +11845,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>257</v>
@@ -11991,7 +11999,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>286</v>
@@ -12002,7 +12010,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>279</v>
@@ -12761,7 +12769,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>401</v>
@@ -13630,7 +13638,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>1110</v>
@@ -14400,10 +14408,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>727</v>
+        <v>1558</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>708</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -14411,10 +14419,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -14422,10 +14430,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -14433,10 +14441,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -14444,10 +14452,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -14455,10 +14463,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -14466,10 +14474,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -14477,10 +14485,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -14488,10 +14496,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1550</v>
+        <v>737</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -14499,10 +14507,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>755</v>
+        <v>1549</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -14510,10 +14518,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -14521,10 +14529,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -14532,10 +14540,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -14543,10 +14551,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -14554,10 +14562,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -14565,10 +14573,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -14576,10 +14584,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1060</v>
+        <v>744</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>761</v>
+        <v>731</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -14587,10 +14595,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>763</v>
+        <v>1060</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -14598,10 +14606,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1061</v>
+        <v>763</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -14609,10 +14617,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>765</v>
+        <v>1061</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -14620,10 +14628,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -14631,10 +14639,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -14642,10 +14650,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>839</v>
+        <v>745</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>837</v>
+        <v>768</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -14653,10 +14661,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -14664,10 +14672,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -14675,10 +14683,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -14686,10 +14694,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1071</v>
+        <v>847</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -14697,10 +14705,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -14708,10 +14716,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1075</v>
+        <v>849</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -14719,10 +14727,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>855</v>
+        <v>1076</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>856</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -14730,10 +14738,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -14741,10 +14749,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -14752,10 +14760,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -14763,10 +14771,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -14774,10 +14782,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -14785,10 +14793,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -14796,10 +14804,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -14807,10 +14815,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -14818,10 +14826,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -14829,10 +14837,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -14840,10 +14848,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -14851,10 +14859,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -14862,10 +14870,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1044</v>
+        <v>873</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -14873,10 +14881,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>876</v>
+        <v>1044</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -14884,10 +14892,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -14895,10 +14903,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -14906,10 +14914,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -14917,10 +14925,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -14928,10 +14936,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -14939,10 +14947,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -14950,10 +14958,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -14961,10 +14969,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -14972,10 +14980,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1000</v>
+        <v>917</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -14983,10 +14991,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>895</v>
+        <v>1000</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -14994,10 +15002,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -15005,10 +15013,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -15016,10 +15024,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -15027,10 +15035,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -15038,10 +15046,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -15049,10 +15057,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -15060,10 +15068,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -15071,10 +15079,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -15082,10 +15090,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -15093,10 +15101,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -15104,10 +15112,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -15115,10 +15123,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -15126,10 +15134,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -15137,10 +15145,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -15148,10 +15156,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>920</v>
+        <v>952</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -15159,10 +15167,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -15170,10 +15178,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>982</v>
+        <v>935</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -15181,10 +15189,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>944</v>
+        <v>982</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -15192,10 +15200,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -15203,10 +15211,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -15214,10 +15222,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -15225,10 +15233,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -15236,10 +15244,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -15247,10 +15255,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -15258,10 +15266,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -15269,10 +15277,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1006</v>
+        <v>962</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -15280,10 +15288,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>975</v>
+        <v>1006</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -15291,10 +15299,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -15302,10 +15310,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -15313,10 +15321,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>973</v>
+        <v>987</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -15324,10 +15332,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -15335,10 +15343,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -15346,10 +15354,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -15357,10 +15365,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -15368,10 +15376,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -15379,10 +15387,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1104</v>
+        <v>980</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -15390,10 +15398,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>990</v>
+        <v>1104</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -15401,10 +15409,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -15412,10 +15420,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -15423,10 +15431,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -15434,10 +15442,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -15445,10 +15453,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1125</v>
+        <v>1002</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -15456,10 +15464,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1126</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -15467,10 +15475,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -15478,10 +15486,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1118</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -15489,10 +15497,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -15500,10 +15508,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1148</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -15511,10 +15519,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -15522,10 +15530,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -15533,10 +15541,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -15544,10 +15552,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1215</v>
+        <v>1156</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1208</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -15555,10 +15563,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -15566,10 +15574,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -15577,10 +15585,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -15588,10 +15596,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -15599,10 +15607,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -15610,10 +15618,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -15621,10 +15629,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -15632,10 +15640,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -15643,10 +15651,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -15654,10 +15662,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -15665,10 +15673,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1379</v>
+        <v>1228</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1246</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -15676,10 +15684,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -15687,10 +15695,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1405</v>
+        <v>1363</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1365</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -15698,10 +15706,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1540</v>
+        <v>1404</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1537</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -15709,16 +15717,22 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="1"/>
-      <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1537</v>
+      </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
@@ -15728,21 +15742,21 @@
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
-      <c r="C439" s="1" t="s">
-        <v>835</v>
-      </c>
+      <c r="C439" s="1"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
-      <c r="C441" s="1"/>
+      <c r="C441" s="1" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
@@ -16743,6 +16757,11 @@
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1"/>
+      <c r="B642" s="1"/>
+      <c r="C642" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16774,22 +16793,22 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1446</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16797,10 +16816,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -16814,10 +16833,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -16831,10 +16850,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -16848,10 +16867,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -16865,10 +16884,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -16876,7 +16895,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -16884,10 +16903,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -16895,7 +16914,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16903,10 +16922,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -16920,10 +16939,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -16937,10 +16956,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D10" s="1">
         <v>200</v>
@@ -16954,10 +16973,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
@@ -16971,10 +16990,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
@@ -16988,10 +17007,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>1424</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1425</v>
       </c>
       <c r="D13" s="1">
         <v>101</v>
@@ -17005,10 +17024,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D14" s="1">
         <v>201</v>
@@ -17022,10 +17041,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D15" s="1">
         <v>300</v>
@@ -17039,10 +17058,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D16" s="1">
         <v>-44</v>
@@ -17056,10 +17075,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D17" s="1">
         <v>-55</v>
@@ -17073,10 +17092,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D18" s="1">
         <v>-66</v>
@@ -17090,10 +17109,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D19" s="1">
         <v>-77</v>
@@ -17107,10 +17126,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D20" s="1">
         <v>-88</v>
@@ -17124,10 +17143,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D21" s="1">
         <v>-99</v>
@@ -17141,10 +17160,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -17158,10 +17177,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -17175,10 +17194,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>1553</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>1554</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -17192,10 +17211,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -17209,10 +17228,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -17226,10 +17245,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>1437</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>1438</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -17243,10 +17262,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -17260,10 +17279,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -17277,10 +17296,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -17294,10 +17313,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -17311,10 +17330,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -17328,10 +17347,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -17345,7 +17364,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>257</v>
@@ -17362,7 +17381,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>256</v>
@@ -17379,7 +17398,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>255</v>
@@ -17396,7 +17415,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>254</v>
@@ -17413,10 +17432,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -17430,7 +17449,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>255</v>
@@ -17447,7 +17466,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>253</v>
@@ -17471,7 +17490,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -17485,25 +17504,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1529</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -17514,14 +17533,14 @@
         <v>1201</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1454</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1455</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -17533,14 +17552,14 @@
         <v>1202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -17552,14 +17571,14 @@
         <v>1203</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1458</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1459</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -17571,14 +17590,14 @@
         <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1461</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -17590,14 +17609,14 @@
         <v>1205</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1463</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1464</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -17609,14 +17628,14 @@
         <v>1206</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1465</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1466</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -17628,14 +17647,14 @@
         <v>1207</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>1467</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1468</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -17647,14 +17666,14 @@
         <v>1208</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1471</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -17666,14 +17685,14 @@
         <v>1209</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1473</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1474</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -17685,14 +17704,14 @@
         <v>1210</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1475</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1476</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -17704,14 +17723,14 @@
         <v>1211</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1478</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1479</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -17723,14 +17742,14 @@
         <v>1212</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1481</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1482</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -17742,14 +17761,14 @@
         <v>1213</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>1484</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1485</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -17761,14 +17780,14 @@
         <v>1214</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1486</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1487</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -17780,14 +17799,14 @@
         <v>1215</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1488</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1489</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -17799,14 +17818,14 @@
         <v>1216</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>1491</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1492</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -17818,14 +17837,14 @@
         <v>1217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -17837,14 +17856,14 @@
         <v>1218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -17856,14 +17875,14 @@
         <v>1219</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1496</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1497</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -17875,14 +17894,14 @@
         <v>1220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -17894,14 +17913,14 @@
         <v>1221</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1501</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1502</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -17913,14 +17932,14 @@
         <v>1222</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1504</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1505</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -17932,14 +17951,14 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1508</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -17951,14 +17970,14 @@
         <v>1224</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1511</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -17970,12 +17989,12 @@
         <v>1225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -17987,14 +18006,14 @@
         <v>1226</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>1513</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1514</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -18006,12 +18025,12 @@
         <v>1227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -18023,14 +18042,14 @@
         <v>1230</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>1517</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1518</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -18042,12 +18061,12 @@
         <v>1231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -18059,12 +18078,12 @@
         <v>1232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -18076,7 +18095,7 @@
         <v>1302</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1562">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6052,6 +6052,14 @@
   </si>
   <si>
     <t>语言编辑权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unnamed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10915,10 +10923,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C642"/>
+  <dimension ref="A1:C643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B317" sqref="B317"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13924,10 +13932,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1049</v>
+        <v>1561</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>658</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -13935,10 +13943,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>660</v>
+        <v>1049</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -13946,10 +13954,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -13957,10 +13965,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -13968,10 +13976,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1050</v>
+        <v>663</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -13979,10 +13987,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>659</v>
+        <v>1050</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -13990,10 +13998,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -14001,10 +14009,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -14012,10 +14020,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -14023,10 +14031,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -14034,10 +14042,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -14045,10 +14053,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -14056,10 +14064,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>637</v>
+        <v>672</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -14067,10 +14075,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>674</v>
+        <v>637</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -14078,10 +14086,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -14089,10 +14097,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>639</v>
+        <v>677</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -14100,10 +14108,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -14111,10 +14119,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -14122,10 +14130,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -14133,10 +14141,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1034</v>
+        <v>682</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -14144,10 +14152,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1152</v>
+        <v>1034</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -14155,10 +14163,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -14166,10 +14174,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>907</v>
+        <v>1153</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -14177,10 +14185,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>906</v>
+        <v>684</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -14188,10 +14196,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>646</v>
+        <v>908</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>645</v>
+        <v>906</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -14199,10 +14207,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1066</v>
+        <v>646</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>691</v>
+        <v>645</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -14210,10 +14218,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>699</v>
+        <v>1066</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -14221,10 +14229,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -14232,10 +14240,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -14243,10 +14251,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1062</v>
+        <v>703</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1065</v>
+        <v>702</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -14254,10 +14262,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -14265,10 +14273,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -14276,10 +14284,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>709</v>
+        <v>1068</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>715</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -14287,10 +14295,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -14298,10 +14306,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -14309,10 +14317,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -14320,10 +14328,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -14331,10 +14339,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -14342,10 +14350,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -14353,10 +14361,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -14364,10 +14372,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -14375,10 +14383,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -14386,10 +14394,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>948</v>
+        <v>714</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -14397,10 +14405,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1149</v>
+        <v>948</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -14408,10 +14416,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1558</v>
+        <v>1149</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1559</v>
+        <v>707</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -14419,10 +14427,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>727</v>
+        <v>1558</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>708</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -14430,10 +14438,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -14441,10 +14449,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -14452,10 +14460,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -14463,10 +14471,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -14474,10 +14482,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -14485,10 +14493,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -14496,10 +14504,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -14507,10 +14515,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1549</v>
+        <v>737</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -14518,10 +14526,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>755</v>
+        <v>1549</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -14529,10 +14537,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -14540,10 +14548,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -14551,10 +14559,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -14562,10 +14570,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -14573,10 +14581,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -14584,10 +14592,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -14595,10 +14603,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1060</v>
+        <v>744</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>761</v>
+        <v>731</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -14606,10 +14614,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>763</v>
+        <v>1060</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -14617,10 +14625,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1061</v>
+        <v>763</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -14628,10 +14636,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>765</v>
+        <v>1061</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -14639,10 +14647,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -14650,10 +14658,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -14661,10 +14669,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>839</v>
+        <v>745</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>837</v>
+        <v>768</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -14672,10 +14680,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -14683,10 +14691,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -14694,10 +14702,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -14705,10 +14713,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1071</v>
+        <v>847</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -14716,10 +14724,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -14727,10 +14735,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1075</v>
+        <v>849</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -14738,10 +14746,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>855</v>
+        <v>1076</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>856</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -14749,10 +14757,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -14760,10 +14768,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -14771,10 +14779,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -14782,10 +14790,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -14793,10 +14801,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -14804,10 +14812,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -14815,10 +14823,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -14826,10 +14834,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -14837,10 +14845,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -14848,10 +14856,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -14859,10 +14867,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -14870,10 +14878,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -14881,10 +14889,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1044</v>
+        <v>873</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -14892,10 +14900,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>876</v>
+        <v>1044</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -14903,10 +14911,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -14914,10 +14922,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -14925,10 +14933,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -14936,10 +14944,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -14947,10 +14955,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -14958,10 +14966,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -14969,10 +14977,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -14980,10 +14988,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -14991,10 +14999,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1000</v>
+        <v>917</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -15002,10 +15010,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>895</v>
+        <v>1000</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -15013,10 +15021,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -15024,10 +15032,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -15035,10 +15043,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -15046,10 +15054,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -15057,10 +15065,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -15068,10 +15076,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -15079,10 +15087,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -15090,10 +15098,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -15101,10 +15109,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -15112,10 +15120,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -15123,10 +15131,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -15134,10 +15142,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -15145,10 +15153,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -15156,10 +15164,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -15167,10 +15175,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>920</v>
+        <v>952</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -15178,10 +15186,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -15189,10 +15197,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>982</v>
+        <v>935</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -15200,10 +15208,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>944</v>
+        <v>982</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -15211,10 +15219,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -15222,10 +15230,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -15233,10 +15241,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -15244,10 +15252,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -15255,10 +15263,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -15266,10 +15274,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -15277,10 +15285,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -15288,10 +15296,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1006</v>
+        <v>962</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -15299,10 +15307,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>975</v>
+        <v>1006</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -15310,10 +15318,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -15321,10 +15329,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -15332,10 +15340,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>973</v>
+        <v>987</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -15343,10 +15351,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -15354,10 +15362,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -15365,10 +15373,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -15376,10 +15384,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -15387,10 +15395,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -15398,10 +15406,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1104</v>
+        <v>980</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -15409,10 +15417,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>990</v>
+        <v>1104</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -15420,10 +15428,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -15431,10 +15439,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -15442,10 +15450,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -15453,10 +15461,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -15464,10 +15472,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1125</v>
+        <v>1002</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -15475,10 +15483,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1126</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -15486,10 +15494,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -15497,10 +15505,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1118</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -15508,10 +15516,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -15519,10 +15527,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1148</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -15530,10 +15538,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -15541,10 +15549,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -15552,10 +15560,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -15563,10 +15571,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1215</v>
+        <v>1156</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1208</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -15574,10 +15582,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -15585,10 +15593,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -15596,10 +15604,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -15607,10 +15615,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -15618,10 +15626,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -15629,10 +15637,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -15640,10 +15648,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -15651,10 +15659,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -15662,10 +15670,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -15673,10 +15681,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -15684,10 +15692,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1378</v>
+        <v>1228</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -15695,10 +15703,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1363</v>
+        <v>1378</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -15706,10 +15714,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1404</v>
+        <v>1363</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1364</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -15717,10 +15725,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1539</v>
+        <v>1404</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1536</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -15728,16 +15736,22 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="C438" s="1" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
@@ -15747,21 +15761,21 @@
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
-      <c r="C440" s="1" t="s">
-        <v>835</v>
-      </c>
+      <c r="C440" s="1"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
-      <c r="C442" s="1"/>
+      <c r="C442" s="1" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
@@ -16762,6 +16776,11 @@
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1"/>
+      <c r="B643" s="1"/>
+      <c r="C643" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="language" sheetId="1" r:id="rId1"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="oem" sheetId="2" r:id="rId2"/>
     <sheet name="calculate" sheetId="3" r:id="rId3"/>
     <sheet name="function" sheetId="4" r:id="rId4"/>
@@ -7106,8 +7106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -23131,7 +23131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1827">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5031,10 +5031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>calculateStroke</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5288,18 +5284,6 @@
   </si>
   <si>
     <t>resultName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小载荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7596,7 +7580,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>230</v>
@@ -7618,7 +7602,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>233</v>
@@ -7768,7 +7752,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>221</v>
@@ -7812,10 +7796,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7823,10 +7807,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7856,7 +7840,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
@@ -7894,10 +7878,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7905,7 +7889,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>511</v>
@@ -7916,7 +7900,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>512</v>
@@ -7960,10 +7944,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -8213,10 +8197,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -8224,7 +8208,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>532</v>
@@ -8235,7 +8219,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>533</v>
@@ -8246,7 +8230,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>534</v>
@@ -8257,7 +8241,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>535</v>
@@ -8268,7 +8252,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>536</v>
@@ -8279,7 +8263,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>537</v>
@@ -8290,7 +8274,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>538</v>
@@ -8301,7 +8285,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>539</v>
@@ -8312,7 +8296,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>540</v>
@@ -9192,10 +9176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9330,7 +9314,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>115</v>
@@ -9465,7 +9449,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9759,7 +9743,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1176</v>
@@ -9770,7 +9754,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>775</v>
@@ -9781,7 +9765,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>777</v>
@@ -9803,7 +9787,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>781</v>
@@ -9814,7 +9798,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>822</v>
@@ -10375,10 +10359,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -10463,7 +10447,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1209</v>
@@ -10474,7 +10458,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1055</v>
@@ -10485,10 +10469,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -10496,10 +10480,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -10540,7 +10524,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>1222</v>
@@ -10573,10 +10557,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -10587,7 +10571,7 @@
         <v>1276</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1341</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -10595,10 +10579,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1342</v>
+        <v>1277</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -10606,10 +10590,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1277</v>
+        <v>1341</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -10620,7 +10604,7 @@
         <v>1278</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1344</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -10628,10 +10612,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -10639,10 +10623,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1279</v>
+        <v>1344</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1227</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -10650,10 +10634,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -10661,10 +10645,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1348</v>
+        <v>1279</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1347</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -10672,10 +10656,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1349</v>
+        <v>1280</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1229</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -10683,10 +10667,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -10694,10 +10678,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1350</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -10705,10 +10689,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1282</v>
+        <v>1349</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -10719,7 +10703,7 @@
         <v>1283</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -10727,10 +10711,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1353</v>
+        <v>1284</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1233</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -10738,10 +10722,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -10749,10 +10733,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1285</v>
+        <v>1352</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1355</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -10760,10 +10744,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1286</v>
+        <v>1354</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -10771,10 +10755,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1356</v>
+        <v>1286</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -10782,10 +10766,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1358</v>
+        <v>1287</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -10793,10 +10777,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -10804,10 +10788,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -10815,10 +10799,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -10826,10 +10810,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -10837,10 +10821,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1291</v>
+        <v>1350</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -10851,7 +10835,7 @@
         <v>1292</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -10859,10 +10843,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1354</v>
+        <v>1293</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -10870,10 +10854,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1293</v>
+        <v>1353</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -10881,10 +10865,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1294</v>
+        <v>1269</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -10892,10 +10876,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1357</v>
+        <v>1294</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -10903,10 +10887,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1269</v>
+        <v>1295</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -10914,10 +10898,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1295</v>
+        <v>1355</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -10928,7 +10912,7 @@
         <v>1296</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -10936,10 +10920,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1359</v>
+        <v>1297</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1241</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -10947,10 +10931,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -10958,10 +10942,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1360</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -10969,10 +10953,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -10980,10 +10964,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -10991,10 +10975,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -11002,10 +10986,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -11013,10 +10997,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -11024,10 +11008,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -11035,10 +11019,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1249</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -11046,10 +11030,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -11057,10 +11041,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1376</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -11068,10 +11052,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1308</v>
+        <v>1333</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1251</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -11082,7 +11066,7 @@
         <v>1309</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1361</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11090,10 +11074,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11104,7 +11088,7 @@
         <v>1310</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1228</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11112,10 +11096,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1363</v>
+        <v>1311</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1335</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11123,10 +11107,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11134,10 +11118,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1253</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11145,10 +11129,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11156,10 +11140,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1364</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11167,10 +11151,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11178,10 +11162,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11189,10 +11173,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11200,10 +11184,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -11211,10 +11195,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11222,10 +11206,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11233,10 +11217,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11244,10 +11228,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1262</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11255,10 +11239,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11266,10 +11250,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1365</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -11277,10 +11261,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -11288,10 +11272,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -11299,10 +11283,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1266</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -11310,10 +11294,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1267</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -11321,10 +11305,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -11332,10 +11316,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -11343,33 +11327,21 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1368</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>195</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>1369</v>
-      </c>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>196</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>1268</v>
-      </c>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
@@ -11785,16 +11757,6 @@
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12009,7 +11971,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>70</v>
@@ -12229,10 +12191,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -12240,10 +12202,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -12251,10 +12213,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -12306,10 +12268,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -12339,7 +12301,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>180</v>
@@ -12405,7 +12367,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>182</v>
@@ -12416,10 +12378,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -12570,10 +12532,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -12581,10 +12543,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -12812,7 +12774,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>253</v>
@@ -12966,10 +12928,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -12977,10 +12939,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -12988,7 +12950,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>281</v>
@@ -12999,7 +12961,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>275</v>
@@ -13065,7 +13027,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>288</v>
@@ -13076,10 +13038,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -13087,10 +13049,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -13098,10 +13060,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -13109,10 +13071,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -13142,10 +13104,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -13153,10 +13115,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -13164,10 +13126,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -13175,10 +13137,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -13186,10 +13148,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -13197,10 +13159,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -13208,10 +13170,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -13219,10 +13181,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -13516,7 +13478,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>296</v>
@@ -13890,7 +13852,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>394</v>
@@ -14759,7 +14721,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>1091</v>
@@ -15045,10 +15007,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -15540,10 +15502,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -15562,7 +15524,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>735</v>
@@ -15639,7 +15601,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>727</v>
@@ -15793,7 +15755,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>823</v>
@@ -15804,10 +15766,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -15815,7 +15777,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>824</v>
@@ -15837,10 +15799,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -16222,7 +16184,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>902</v>
@@ -16838,7 +16800,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>1218</v>
@@ -16849,7 +16811,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>1219</v>
@@ -16860,10 +16822,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -16871,10 +16833,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -16882,10 +16844,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -16893,10 +16855,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -16904,10 +16866,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -17955,22 +17917,22 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -17978,10 +17940,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -17995,10 +17957,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -18012,10 +17974,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -18029,10 +17991,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>1382</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1386</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -18046,10 +18008,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -18057,7 +18019,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -18065,10 +18027,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -18076,7 +18038,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -18084,10 +18046,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -18101,10 +18063,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -18118,10 +18080,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="D10" s="1">
         <v>200</v>
@@ -18135,10 +18097,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
@@ -18152,10 +18114,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
@@ -18169,10 +18131,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D13" s="1">
         <v>101</v>
@@ -18186,10 +18148,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="D14" s="1">
         <v>201</v>
@@ -18203,10 +18165,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D15" s="1">
         <v>300</v>
@@ -18220,10 +18182,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D16" s="1">
         <v>-44</v>
@@ -18237,10 +18199,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="D17" s="1">
         <v>-55</v>
@@ -18254,10 +18216,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="D18" s="1">
         <v>-66</v>
@@ -18271,10 +18233,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D19" s="1">
         <v>-77</v>
@@ -18288,10 +18250,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D20" s="1">
         <v>-88</v>
@@ -18305,10 +18267,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="D21" s="1">
         <v>-99</v>
@@ -18322,10 +18284,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -18339,10 +18301,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -18356,10 +18318,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -18373,10 +18335,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -18390,10 +18352,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -18407,10 +18369,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -18424,10 +18386,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -18441,10 +18403,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -18458,10 +18420,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -18475,10 +18437,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -18492,10 +18454,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>1412</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>1416</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -18509,10 +18471,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -18526,7 +18488,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>253</v>
@@ -18543,7 +18505,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>252</v>
@@ -18560,7 +18522,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>251</v>
@@ -18577,7 +18539,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>250</v>
@@ -18594,10 +18556,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -18611,7 +18573,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>251</v>
@@ -18628,7 +18590,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>249</v>
@@ -18666,25 +18628,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1498</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -18695,14 +18657,14 @@
         <v>1201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -18714,14 +18676,14 @@
         <v>1202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -18733,14 +18695,14 @@
         <v>1203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -18752,14 +18714,14 @@
         <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -18771,14 +18733,14 @@
         <v>1205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -18790,14 +18752,14 @@
         <v>1206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -18809,14 +18771,14 @@
         <v>1207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -18828,14 +18790,14 @@
         <v>1208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -18847,14 +18809,14 @@
         <v>1209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -18866,14 +18828,14 @@
         <v>1210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -18885,14 +18847,14 @@
         <v>1211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -18904,14 +18866,14 @@
         <v>1212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -18923,14 +18885,14 @@
         <v>1213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -18942,14 +18904,14 @@
         <v>1214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -18961,14 +18923,14 @@
         <v>1215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -18980,14 +18942,14 @@
         <v>1216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -18999,14 +18961,14 @@
         <v>1217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -19018,14 +18980,14 @@
         <v>1218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -19037,14 +18999,14 @@
         <v>1219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -19056,14 +19018,14 @@
         <v>1220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -19075,14 +19037,14 @@
         <v>1221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -19094,14 +19056,14 @@
         <v>1222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -19113,14 +19075,14 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -19132,14 +19094,14 @@
         <v>1224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -19151,12 +19113,12 @@
         <v>1225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -19168,14 +19130,14 @@
         <v>1226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -19187,12 +19149,12 @@
         <v>1227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -19204,14 +19166,14 @@
         <v>1230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -19223,12 +19185,12 @@
         <v>1231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -19240,12 +19202,12 @@
         <v>1232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -19257,7 +19219,7 @@
         <v>1302</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -19286,13 +19248,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -19300,10 +19262,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -19311,10 +19273,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -19322,10 +19284,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -19333,10 +19295,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -19344,10 +19306,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -19355,10 +19317,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -19366,10 +19328,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -19377,10 +19339,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -19388,10 +19350,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -19399,10 +19361,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -19410,10 +19372,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -19421,10 +19383,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -19432,10 +19394,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -19443,10 +19405,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -19454,10 +19416,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -19465,10 +19427,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -19476,10 +19438,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -19487,10 +19449,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
   </sheetData>
@@ -19519,13 +19481,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -19533,10 +19495,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -19555,10 +19517,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -19566,10 +19528,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -19577,10 +19539,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -19588,10 +19550,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -19599,10 +19561,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -19610,10 +19572,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -19621,10 +19583,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -19632,10 +19594,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -19643,10 +19605,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -19654,10 +19616,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -19665,10 +19627,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -19676,10 +19638,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -19687,10 +19649,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -19698,10 +19660,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -19709,10 +19671,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -19720,10 +19682,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -19731,10 +19693,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -19742,10 +19704,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -19753,10 +19715,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -19764,10 +19726,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -19775,10 +19737,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -19786,10 +19748,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -19797,10 +19759,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -19808,10 +19770,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -19819,10 +19781,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -19830,10 +19792,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -19841,10 +19803,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -19852,10 +19814,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -19863,10 +19825,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -19874,10 +19836,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -19885,10 +19847,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -19896,10 +19858,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -19907,10 +19869,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -19918,10 +19880,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -19929,10 +19891,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -19940,10 +19902,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -19951,10 +19913,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -19962,10 +19924,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -19973,10 +19935,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -19984,10 +19946,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -19995,10 +19957,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -20006,10 +19968,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -20017,10 +19979,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -20028,10 +19990,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -20039,10 +20001,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -20050,10 +20012,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -20061,10 +20023,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -20072,10 +20034,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -20083,10 +20045,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -20094,10 +20056,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -20105,10 +20067,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -20116,10 +20078,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -20127,10 +20089,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -20138,10 +20100,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -20149,10 +20111,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -20160,10 +20122,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -20171,10 +20133,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -20182,10 +20144,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -20193,10 +20155,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -20204,10 +20166,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -20215,10 +20177,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -20226,10 +20188,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -20237,10 +20199,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -20248,10 +20210,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -20259,10 +20221,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -20270,10 +20232,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -20281,10 +20243,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -20292,10 +20254,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -20303,10 +20265,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -20314,10 +20276,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -20325,10 +20287,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -20336,10 +20298,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -20347,10 +20309,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -20358,10 +20320,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -20369,10 +20331,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -20380,10 +20342,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -20391,10 +20353,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -20402,10 +20364,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -20413,10 +20375,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -20424,10 +20386,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -20435,10 +20397,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -20446,10 +20408,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -20457,10 +20419,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -20479,10 +20441,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -20490,10 +20452,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -20501,10 +20463,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -20512,10 +20474,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -20523,10 +20485,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -20534,10 +20496,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -20545,10 +20507,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -20556,10 +20518,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -20567,10 +20529,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -20578,10 +20540,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -20589,10 +20551,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -20611,10 +20573,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -20622,10 +20584,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -20633,10 +20595,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -20644,10 +20606,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -20677,10 +20639,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -20688,10 +20650,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -20699,10 +20661,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -20732,10 +20694,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -20743,10 +20705,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -20754,10 +20716,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -20787,10 +20749,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -20798,10 +20760,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -20809,10 +20771,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -20842,10 +20804,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -20853,10 +20815,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -20864,10 +20826,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -20875,10 +20837,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -20897,10 +20859,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -20908,10 +20870,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -20919,10 +20881,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -20930,10 +20892,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -20941,10 +20903,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -20952,10 +20914,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -20963,10 +20925,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -20974,10 +20936,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -20985,10 +20947,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -20996,10 +20958,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -21007,10 +20969,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -21018,10 +20980,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -21029,10 +20991,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -21040,10 +21002,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -21051,10 +21013,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -21062,10 +21024,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -21073,10 +21035,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -21095,10 +21057,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -21106,10 +21068,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -21117,10 +21079,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -21128,10 +21090,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -21139,10 +21101,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -21150,10 +21112,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -21161,10 +21123,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -21172,10 +21134,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -21183,10 +21145,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -21194,10 +21156,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -21205,10 +21167,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -21216,10 +21178,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -21227,10 +21189,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -21238,10 +21200,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -21249,10 +21211,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -21260,10 +21222,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -21271,10 +21233,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -21282,10 +21244,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -21293,10 +21255,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -21304,10 +21266,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -21315,10 +21277,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -21326,10 +21288,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -21337,10 +21299,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -21348,10 +21310,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -21359,10 +21321,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -21370,10 +21332,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -21381,10 +21343,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -21392,10 +21354,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -21403,10 +21365,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -21414,10 +21376,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -21425,10 +21387,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -21436,10 +21398,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -21447,10 +21409,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -21458,10 +21420,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -21469,10 +21431,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -21480,10 +21442,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -21491,10 +21453,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -21502,10 +21464,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -21513,10 +21475,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -21524,10 +21486,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -21535,10 +21497,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -21557,10 +21519,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -21568,10 +21530,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -21579,10 +21541,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -21590,10 +21552,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -21601,10 +21563,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -21612,10 +21574,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -21623,10 +21585,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -21634,10 +21596,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -21645,10 +21607,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -21656,10 +21618,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -21678,10 +21640,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -21689,10 +21651,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -21700,10 +21662,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -21711,10 +21673,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -21722,10 +21684,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -21733,10 +21695,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -21744,10 +21706,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -21755,10 +21717,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -21766,10 +21728,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -21777,10 +21739,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -21788,10 +21750,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -21810,10 +21772,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -21821,10 +21783,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -21832,10 +21794,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -21843,10 +21805,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -21876,10 +21838,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -21887,10 +21849,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -21898,10 +21860,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -21931,10 +21893,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -21942,10 +21904,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -21953,10 +21915,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -21986,10 +21948,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -21997,10 +21959,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -22008,10 +21970,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -22041,10 +22003,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -22052,10 +22014,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -22063,10 +22025,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -22074,10 +22036,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -22085,10 +22047,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -22096,10 +22058,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -22107,10 +22069,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -22118,10 +22080,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -22129,10 +22091,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -22140,10 +22102,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -22151,10 +22113,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -22162,10 +22124,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -22173,10 +22135,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -22184,10 +22146,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -22195,10 +22157,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -22206,10 +22168,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -22217,10 +22179,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -22228,10 +22190,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -22239,10 +22201,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -22250,10 +22212,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -22261,10 +22223,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -22272,10 +22234,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -22283,10 +22245,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -22294,10 +22256,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -22305,10 +22267,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -22316,10 +22278,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -22327,10 +22289,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -22338,10 +22300,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -22349,10 +22311,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -22360,10 +22322,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -22371,10 +22333,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -22382,10 +22344,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -22393,10 +22355,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -22404,10 +22366,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -22415,10 +22377,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -22426,10 +22388,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -22437,10 +22399,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -22448,10 +22410,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -22459,10 +22421,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -22470,10 +22432,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -22481,10 +22443,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -22492,10 +22454,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -22514,10 +22476,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -22525,10 +22487,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -22536,10 +22498,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -22547,10 +22509,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -22558,10 +22520,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -22569,10 +22531,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -22580,10 +22542,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -22591,10 +22553,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -22602,10 +22564,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -22613,10 +22575,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -22624,10 +22586,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -22635,10 +22597,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -22646,10 +22608,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -22657,10 +22619,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -22668,10 +22630,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -22679,10 +22641,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -22690,10 +22652,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -22701,10 +22663,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -22712,10 +22674,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -22723,10 +22685,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -22734,10 +22696,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -22745,10 +22707,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -22756,10 +22718,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -22767,10 +22729,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -22778,10 +22740,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -22789,10 +22751,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -22800,10 +22762,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -22811,10 +22773,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -22822,10 +22784,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -22833,10 +22795,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -22844,10 +22806,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -22855,10 +22817,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -22866,10 +22828,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -22877,10 +22839,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -22888,10 +22850,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -22899,10 +22861,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -22910,10 +22872,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -22921,10 +22883,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -22932,10 +22894,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -22943,10 +22905,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -22954,10 +22916,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -22965,10 +22927,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -22976,10 +22938,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -22987,10 +22949,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -22998,10 +22960,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -23009,10 +22971,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -23020,10 +22982,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -23031,10 +22993,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -23042,10 +23004,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -23064,10 +23026,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -23075,10 +23037,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -23086,10 +23048,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -23097,10 +23059,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -23108,10 +23070,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -23119,10 +23081,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -23130,10 +23092,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -23141,10 +23103,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -23152,10 +23114,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -23163,10 +23125,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -23174,10 +23136,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -23196,10 +23158,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -23207,10 +23169,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -23218,10 +23180,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -23229,10 +23191,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -23251,10 +23213,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -23262,10 +23224,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -23273,10 +23235,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -23295,10 +23257,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -23306,10 +23268,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -23317,10 +23279,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -23339,10 +23301,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -23350,10 +23312,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -23361,10 +23323,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -23383,10 +23345,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -23394,10 +23356,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -23405,10 +23367,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -23427,10 +23389,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -23438,10 +23400,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -23449,10 +23411,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -23460,10 +23422,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -23471,10 +23433,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -23482,10 +23444,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -23493,10 +23455,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -23504,10 +23466,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -23515,10 +23477,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -23526,10 +23488,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -23537,10 +23499,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -23548,10 +23510,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -23559,10 +23521,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -23570,10 +23532,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -23581,10 +23543,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -23592,10 +23554,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -23603,10 +23565,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -23614,10 +23576,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
@@ -23642,13 +23604,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -23656,10 +23618,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -23667,10 +23629,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -23678,10 +23640,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -23689,10 +23651,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -13108,7 +13108,7 @@
   <dimension ref="A1:C718"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="2111">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7960,47 +7960,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>内存使用率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表空间使用率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacheDbMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信服务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算服务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpuUsage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>memUsage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cpuUsage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存使用率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tablespacesUsage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表空间使用率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cacheDbMemory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信服务状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算服务状态</t>
+    <t>正在退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signOutInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8401,10 +8413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8605,10 +8617,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>840</v>
+        <v>2110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8616,10 +8628,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8627,10 +8639,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>315</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8638,10 +8650,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>325</v>
+        <v>853</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8649,10 +8661,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>610</v>
+        <v>325</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8660,10 +8672,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>331</v>
+        <v>610</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8671,10 +8683,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>611</v>
+        <v>331</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8682,10 +8694,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>324</v>
+        <v>611</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8693,10 +8705,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8704,10 +8716,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8715,10 +8727,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2082</v>
+        <v>337</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>214</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8726,10 +8738,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>457</v>
+        <v>2082</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8737,10 +8749,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1662</v>
+        <v>457</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8748,10 +8760,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>218</v>
+        <v>1662</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8759,30 +8771,30 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2085</v>
+        <v>218</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>605</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>2085</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8790,10 +8802,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8801,10 +8813,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>609</v>
+        <v>188</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>606</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8812,10 +8824,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2070</v>
+        <v>609</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8823,10 +8835,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8834,10 +8846,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>641</v>
+        <v>2071</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>207</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8845,10 +8857,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>517</v>
+        <v>641</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>458</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8856,10 +8868,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2072</v>
+        <v>517</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8867,10 +8879,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>643</v>
+        <v>2072</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>208</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8878,10 +8890,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>213</v>
+        <v>643</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8889,10 +8901,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1645</v>
+        <v>213</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8900,10 +8912,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>368</v>
+        <v>1645</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8911,10 +8923,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>644</v>
+        <v>368</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8922,10 +8934,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2016</v>
+        <v>644</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8933,10 +8945,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2017</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8944,10 +8956,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1643</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8955,10 +8967,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8966,10 +8978,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1044</v>
+        <v>2009</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>211</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8977,10 +8989,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>613</v>
+        <v>1044</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8988,10 +9000,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1693</v>
+        <v>613</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8999,19 +9011,21 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>1693</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>642</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,28 +9033,26 @@
         <v>55</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>1957</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1352</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>489</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9048,10 +9060,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9059,10 +9071,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>17</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9070,10 +9082,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1956</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9081,10 +9093,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>477</v>
+        <v>1967</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>476</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9092,10 +9104,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1968</v>
+        <v>477</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1353</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9103,10 +9115,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>339</v>
+        <v>1968</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>343</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9114,10 +9126,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9125,10 +9137,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2019</v>
+        <v>340</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9136,10 +9148,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>341</v>
+        <v>2019</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9147,10 +9159,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9158,10 +9170,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9169,10 +9181,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9180,10 +9192,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9191,10 +9203,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9202,10 +9214,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1846</v>
+        <v>365</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1847</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9213,10 +9225,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>357</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9224,10 +9236,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>359</v>
+        <v>1845</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9235,10 +9247,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9246,10 +9258,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>793</v>
+        <v>361</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9257,10 +9269,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>342</v>
+        <v>793</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -9268,10 +9280,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -9279,10 +9291,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -9290,10 +9302,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -9301,10 +9313,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -9312,10 +9324,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C83" t="s">
-        <v>366</v>
+        <v>350</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -9323,10 +9335,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>460</v>
+        <v>367</v>
+      </c>
+      <c r="C84" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -9334,10 +9346,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -9345,10 +9357,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>612</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -9356,10 +9368,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1651</v>
+        <v>463</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1661</v>
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -9367,10 +9379,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>507</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -9378,10 +9390,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -9389,10 +9401,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -9400,10 +9412,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -9411,10 +9423,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -9422,10 +9434,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -9433,10 +9445,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -9444,10 +9456,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -9455,10 +9467,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -9466,10 +9478,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>2093</v>
+        <v>1660</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2062</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -9477,10 +9489,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>2066</v>
+        <v>2093</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -9488,21 +9500,29 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>2092</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>2091</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>2108</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -10158,6 +10178,11 @@
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13376,8 +13401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14007,7 +14032,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2098</v>
+        <v>2105</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2096</v>
@@ -14018,10 +14043,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>2097</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>2099</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -14029,10 +14054,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -14040,10 +14065,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -14051,10 +14076,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -14062,10 +14087,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5CBA6A-70D2-4316-A050-B717359B56D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBFCF10-4AC7-40E7-BA91-71ECF1A24AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="2098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="2100">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8080,6 +8080,14 @@
   </si>
   <si>
     <t>FESDiagramSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8194,7 +8202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8226,8 +8234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -8535,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11080,7 +11086,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11299,8 +11305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12637,7 +12643,7 @@
       <c r="C95" s="6" t="s">
         <v>2096</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="19" t="s">
         <v>2096</v>
       </c>
     </row>
@@ -14372,10 +14378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D761"/>
+  <dimension ref="A1:D762"/>
   <sheetViews>
-    <sheetView topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="D528" sqref="D528"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15693,13 +15699,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1507</v>
+        <v>2099</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1849</v>
+        <v>2098</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>1849</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -15707,13 +15713,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1853</v>
+        <v>1507</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -15721,13 +15727,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -15735,13 +15741,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>182</v>
+        <v>1852</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>181</v>
+        <v>1851</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>181</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -15749,13 +15755,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -15763,13 +15769,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>483</v>
+        <v>413</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -15777,13 +15783,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>414</v>
+        <v>185</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>414</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -15791,13 +15797,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>186</v>
+        <v>415</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>482</v>
+        <v>414</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>482</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -15805,13 +15811,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>187</v>
+        <v>482</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>187</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -15819,13 +15825,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -15833,13 +15839,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -15847,13 +15853,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -15861,13 +15867,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -15875,13 +15881,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -15889,13 +15895,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -15903,13 +15909,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -15917,13 +15923,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -15931,13 +15937,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -15945,13 +15951,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -15959,13 +15965,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -15973,13 +15979,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1557</v>
+        <v>237</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -15987,13 +15993,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>238</v>
+        <v>1557</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -16001,13 +16007,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -16015,13 +16021,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1413</v>
+        <v>239</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -16029,13 +16035,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>240</v>
+        <v>1413</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -16043,13 +16049,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1021</v>
+        <v>240</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -16057,13 +16063,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>233</v>
+        <v>1021</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -16071,13 +16077,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>234</v>
+        <v>1022</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -16085,13 +16091,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -16099,13 +16105,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>469</v>
+        <v>242</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>468</v>
+        <v>235</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>468</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -16113,13 +16119,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>883</v>
+        <v>469</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>236</v>
+        <v>468</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>236</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -16127,13 +16133,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -16141,13 +16147,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>244</v>
+        <v>884</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -16155,13 +16161,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -16169,13 +16175,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>966</v>
+        <v>245</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>967</v>
+        <v>249</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>967</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -16183,13 +16189,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1784</v>
+        <v>966</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1782</v>
+        <v>967</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>1782</v>
+        <v>967</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -16197,13 +16203,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -16211,13 +16217,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>836</v>
+        <v>1785</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>250</v>
+        <v>1783</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>250</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -16225,13 +16231,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>252</v>
+        <v>836</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -16239,13 +16245,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1517</v>
+        <v>252</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1516</v>
+        <v>251</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>1516</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -16253,13 +16259,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1440</v>
+        <v>1516</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1440</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -16267,13 +16273,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2068</v>
+        <v>1518</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>259</v>
+        <v>1440</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>259</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -16281,13 +16287,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -16295,13 +16301,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>256</v>
+        <v>2069</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -16309,13 +16315,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -16323,13 +16329,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -16337,13 +16343,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -16351,13 +16357,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -16365,13 +16371,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1542</v>
+        <v>258</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -16379,13 +16385,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1538</v>
+        <v>266</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>1538</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -16393,13 +16399,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -16407,13 +16413,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -16421,13 +16427,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -16435,13 +16441,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>2070</v>
+        <v>1546</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>260</v>
+        <v>1541</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>260</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -16449,13 +16455,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>267</v>
+        <v>2070</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -16463,13 +16469,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1520</v>
+        <v>267</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1519</v>
+        <v>268</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>1519</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -16477,13 +16483,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -16491,13 +16497,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -16505,13 +16511,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -16519,13 +16525,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -16533,13 +16539,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -16547,13 +16553,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -16561,13 +16567,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1530</v>
+        <v>1537</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1529</v>
+        <v>1536</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>1529</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -16575,13 +16581,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>277</v>
+        <v>1530</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>269</v>
+        <v>1529</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>269</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -16589,13 +16595,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>710</v>
+        <v>277</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>709</v>
+        <v>269</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>709</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -16603,13 +16609,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>896</v>
+        <v>710</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>897</v>
+        <v>709</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>897</v>
+        <v>709</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -16617,13 +16623,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -16631,13 +16637,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>289</v>
+        <v>900</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>288</v>
+        <v>898</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>288</v>
+        <v>898</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -16645,13 +16651,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1988</v>
+        <v>289</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1986</v>
+        <v>288</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>1986</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -16659,13 +16665,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>290</v>
+        <v>1986</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>290</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -16673,13 +16679,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>278</v>
+        <v>1987</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -16687,13 +16693,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>515</v>
+        <v>278</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1949</v>
+        <v>271</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>1949</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -16701,13 +16707,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>514</v>
+        <v>1949</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>514</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -16715,13 +16721,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1990</v>
+        <v>575</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -16729,13 +16735,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>541</v>
+        <v>1990</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -16743,13 +16749,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>279</v>
+        <v>541</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -16757,13 +16763,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>549</v>
+        <v>279</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -16771,13 +16777,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -16785,13 +16791,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -16799,13 +16805,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>280</v>
+        <v>570</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -16813,13 +16819,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>957</v>
+        <v>280</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -16827,13 +16833,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>1996</v>
+        <v>957</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -16841,13 +16847,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>958</v>
+        <v>1996</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -16855,13 +16861,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>281</v>
+        <v>958</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -16869,13 +16875,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -16883,13 +16889,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -16897,13 +16903,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>1697</v>
+        <v>283</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -16911,13 +16917,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1701</v>
+        <v>296</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>1701</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -16925,13 +16931,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>284</v>
+        <v>1702</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>299</v>
+        <v>1701</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>299</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -16939,13 +16945,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -16953,13 +16959,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -16967,13 +16973,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1431</v>
+        <v>285</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -16981,13 +16987,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>286</v>
+        <v>1431</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -16995,13 +17001,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -17009,13 +17015,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -17023,13 +17029,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -17037,13 +17043,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>829</v>
+        <v>303</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>486</v>
+        <v>302</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>486</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -17051,13 +17057,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>304</v>
+        <v>486</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>304</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -17065,13 +17071,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>321</v>
+        <v>810</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -17079,13 +17085,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -17093,13 +17099,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>894</v>
+        <v>322</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>895</v>
+        <v>306</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>895</v>
+        <v>306</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -17107,13 +17113,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>636</v>
+        <v>894</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>574</v>
+        <v>895</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>574</v>
+        <v>895</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -17121,13 +17127,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>308</v>
+        <v>636</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>307</v>
+        <v>574</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>307</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -17135,13 +17141,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -17149,13 +17155,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -17163,13 +17169,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -17177,13 +17183,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -17191,13 +17197,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1003</v>
+        <v>324</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>1006</v>
+        <v>311</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>1006</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -17205,13 +17211,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -17219,13 +17225,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -17233,13 +17239,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -17247,13 +17253,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -17261,13 +17267,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -17275,13 +17281,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>379</v>
+        <v>1005</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>378</v>
+        <v>999</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>378</v>
+        <v>999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -17289,13 +17295,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>511</v>
+        <v>379</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -17303,13 +17309,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1027</v>
+        <v>511</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -17317,13 +17323,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>546</v>
+        <v>1027</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -17331,13 +17337,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -17345,13 +17351,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -17359,13 +17365,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -17373,13 +17379,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -17387,13 +17393,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1703</v>
+        <v>571</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1699</v>
+        <v>380</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>1699</v>
+        <v>380</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -17401,13 +17407,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -17415,13 +17421,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1011</v>
+        <v>1704</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1012</v>
+        <v>1700</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>1012</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -17429,13 +17435,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1698</v>
+        <v>1012</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>1698</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -17443,13 +17449,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1014</v>
+        <v>1698</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>1014</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -17457,13 +17463,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>373</v>
+        <v>1015</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>381</v>
+        <v>1014</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>381</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -17471,13 +17477,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>1284</v>
+        <v>373</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -17485,13 +17491,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>374</v>
+        <v>1284</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -17499,13 +17505,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -17513,13 +17519,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -17527,13 +17533,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>1016</v>
+        <v>375</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1010</v>
+        <v>370</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>1010</v>
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -17541,13 +17547,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>384</v>
+        <v>1010</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>384</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -17555,13 +17561,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>386</v>
+        <v>1017</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -17569,13 +17575,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>885</v>
+        <v>386</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -17583,13 +17589,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -17597,13 +17603,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>377</v>
+        <v>886</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -17611,13 +17617,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>899</v>
+        <v>377</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -17625,13 +17631,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>578</v>
+        <v>899</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -17639,13 +17645,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>1019</v>
+        <v>578</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1018</v>
+        <v>577</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>1018</v>
+        <v>577</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -17653,13 +17659,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>389</v>
+        <v>1019</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>388</v>
+        <v>1018</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>388</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -17667,13 +17673,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -17681,13 +17687,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -17695,13 +17701,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -17709,13 +17715,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -17723,13 +17729,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -17737,13 +17743,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -17751,13 +17757,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>521</v>
+        <v>412</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>520</v>
+        <v>411</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>520</v>
+        <v>411</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -17765,13 +17771,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>397</v>
+        <v>521</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>416</v>
+        <v>520</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>416</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -17779,13 +17785,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -17793,13 +17799,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -17807,13 +17813,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -17821,13 +17827,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -17835,13 +17841,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -17849,13 +17855,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -17863,13 +17869,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -17877,13 +17883,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -17891,13 +17897,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -17905,13 +17911,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -17919,13 +17925,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -17933,13 +17939,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -17947,13 +17953,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -17961,13 +17967,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -17975,13 +17981,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>1964</v>
+        <v>435</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -17989,13 +17995,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>407</v>
+        <v>1964</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -18003,13 +18009,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1965</v>
+        <v>407</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -18017,13 +18023,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1962</v>
+        <v>392</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>1962</v>
+        <v>392</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -18031,13 +18037,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -18045,13 +18051,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1973</v>
+        <v>1963</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>1973</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -18059,13 +18065,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>454</v>
+        <v>1974</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>438</v>
+        <v>1973</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>438</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -18073,13 +18079,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>508</v>
+        <v>438</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>508</v>
+        <v>438</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -18087,13 +18093,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -18101,13 +18107,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -18115,13 +18121,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -18129,13 +18135,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>1707</v>
+        <v>445</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1705</v>
+        <v>441</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>1705</v>
+        <v>441</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -18143,13 +18149,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -18157,13 +18163,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -18171,13 +18177,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -18185,13 +18191,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -18199,13 +18205,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -18213,13 +18219,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -18227,13 +18233,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -18241,13 +18247,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -18255,13 +18261,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1721</v>
+        <v>1738</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>442</v>
+        <v>1725</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>442</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -18269,13 +18275,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>457</v>
+        <v>1721</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -18283,13 +18289,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -18297,13 +18303,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -18311,13 +18317,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1000</v>
+        <v>471</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -18325,13 +18331,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>472</v>
+        <v>1000</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -18339,13 +18345,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1002</v>
+        <v>472</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>1001</v>
+        <v>460</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>1001</v>
+        <v>460</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -18353,13 +18359,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>552</v>
+        <v>1002</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>1715</v>
+        <v>1001</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>1715</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -18367,13 +18373,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1719</v>
+        <v>552</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -18381,13 +18387,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -18395,13 +18401,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>1745</v>
+        <v>1718</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>1742</v>
+        <v>1717</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>1742</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -18409,13 +18415,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -18423,13 +18429,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -18437,13 +18443,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>478</v>
+        <v>1741</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>461</v>
+        <v>1744</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>461</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -18451,13 +18457,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -18465,13 +18471,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -18479,13 +18485,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -18493,13 +18499,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -18507,13 +18513,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -18521,13 +18527,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>1731</v>
+        <v>489</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -18535,13 +18541,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>1729</v>
+        <v>491</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>1729</v>
+        <v>491</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -18549,13 +18555,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -18563,13 +18569,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -18577,13 +18583,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -18591,13 +18597,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -18605,13 +18611,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>971</v>
+        <v>1737</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>970</v>
+        <v>1734</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>970</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -18619,13 +18625,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1051</v>
+        <v>971</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>1045</v>
+        <v>970</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>1045</v>
+        <v>970</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -18633,13 +18639,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1560</v>
+        <v>1051</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -18647,13 +18653,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>492</v>
+        <v>1560</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>494</v>
+        <v>1044</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>494</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -18661,13 +18667,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -18675,13 +18681,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -18689,13 +18695,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1559</v>
+        <v>559</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>1046</v>
+        <v>554</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>1046</v>
+        <v>554</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -18703,13 +18709,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1047</v>
+        <v>1559</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>484</v>
+        <v>1046</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>484</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -18717,13 +18723,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>564</v>
+        <v>1047</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -18731,13 +18737,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -18745,13 +18751,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -18759,13 +18765,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1671</v>
+        <v>561</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>1049</v>
+        <v>555</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>1049</v>
+        <v>555</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -18773,13 +18779,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1050</v>
+        <v>1671</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -18787,13 +18793,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>493</v>
+        <v>1050</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>485</v>
+        <v>1048</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>485</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -18801,13 +18807,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>566</v>
+        <v>493</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -18815,13 +18821,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -18829,13 +18835,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -18843,13 +18849,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -18857,13 +18863,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1668</v>
+        <v>490</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>1024</v>
+        <v>488</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>1024</v>
+        <v>488</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -18871,13 +18877,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1266</v>
+        <v>1668</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -18885,13 +18891,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1669</v>
+        <v>1266</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -18899,13 +18905,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1055</v>
+        <v>1669</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -18913,13 +18919,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1034</v>
+        <v>1055</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -18927,13 +18933,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D325" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -18941,13 +18947,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D326" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -18955,13 +18961,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -18969,13 +18975,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -18983,13 +18989,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -18997,13 +19003,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>513</v>
+        <v>1037</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>522</v>
+        <v>1030</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>522</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -19011,13 +19017,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>935</v>
+        <v>513</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -19025,13 +19031,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -19039,13 +19045,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -19053,13 +19059,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>572</v>
+        <v>937</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -19067,13 +19073,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -19081,13 +19087,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -19095,13 +19101,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -19109,13 +19115,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -19123,13 +19129,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -19137,13 +19143,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -19151,13 +19157,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -19165,13 +19171,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -19179,13 +19185,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1747</v>
+        <v>537</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>1746</v>
+        <v>536</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>1746</v>
+        <v>536</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -19193,13 +19199,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -19207,13 +19213,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D345" s="11" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -19221,13 +19227,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -19235,13 +19241,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -19249,13 +19255,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1932</v>
+        <v>1755</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1931</v>
+        <v>1754</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>1931</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -19263,13 +19269,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1757</v>
+        <v>1932</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1756</v>
+        <v>1931</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>1756</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -19277,13 +19283,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1934</v>
+        <v>1757</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1933</v>
+        <v>1756</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>1933</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -19291,13 +19297,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -19305,13 +19311,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1759</v>
+        <v>1935</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>1758</v>
+        <v>1936</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>1758</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -19319,13 +19325,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1951</v>
+        <v>1759</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>1950</v>
+        <v>1758</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>1950</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -19333,13 +19339,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -19347,13 +19353,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -19361,13 +19367,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1969</v>
+        <v>1955</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -19375,13 +19381,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -19389,13 +19395,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -19403,13 +19409,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -19417,13 +19423,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1957</v>
+        <v>1972</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -19431,13 +19437,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1761</v>
+        <v>1957</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1760</v>
+        <v>1961</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>1760</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -19445,13 +19451,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1938</v>
+        <v>1761</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -19459,13 +19465,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1764</v>
+        <v>1938</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -19473,13 +19479,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1937</v>
+        <v>1764</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -19487,13 +19493,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1767</v>
+        <v>1937</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -19501,13 +19507,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -19515,13 +19521,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1939</v>
+        <v>1769</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -19529,13 +19535,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -19543,13 +19549,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1772</v>
+        <v>1940</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -19557,13 +19563,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1941</v>
+        <v>1772</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>1942</v>
+        <v>1773</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>1942</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -19571,13 +19577,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -19585,13 +19591,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -19599,13 +19605,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>629</v>
+        <v>1948</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>576</v>
+        <v>1947</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>576</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -19613,13 +19619,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -19627,13 +19633,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1893</v>
+        <v>638</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>1894</v>
+        <v>637</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1894</v>
+        <v>637</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -19641,13 +19647,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>639</v>
+        <v>1893</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>633</v>
+        <v>1894</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>633</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -19655,13 +19661,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -19669,13 +19675,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1475</v>
+        <v>641</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>1430</v>
+        <v>640</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>1430</v>
+        <v>640</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -19683,13 +19689,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>972</v>
+        <v>1475</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>603</v>
+        <v>1430</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>603</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -19697,13 +19703,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>605</v>
+        <v>972</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -19711,13 +19717,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -19725,13 +19731,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -19739,13 +19745,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1694</v>
+        <v>608</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>1693</v>
+        <v>580</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -19753,13 +19759,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>973</v>
+        <v>1694</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>581</v>
+        <v>1693</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -19767,13 +19773,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>604</v>
+        <v>973</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -19781,13 +19787,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="D386" s="11" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -19795,13 +19801,13 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>1556</v>
+        <v>609</v>
       </c>
       <c r="D387" s="11" t="s">
-        <v>1556</v>
+        <v>609</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -19809,13 +19815,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1906</v>
+        <v>612</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>1908</v>
+        <v>1556</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>1908</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -19823,13 +19829,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -19837,13 +19843,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>613</v>
+        <v>1907</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>583</v>
+        <v>1909</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>583</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -19851,13 +19857,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D391" s="11" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -19865,13 +19871,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D392" s="11" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -19879,13 +19885,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D393" s="11" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -19893,13 +19899,13 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="D394" s="11" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -19907,13 +19913,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="D395" s="11" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -19921,13 +19927,13 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D396" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -19935,13 +19941,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="D397" s="11" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -19949,13 +19955,13 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D398" s="11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -19963,13 +19969,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D399" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -19977,13 +19983,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D400" s="11" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -19991,13 +19997,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>959</v>
+        <v>626</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D401" s="11" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -20005,13 +20011,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1062</v>
+        <v>959</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="D402" s="11" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -20019,13 +20025,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="D403" s="11" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -20033,13 +20039,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>839</v>
+        <v>1063</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="D404" s="11" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -20047,13 +20053,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>838</v>
+        <v>628</v>
       </c>
       <c r="D405" s="11" t="s">
-        <v>838</v>
+        <v>628</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -20061,13 +20067,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1910</v>
+        <v>840</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>593</v>
+        <v>838</v>
       </c>
       <c r="D406" s="11" t="s">
-        <v>593</v>
+        <v>838</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -20075,13 +20081,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>986</v>
+        <v>1910</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="D407" s="11" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -20089,13 +20095,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>642</v>
+        <v>986</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D408" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -20103,13 +20109,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D409" s="11" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -20117,13 +20123,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D410" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -20131,13 +20137,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>982</v>
+        <v>646</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>985</v>
+        <v>645</v>
       </c>
       <c r="D411" s="11" t="s">
-        <v>985</v>
+        <v>645</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -20145,13 +20151,13 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D412" s="11" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -20159,13 +20165,13 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D413" s="11" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -20173,13 +20179,13 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1832</v>
+        <v>988</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>1831</v>
+        <v>987</v>
       </c>
       <c r="D414" s="11" t="s">
-        <v>1831</v>
+        <v>987</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -20187,13 +20193,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>652</v>
+        <v>1832</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>658</v>
+        <v>1831</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>658</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -20201,13 +20207,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="D416" s="11" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -20215,13 +20221,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D417" s="11" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -20229,13 +20235,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -20243,13 +20249,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -20257,13 +20263,13 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -20271,13 +20277,13 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -20285,13 +20291,13 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="D422" s="11" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -20299,13 +20305,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>1903</v>
+        <v>667</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>1904</v>
+        <v>648</v>
       </c>
       <c r="D423" s="11" t="s">
-        <v>1904</v>
+        <v>648</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -20313,13 +20319,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>656</v>
+        <v>1903</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>668</v>
+        <v>1904</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>668</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -20327,13 +20333,13 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D425" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -20341,13 +20347,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>876</v>
+        <v>657</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="D426" s="11" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -20355,13 +20361,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>1059</v>
+        <v>876</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -20369,13 +20375,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>1428</v>
+        <v>1059</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>1429</v>
+        <v>650</v>
       </c>
       <c r="D428" s="11" t="s">
-        <v>1429</v>
+        <v>650</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -20383,13 +20389,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>670</v>
+        <v>1428</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>651</v>
+        <v>1429</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>651</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -20397,13 +20403,13 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>1834</v>
+        <v>670</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>1833</v>
+        <v>651</v>
       </c>
       <c r="D430" s="11" t="s">
-        <v>1833</v>
+        <v>651</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -20411,13 +20417,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1898</v>
+        <v>1834</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>1897</v>
+        <v>1833</v>
       </c>
       <c r="D431" s="11" t="s">
-        <v>1897</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -20425,7 +20431,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>1897</v>
@@ -20439,13 +20445,13 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1885</v>
+        <v>1899</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>687</v>
+        <v>1897</v>
       </c>
       <c r="D433" s="11" t="s">
-        <v>687</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -20453,13 +20459,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>1883</v>
+        <v>687</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>1883</v>
+        <v>687</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -20467,13 +20473,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>674</v>
+        <v>1884</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>688</v>
+        <v>1883</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>688</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -20481,13 +20487,13 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1835</v>
+        <v>674</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -20495,13 +20501,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>675</v>
+        <v>1835</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D437" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -20509,13 +20515,13 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D438" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -20523,13 +20529,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>2007</v>
+        <v>691</v>
       </c>
       <c r="D439" s="11" t="s">
-        <v>2007</v>
+        <v>691</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -20537,13 +20543,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>692</v>
+        <v>2007</v>
       </c>
       <c r="D440" s="11" t="s">
-        <v>692</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -20551,13 +20557,13 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1421</v>
+        <v>678</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="D441" s="11" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -20565,13 +20571,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>694</v>
+        <v>1421</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -20579,13 +20585,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D443" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -20593,13 +20599,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D444" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -20607,13 +20613,13 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -20621,13 +20627,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D446" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -20635,13 +20641,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -20649,13 +20655,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -20663,13 +20669,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>980</v>
+        <v>685</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="D449" s="11" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -20677,13 +20683,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>702</v>
+        <v>980</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -20691,13 +20697,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>981</v>
+        <v>702</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -20705,13 +20711,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>704</v>
+        <v>981</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D452" s="11" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -20719,13 +20725,13 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D453" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -20733,13 +20739,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D454" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -20747,13 +20753,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>1497</v>
+        <v>686</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="D455" s="11" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -20761,13 +20767,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>1496</v>
+        <v>771</v>
       </c>
       <c r="D456" s="11" t="s">
-        <v>1496</v>
+        <v>771</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -20775,13 +20781,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1966</v>
+        <v>1498</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>772</v>
+        <v>1496</v>
       </c>
       <c r="D457" s="11" t="s">
-        <v>772</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -20789,13 +20795,13 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>773</v>
+        <v>1966</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D458" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -20803,13 +20809,13 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>1502</v>
+        <v>773</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>1501</v>
+        <v>774</v>
       </c>
       <c r="D459" s="11" t="s">
-        <v>1501</v>
+        <v>774</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -20817,13 +20823,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>779</v>
+        <v>1502</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>778</v>
+        <v>1501</v>
       </c>
       <c r="D460" s="11" t="s">
-        <v>778</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -20831,13 +20837,13 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>990</v>
+        <v>779</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D461" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -20845,13 +20851,13 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D462" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -20859,13 +20865,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>993</v>
+        <v>781</v>
       </c>
       <c r="D463" s="11" t="s">
-        <v>993</v>
+        <v>781</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -20873,13 +20879,13 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>787</v>
+        <v>994</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>788</v>
+        <v>993</v>
       </c>
       <c r="D464" s="11" t="s">
-        <v>788</v>
+        <v>993</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -20887,13 +20893,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D465" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -20901,13 +20907,13 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D466" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -20915,13 +20921,13 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D467" s="11" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -20929,13 +20935,13 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D468" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -20943,13 +20949,13 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D469" s="11" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -20957,13 +20963,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D470" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -20971,13 +20977,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D471" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -20985,13 +20991,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D472" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -20999,13 +21005,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D473" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -21013,13 +21019,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="D474" s="11" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -21027,13 +21033,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D475" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -21041,13 +21047,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1895</v>
+        <v>801</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>1896</v>
+        <v>800</v>
       </c>
       <c r="D476" s="11" t="s">
-        <v>1896</v>
+        <v>800</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -21055,13 +21061,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D477" s="11" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -21069,13 +21075,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>805</v>
+        <v>1901</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>804</v>
+        <v>1900</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>804</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -21083,13 +21089,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>968</v>
+        <v>805</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="D479" s="11" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -21097,13 +21103,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>808</v>
+        <v>968</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="D480" s="11" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -21111,13 +21117,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D481" s="11" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -21125,13 +21131,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D482" s="11" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -21139,13 +21145,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C483" s="6" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D483" s="11" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -21153,13 +21159,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D484" s="11" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -21167,13 +21173,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D485" s="11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -21181,13 +21187,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D486" s="11" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -21195,13 +21201,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C487" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D487" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -21209,13 +21215,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1975</v>
+        <v>823</v>
       </c>
       <c r="C488" s="6" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="D488" s="11" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -21223,13 +21229,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>928</v>
+        <v>1975</v>
       </c>
       <c r="C489" s="6" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="D489" s="11" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -21237,13 +21243,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D490" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -21251,13 +21257,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C491" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D491" s="11" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -21265,13 +21271,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C492" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -21279,13 +21285,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C493" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D493" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -21293,13 +21299,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="D494" s="11" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -21307,13 +21313,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C495" s="6" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D495" s="11" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -21321,13 +21327,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1549</v>
+        <v>853</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D496" s="11" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -21335,13 +21341,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>851</v>
+        <v>1549</v>
       </c>
       <c r="C497" s="6" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D497" s="11" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -21349,13 +21355,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="D498" s="11" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -21363,13 +21369,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C499" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D499" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -21377,13 +21383,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="C500" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D500" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -21391,13 +21397,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C501" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D501" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -21405,13 +21411,13 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C502" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D502" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -21419,13 +21425,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C503" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D503" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -21433,13 +21439,13 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C504" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D504" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -21447,13 +21453,13 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="C505" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D505" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -21461,13 +21467,13 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="C506" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D506" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -21475,13 +21481,13 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>910</v>
+        <v>865</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D507" s="11" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -21489,13 +21495,13 @@
         <v>507</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="C508" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D508" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -21503,13 +21509,13 @@
         <v>508</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C509" s="6" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="D509" s="11" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -21517,13 +21523,13 @@
         <v>509</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1976</v>
+        <v>868</v>
       </c>
       <c r="C510" s="6" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D510" s="11" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -21531,13 +21537,13 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C511" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D511" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -21545,13 +21551,13 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>892</v>
+        <v>1977</v>
       </c>
       <c r="C512" s="6" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="D512" s="11" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -21559,13 +21565,13 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C513" s="6" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="D513" s="11" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -21573,13 +21579,13 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C514" s="6" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="D514" s="11" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -21587,13 +21593,13 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C515" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D515" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -21601,13 +21607,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>934</v>
+        <v>890</v>
       </c>
       <c r="C516" s="6" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="D516" s="11" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -21615,13 +21621,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>903</v>
+        <v>934</v>
       </c>
       <c r="C517" s="6" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="D517" s="11" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -21629,13 +21635,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C518" s="6" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="D518" s="11" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -21643,13 +21649,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C519" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D519" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -21657,13 +21663,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C520" s="6" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="D520" s="11" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -21671,13 +21677,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C521" s="6" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D521" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -21685,13 +21691,13 @@
         <v>521</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C522" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D522" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -21699,13 +21705,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="C523" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D523" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -21713,13 +21719,13 @@
         <v>523</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C524" s="6" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="D524" s="11" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -21727,13 +21733,13 @@
         <v>524</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D525" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -21741,13 +21747,13 @@
         <v>525</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1020</v>
+        <v>908</v>
       </c>
       <c r="C526" s="6" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="D526" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -21755,13 +21761,13 @@
         <v>526</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>918</v>
+        <v>1020</v>
       </c>
       <c r="C527" s="6" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D527" s="11" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -21769,13 +21775,13 @@
         <v>527</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="C528" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D528" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -21783,13 +21789,13 @@
         <v>528</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C529" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D529" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -21797,13 +21803,13 @@
         <v>529</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C530" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D530" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -21811,13 +21817,13 @@
         <v>530</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C531" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D531" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -21825,13 +21831,13 @@
         <v>531</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1038</v>
+        <v>930</v>
       </c>
       <c r="C532" s="6" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D532" s="11" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -21839,13 +21845,13 @@
         <v>532</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C533" s="6" t="s">
-        <v>1039</v>
+        <v>933</v>
       </c>
       <c r="D533" s="11" t="s">
-        <v>1039</v>
+        <v>933</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -21853,13 +21859,13 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="C534" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D534" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -21867,13 +21873,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="C535" s="6" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="D535" s="11" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -21881,13 +21887,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C536" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D536" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -21895,13 +21901,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="C537" s="6" t="s">
-        <v>1058</v>
+        <v>1032</v>
       </c>
       <c r="D537" s="11" t="s">
-        <v>1058</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -21909,13 +21915,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C538" s="6" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="D538" s="11" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -21923,13 +21929,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C539" s="6" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
       <c r="D539" s="11" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -21937,13 +21943,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C540" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D540" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -21951,13 +21957,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1116</v>
+        <v>1066</v>
       </c>
       <c r="C541" s="6" t="s">
-        <v>1110</v>
+        <v>1057</v>
       </c>
       <c r="D541" s="11" t="s">
-        <v>1110</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -21965,13 +21971,13 @@
         <v>541</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C542" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D542" s="11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -21979,13 +21985,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C543" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D543" s="11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -21993,13 +21999,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1670</v>
+        <v>1115</v>
       </c>
       <c r="C544" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D544" s="11" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -22007,13 +22013,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1118</v>
+        <v>1670</v>
       </c>
       <c r="C545" s="6" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D545" s="11" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -22021,13 +22027,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="C546" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D546" s="11" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -22035,13 +22041,13 @@
         <v>546</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C547" s="6" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D547" s="11" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -22049,13 +22055,13 @@
         <v>547</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1678</v>
+        <v>1125</v>
       </c>
       <c r="C548" s="6" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D548" s="11" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -22063,13 +22069,13 @@
         <v>548</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1129</v>
+        <v>1678</v>
       </c>
       <c r="C549" s="6" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D549" s="11" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -22077,13 +22083,13 @@
         <v>549</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C550" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D550" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -22091,13 +22097,13 @@
         <v>550</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C551" s="6" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D551" s="11" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -22105,13 +22111,13 @@
         <v>551</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1265</v>
+        <v>1128</v>
       </c>
       <c r="C552" s="6" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="D552" s="11" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -22119,13 +22125,13 @@
         <v>552</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1679</v>
+        <v>1265</v>
       </c>
       <c r="C553" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D553" s="11" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -22133,13 +22139,13 @@
         <v>553</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1289</v>
+        <v>1679</v>
       </c>
       <c r="C554" s="6" t="s">
-        <v>1255</v>
+        <v>1142</v>
       </c>
       <c r="D554" s="11" t="s">
-        <v>1255</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -22147,13 +22153,13 @@
         <v>554</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1780</v>
+        <v>1289</v>
       </c>
       <c r="C555" s="6" t="s">
-        <v>1411</v>
+        <v>1255</v>
       </c>
       <c r="D555" s="11" t="s">
-        <v>1411</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -22161,13 +22167,13 @@
         <v>555</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C556" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D556" s="11" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -22175,13 +22181,13 @@
         <v>556</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C557" s="10" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D557" s="15" t="s">
-        <v>1300</v>
+        <v>1781</v>
+      </c>
+      <c r="C557" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D557" s="11" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -22189,13 +22195,13 @@
         <v>557</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D558" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -22203,13 +22209,13 @@
         <v>558</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C559" s="6" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D559" s="11" t="s">
-        <v>1562</v>
+        <v>1481</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D559" s="15" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -22217,13 +22223,13 @@
         <v>559</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C560" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D560" s="11" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -22231,13 +22237,13 @@
         <v>560</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C561" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D561" s="11" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -22245,13 +22251,13 @@
         <v>561</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D562" s="11" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -22259,13 +22265,13 @@
         <v>562</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C563" s="6" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D563" s="11" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -22273,13 +22279,13 @@
         <v>563</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1629</v>
+        <v>1571</v>
       </c>
       <c r="C564" s="6" t="s">
-        <v>1623</v>
+        <v>1566</v>
       </c>
       <c r="D564" s="11" t="s">
-        <v>1623</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -22287,13 +22293,13 @@
         <v>564</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D565" s="11" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -22301,13 +22307,13 @@
         <v>565</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C566" s="6" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -22315,13 +22321,13 @@
         <v>566</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D567" s="11" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -22329,13 +22335,13 @@
         <v>567</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D568" s="11" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -22343,13 +22349,13 @@
         <v>568</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C569" s="6" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D569" s="11" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -22357,13 +22363,13 @@
         <v>569</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>1642</v>
+        <v>1628</v>
       </c>
       <c r="D570" s="11" t="s">
-        <v>1642</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -22371,13 +22377,13 @@
         <v>570</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D571" s="11" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -22385,13 +22391,13 @@
         <v>571</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D572" s="11" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -22399,13 +22405,13 @@
         <v>572</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D573" s="11" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -22413,13 +22419,13 @@
         <v>573</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D574" s="11" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -22427,13 +22433,13 @@
         <v>574</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D575" s="11" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -22441,13 +22447,13 @@
         <v>575</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D576" s="11" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -22455,13 +22461,13 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1664</v>
+        <v>1641</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D577" s="11" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -22469,13 +22475,13 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1650</v>
+        <v>1664</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="D578" s="11" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -22483,13 +22489,13 @@
         <v>578</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D579" s="11" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -22497,13 +22503,13 @@
         <v>579</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D580" s="11" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -22511,13 +22517,13 @@
         <v>580</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D581" s="11" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -22525,13 +22531,13 @@
         <v>581</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D582" s="11" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -22539,13 +22545,13 @@
         <v>582</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D583" s="11" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -22553,13 +22559,13 @@
         <v>583</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D584" s="11" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -22567,27 +22573,27 @@
         <v>584</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D585" s="11" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="17">
         <v>585</v>
       </c>
-      <c r="B586" s="5" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C586" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D586" s="15" t="s">
-        <v>1686</v>
+      <c r="B586" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D586" s="11" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -22595,13 +22601,13 @@
         <v>586</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D587" s="15" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -22609,27 +22615,27 @@
         <v>587</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C588" s="6" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D588" s="11" t="s">
-        <v>1688</v>
+        <v>1691</v>
+      </c>
+      <c r="C588" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D588" s="15" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="17">
         <v>588</v>
       </c>
-      <c r="B589" s="4" t="s">
-        <v>1690</v>
+      <c r="B589" s="5" t="s">
+        <v>1685</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D589" s="11" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -22637,13 +22643,13 @@
         <v>589</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1985</v>
+        <v>1690</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>1979</v>
+        <v>1689</v>
       </c>
       <c r="D590" s="11" t="s">
-        <v>1979</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -22651,13 +22657,13 @@
         <v>590</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="C591" s="6" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D591" s="11" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -22665,13 +22671,13 @@
         <v>591</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C592" s="6" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="D592" s="11" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -22679,13 +22685,13 @@
         <v>592</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C593" s="6" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D593" s="11" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -22693,13 +22699,13 @@
         <v>593</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="C594" s="6" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="D594" s="11" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -22707,13 +22713,13 @@
         <v>594</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C595" s="6" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D595" s="11" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -22721,13 +22727,13 @@
         <v>595</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C596" s="6" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D596" s="11" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -22735,13 +22741,13 @@
         <v>596</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="D597" s="11" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -22749,13 +22755,13 @@
         <v>597</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C598" s="6" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D598" s="11" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -22763,13 +22769,13 @@
         <v>598</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="D599" s="11" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -22777,13 +22783,13 @@
         <v>599</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D600" s="11" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -22791,19 +22797,28 @@
         <v>600</v>
       </c>
       <c r="B601" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C601" s="6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D601" s="11" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="17">
+        <v>601</v>
+      </c>
+      <c r="B602" s="4" t="s">
         <v>2006</v>
       </c>
-      <c r="C601" s="6" t="s">
+      <c r="C602" s="6" t="s">
         <v>2005</v>
       </c>
-      <c r="D601" s="11" t="s">
+      <c r="D602" s="11" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B602" s="4"/>
-      <c r="C602" s="6"/>
-      <c r="D602" s="11"/>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B603" s="4"/>
@@ -23599,6 +23614,11 @@
       <c r="B761" s="4"/>
       <c r="C761" s="6"/>
       <c r="D761" s="11"/>
+    </row>
+    <row r="762" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B762" s="4"/>
+      <c r="C762" s="6"/>
+      <c r="D762" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23611,8 +23631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -24316,13 +24336,13 @@
       <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="3" t="s">
         <v>2093</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>2094</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1"/>
@@ -24333,13 +24353,13 @@
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="3" t="s">
         <v>2093</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>2095</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1"/>
@@ -24358,7 +24378,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25318,7 +25338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBFCF10-4AC7-40E7-BA91-71ECF1A24AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8BD281-6BA1-43F8-88CD-63BF590E142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="2100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="2096">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4539,14 +4539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>理论上载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论下载荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>理论排量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4735,10 +4727,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lowerLoadLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>upperLoadLineOfExact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4980,10 +4968,6 @@
   </si>
   <si>
     <t>noLiquidFullnessCoefficient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperLoadLine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8555,16 +8539,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8600,7 +8584,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -8614,13 +8598,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8642,13 +8626,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8726,13 +8710,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8740,13 +8724,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8754,13 +8738,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8782,13 +8766,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8799,10 +8783,10 @@
         <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8810,7 +8794,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>15</v>
@@ -8824,13 +8808,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8838,13 +8822,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8992,7 +8976,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>209</v>
@@ -9020,7 +9004,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>212</v>
@@ -9048,7 +9032,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>594</v>
@@ -9079,10 +9063,10 @@
         <v>183</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9090,10 +9074,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>204</v>
@@ -9118,7 +9102,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>596</v>
@@ -9132,7 +9116,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>597</v>
@@ -9174,7 +9158,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>449</v>
@@ -9216,7 +9200,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>200</v>
@@ -9258,7 +9242,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>205</v>
@@ -9272,13 +9256,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -9286,13 +9270,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9300,13 +9284,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9342,7 +9326,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>20</v>
@@ -9370,13 +9354,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -9384,13 +9368,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -9398,7 +9382,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>479</v>
@@ -9412,7 +9396,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>480</v>
@@ -9426,7 +9410,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>17</v>
@@ -9440,13 +9424,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -9468,13 +9452,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -9499,10 +9483,10 @@
         <v>334</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -9510,7 +9494,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>312</v>
@@ -9608,13 +9592,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -9622,7 +9606,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>350</v>
@@ -9804,13 +9788,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -9818,7 +9802,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>497</v>
@@ -9832,7 +9816,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>498</v>
@@ -9846,7 +9830,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>499</v>
@@ -9860,7 +9844,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>500</v>
@@ -9874,7 +9858,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>501</v>
@@ -9888,7 +9872,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>502</v>
@@ -9902,7 +9886,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>503</v>
@@ -9916,7 +9900,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>504</v>
@@ -9930,7 +9914,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>505</v>
@@ -9944,13 +9928,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -9958,13 +9942,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -9972,13 +9956,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -10803,7 +10787,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>26</v>
@@ -10817,10 +10801,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10828,10 +10812,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10839,10 +10823,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10850,10 +10834,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10861,10 +10845,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10872,10 +10856,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10883,10 +10867,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10894,10 +10878,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -10905,10 +10889,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -10916,10 +10900,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10927,10 +10911,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10938,10 +10922,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10949,10 +10933,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -10960,10 +10944,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10971,10 +10955,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10982,10 +10966,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10993,10 +10977,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -11099,16 +11083,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11303,10 +11287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11319,16 +11303,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11350,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>74</v>
@@ -11364,7 +11348,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>94</v>
@@ -11378,7 +11362,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>96</v>
@@ -11392,7 +11376,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>75</v>
@@ -11406,7 +11390,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>76</v>
@@ -11420,7 +11404,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>77</v>
@@ -11434,7 +11418,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>78</v>
@@ -11462,7 +11446,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>99</v>
@@ -11476,7 +11460,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>100</v>
@@ -11644,13 +11628,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -11658,7 +11642,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>91</v>
@@ -11672,7 +11656,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>92</v>
@@ -11686,7 +11670,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>93</v>
@@ -11700,7 +11684,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>71</v>
@@ -11714,7 +11698,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>95</v>
@@ -11798,7 +11782,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>70</v>
@@ -11812,7 +11796,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>114</v>
@@ -12022,7 +12006,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>1101</v>
@@ -12036,7 +12020,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>724</v>
@@ -12050,7 +12034,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>725</v>
@@ -12064,7 +12048,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>726</v>
@@ -12078,7 +12062,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>729</v>
@@ -12092,7 +12076,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>770</v>
@@ -12106,7 +12090,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>728</v>
@@ -12120,7 +12104,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>727</v>
@@ -12134,7 +12118,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>730</v>
@@ -12148,13 +12132,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -12162,13 +12146,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -12190,7 +12174,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>747</v>
@@ -12638,13 +12622,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,13 +12832,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -12960,7 +12944,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>1132</v>
@@ -12974,7 +12958,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>992</v>
@@ -12988,13 +12972,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,13 +12986,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,13 +13000,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,7 +13014,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>1143</v>
@@ -13044,7 +13028,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>1144</v>
@@ -13058,7 +13042,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>1145</v>
@@ -13072,7 +13056,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>1146</v>
@@ -13086,7 +13070,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>1147</v>
@@ -13100,10 +13084,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>99</v>
@@ -13114,7 +13098,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>1148</v>
@@ -13128,13 +13112,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -13142,7 +13126,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>1149</v>
@@ -13156,7 +13140,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>1150</v>
@@ -13170,7 +13154,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>1151</v>
@@ -13184,13 +13168,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -13198,13 +13182,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1263</v>
+        <v>1199</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1152</v>
+        <v>1260</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1152</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -13212,13 +13196,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -13226,13 +13210,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1264</v>
+        <v>1153</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>1264</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -13240,7 +13224,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1203</v>
+        <v>1263</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>1154</v>
@@ -13254,7 +13238,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>1155</v>
@@ -13268,10 +13252,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1267</v>
+        <v>1203</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1156</v>
+        <v>1265</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>1156</v>
@@ -13282,7 +13266,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>1157</v>
@@ -13296,10 +13280,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1206</v>
+        <v>1266</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1269</v>
+        <v>1158</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>1158</v>
@@ -13310,7 +13294,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1207</v>
+        <v>1268</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>1159</v>
@@ -13324,7 +13308,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1270</v>
+        <v>1205</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>1160</v>
@@ -13338,7 +13322,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1272</v>
+        <v>1206</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>1161</v>
@@ -13352,7 +13336,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>1162</v>
@@ -13366,7 +13350,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>1163</v>
@@ -13380,13 +13364,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -13394,13 +13378,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -13408,7 +13392,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1212</v>
+        <v>1264</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>1155</v>
@@ -13422,7 +13406,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>1156</v>
@@ -13436,7 +13420,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1268</v>
+        <v>1212</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>1157</v>
@@ -13450,7 +13434,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1214</v>
+        <v>1267</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>1158</v>
@@ -13464,7 +13448,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1215</v>
+        <v>1190</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>1159</v>
@@ -13478,7 +13462,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1271</v>
+        <v>1213</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>1160</v>
@@ -13492,7 +13476,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1192</v>
+        <v>1214</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>1161</v>
@@ -13506,7 +13490,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1216</v>
+        <v>1269</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>1162</v>
@@ -13520,7 +13504,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>1163</v>
@@ -13534,13 +13518,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1273</v>
+        <v>1618</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1164</v>
+        <v>1270</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>1164</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -13548,13 +13532,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -13562,13 +13546,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1622</v>
+        <v>1217</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1274</v>
+        <v>1165</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>95</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -13576,7 +13560,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>1166</v>
@@ -13590,7 +13574,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>1167</v>
@@ -13604,7 +13588,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>1168</v>
@@ -13618,7 +13602,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>1169</v>
@@ -13632,7 +13616,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>1170</v>
@@ -13646,7 +13630,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>1171</v>
@@ -13660,13 +13644,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1172</v>
+        <v>1284</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>1172</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -13674,13 +13658,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -13688,13 +13672,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1227</v>
+        <v>1860</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -13702,13 +13686,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1228</v>
+        <v>1250</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>1174</v>
+        <v>1272</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>1174</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -13716,13 +13700,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1864</v>
+        <v>1226</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>1275</v>
+        <v>1151</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>1275</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -13730,13 +13714,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1253</v>
+        <v>1273</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1276</v>
+        <v>1251</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>1276</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -13744,13 +13728,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -13758,13 +13742,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1277</v>
+        <v>1228</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>1254</v>
+        <v>1174</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -13772,7 +13756,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>1175</v>
@@ -13786,13 +13770,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -13800,13 +13784,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -13814,13 +13798,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>1278</v>
+        <v>1177</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>1278</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -13828,7 +13812,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>1178</v>
@@ -13842,7 +13826,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>1179</v>
@@ -13856,7 +13840,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>1180</v>
@@ -13870,7 +13854,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>1181</v>
@@ -13884,7 +13868,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>1182</v>
@@ -13898,7 +13882,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>1183</v>
@@ -13912,7 +13896,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>1184</v>
@@ -13926,13 +13910,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1185</v>
+        <v>1275</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>1185</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -13940,13 +13924,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -13954,13 +13938,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1279</v>
+        <v>1186</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>1279</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -13968,7 +13952,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>1187</v>
@@ -13982,7 +13966,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>1188</v>
@@ -13996,13 +13980,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1189</v>
+        <v>1276</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>1189</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -14010,13 +13994,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1190</v>
+        <v>1277</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>1190</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -14024,13 +14008,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -14038,13 +14022,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -14052,13 +14036,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>1282</v>
+        <v>1189</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>1282</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -14066,13 +14050,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1251</v>
+        <v>1614</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1283</v>
+        <v>1595</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>1283</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -14080,13 +14064,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1252</v>
+        <v>1577</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1191</v>
+        <v>1596</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>1191</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -14094,13 +14078,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1618</v>
+        <v>1578</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -14108,13 +14092,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1581</v>
+        <v>1615</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -14122,13 +14106,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -14136,13 +14120,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1619</v>
+        <v>1580</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -14150,13 +14134,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1583</v>
+        <v>1616</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -14164,13 +14148,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1584</v>
+        <v>1617</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -14178,13 +14162,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1620</v>
+        <v>1604</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>1605</v>
+        <v>95</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -14192,13 +14176,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1621</v>
+        <v>1581</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -14206,13 +14190,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1608</v>
+        <v>1582</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>95</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -14223,10 +14207,10 @@
         <v>1585</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -14237,10 +14221,10 @@
         <v>1586</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>1610</v>
+        <v>1583</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>1610</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -14248,13 +14232,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -14262,13 +14246,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1587</v>
+        <v>1609</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>1587</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -14276,13 +14260,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1612</v>
+        <v>1453</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>1612</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -14290,13 +14274,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -14304,13 +14288,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1457</v>
+        <v>1611</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>1457</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -14318,13 +14302,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -14332,41 +14316,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="17">
-        <v>216</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="17">
-        <v>217</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
   </sheetData>
@@ -14380,7 +14336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
@@ -14394,16 +14350,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14425,7 +14381,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -14439,13 +14395,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -14579,7 +14535,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>58</v>
@@ -14649,7 +14605,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>64</v>
@@ -14677,7 +14633,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>672</v>
@@ -14691,7 +14647,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>66</v>
@@ -14705,13 +14661,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -14719,13 +14675,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -14733,13 +14689,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -14747,13 +14703,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -14761,13 +14717,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -14775,13 +14731,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -14789,13 +14745,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -14803,13 +14759,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -14887,13 +14843,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -14915,7 +14871,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>13</v>
@@ -14971,7 +14927,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>146</v>
@@ -15055,13 +15011,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -15069,13 +15025,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -15083,13 +15039,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -15097,13 +15053,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -15111,13 +15067,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -15125,13 +15081,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>1873</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>1877</v>
-      </c>
       <c r="D53" s="11" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -15139,13 +15095,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>1874</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>1878</v>
-      </c>
       <c r="D54" s="11" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -15153,13 +15109,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>1875</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>1879</v>
-      </c>
       <c r="D55" s="11" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -15167,13 +15123,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>1876</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>1880</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -15181,13 +15137,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -15195,13 +15151,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -15209,13 +15165,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -15223,13 +15179,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -15237,13 +15193,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -15251,13 +15207,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -15265,13 +15221,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -15335,13 +15291,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -15377,7 +15333,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>162</v>
@@ -15433,13 +15389,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -15450,10 +15406,10 @@
         <v>952</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -15475,7 +15431,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>164</v>
@@ -15489,13 +15445,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -15517,7 +15473,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>214</v>
@@ -15587,13 +15543,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -15685,13 +15641,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -15699,13 +15655,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -15713,13 +15669,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -15727,13 +15683,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -15741,13 +15697,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -15993,7 +15949,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>229</v>
@@ -16035,7 +15991,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>232</v>
@@ -16203,13 +16159,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -16217,13 +16173,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -16259,13 +16215,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -16273,13 +16229,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -16287,7 +16243,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>259</v>
@@ -16301,7 +16257,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>253</v>
@@ -16385,7 +16341,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>266</v>
@@ -16399,13 +16355,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -16413,13 +16369,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -16427,13 +16383,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -16441,13 +16397,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -16455,7 +16411,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>260</v>
@@ -16483,13 +16439,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -16497,13 +16453,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -16511,13 +16467,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -16525,13 +16481,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -16539,13 +16495,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -16553,13 +16509,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -16567,13 +16523,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -16581,13 +16537,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -16665,13 +16621,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -16679,7 +16635,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>290</v>
@@ -16710,10 +16666,10 @@
         <v>515</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -16735,7 +16691,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>542</v>
@@ -16847,7 +16803,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>292</v>
@@ -16917,7 +16873,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>296</v>
@@ -16931,13 +16887,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -16987,7 +16943,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>274</v>
@@ -17407,13 +17363,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -17421,13 +17377,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -17452,10 +17408,10 @@
         <v>1013</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -17491,7 +17447,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>367</v>
@@ -17995,7 +17951,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>436</v>
@@ -18023,7 +17979,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>392</v>
@@ -18037,13 +17993,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -18051,13 +18007,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -18065,13 +18021,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -18149,13 +18105,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -18163,13 +18119,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -18177,13 +18133,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -18191,13 +18147,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -18205,13 +18161,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -18219,13 +18175,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -18233,13 +18189,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -18247,13 +18203,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -18261,13 +18217,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -18275,7 +18231,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>442</v>
@@ -18376,10 +18332,10 @@
         <v>552</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -18387,13 +18343,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -18401,13 +18357,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -18415,13 +18371,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -18429,13 +18385,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -18443,13 +18399,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -18541,7 +18497,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>491</v>
@@ -18555,13 +18511,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -18569,13 +18525,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -18583,13 +18539,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -18597,13 +18553,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -18611,13 +18567,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -18653,7 +18609,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>1044</v>
@@ -18709,7 +18665,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>1046</v>
@@ -18779,7 +18735,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>1049</v>
@@ -18877,7 +18833,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>1024</v>
@@ -18891,7 +18847,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>1025</v>
@@ -18905,7 +18861,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>1026</v>
@@ -19199,13 +19155,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -19213,13 +19169,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="D345" s="11" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -19227,13 +19183,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -19241,13 +19197,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -19255,13 +19211,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -19269,13 +19225,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -19283,13 +19239,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -19297,13 +19253,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -19311,13 +19267,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -19325,13 +19281,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -19339,13 +19295,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -19353,13 +19309,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -19367,13 +19323,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -19381,13 +19337,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -19395,13 +19351,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -19409,13 +19365,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -19423,13 +19379,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -19437,13 +19393,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C361" s="6" t="s">
         <v>1957</v>
       </c>
-      <c r="C361" s="6" t="s">
-        <v>1961</v>
-      </c>
       <c r="D361" s="11" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -19451,13 +19407,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -19465,13 +19421,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -19479,13 +19435,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -19493,13 +19449,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -19507,13 +19463,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -19521,13 +19477,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -19535,13 +19491,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -19549,13 +19505,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -19563,13 +19519,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -19577,13 +19533,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -19591,13 +19547,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -19605,13 +19561,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -19647,13 +19603,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -19689,13 +19645,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -19759,10 +19715,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D384" s="11" t="s">
         <v>0</v>
@@ -19818,10 +19774,10 @@
         <v>612</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -19829,13 +19785,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -19843,13 +19799,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -20081,7 +20037,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>593</v>
@@ -20193,13 +20149,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -20319,13 +20275,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -20389,13 +20345,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -20417,13 +20373,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="D431" s="11" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -20431,13 +20387,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="D432" s="11" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -20445,13 +20401,13 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="D433" s="11" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -20459,7 +20415,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>687</v>
@@ -20473,13 +20429,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -20501,7 +20457,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>689</v>
@@ -20546,10 +20502,10 @@
         <v>677</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D440" s="11" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -20571,7 +20527,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>679</v>
@@ -20767,7 +20723,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>771</v>
@@ -20781,13 +20737,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="D457" s="11" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -20795,7 +20751,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>772</v>
@@ -20823,13 +20779,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D460" s="11" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -21061,13 +21017,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="D477" s="11" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -21075,13 +21031,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -21229,7 +21185,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="C489" s="6" t="s">
         <v>848</v>
@@ -21341,7 +21297,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="C497" s="6" t="s">
         <v>849</v>
@@ -21537,7 +21493,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C511" s="6" t="s">
         <v>874</v>
@@ -21551,7 +21507,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="C512" s="6" t="s">
         <v>875</v>
@@ -22013,7 +21969,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="C545" s="6" t="s">
         <v>1114</v>
@@ -22069,7 +22025,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="C549" s="6" t="s">
         <v>1122</v>
@@ -22125,7 +22081,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C553" s="6" t="s">
         <v>1141</v>
@@ -22139,7 +22095,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="C554" s="6" t="s">
         <v>1142</v>
@@ -22153,13 +22109,13 @@
         <v>554</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C555" s="6" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D555" s="11" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -22167,13 +22123,13 @@
         <v>555</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="C556" s="6" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D556" s="11" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -22181,13 +22137,13 @@
         <v>556</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="C557" s="6" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D557" s="11" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -22195,13 +22151,13 @@
         <v>557</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D558" s="15" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -22209,13 +22165,13 @@
         <v>558</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D559" s="15" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -22223,13 +22179,13 @@
         <v>559</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="C560" s="6" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="D560" s="11" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -22237,13 +22193,13 @@
         <v>560</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C561" s="6" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D561" s="11" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -22251,13 +22207,13 @@
         <v>561</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="D562" s="11" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -22265,13 +22221,13 @@
         <v>562</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C563" s="6" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="D563" s="11" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -22279,13 +22235,13 @@
         <v>563</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="C564" s="6" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="D564" s="11" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -22293,13 +22249,13 @@
         <v>564</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="D565" s="11" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -22307,13 +22263,13 @@
         <v>565</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C566" s="6" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -22321,13 +22277,13 @@
         <v>566</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D567" s="11" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -22335,13 +22291,13 @@
         <v>567</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="D568" s="11" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -22349,13 +22305,13 @@
         <v>568</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="C569" s="6" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D569" s="11" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -22363,13 +22319,13 @@
         <v>569</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="D570" s="11" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -22377,13 +22333,13 @@
         <v>570</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="D571" s="11" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -22391,13 +22347,13 @@
         <v>571</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="D572" s="11" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -22405,13 +22361,13 @@
         <v>572</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="D573" s="11" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -22419,13 +22375,13 @@
         <v>573</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="D574" s="11" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -22433,13 +22389,13 @@
         <v>574</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="D575" s="11" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -22447,13 +22403,13 @@
         <v>575</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="D576" s="11" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -22461,13 +22417,13 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="D577" s="11" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -22475,13 +22431,13 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="D578" s="11" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -22489,13 +22445,13 @@
         <v>578</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="D579" s="11" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -22503,13 +22459,13 @@
         <v>579</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="D580" s="11" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -22517,13 +22473,13 @@
         <v>580</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D581" s="11" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -22531,13 +22487,13 @@
         <v>581</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D582" s="11" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -22545,13 +22501,13 @@
         <v>582</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D583" s="11" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -22559,13 +22515,13 @@
         <v>583</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D584" s="11" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -22573,13 +22529,13 @@
         <v>584</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D585" s="11" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -22587,13 +22543,13 @@
         <v>585</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D586" s="11" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -22601,13 +22557,13 @@
         <v>586</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="D587" s="15" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -22615,13 +22571,13 @@
         <v>587</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="C588" s="10" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="D588" s="15" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -22629,13 +22585,13 @@
         <v>588</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="D589" s="11" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -22643,13 +22599,13 @@
         <v>589</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="D590" s="11" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -22657,13 +22613,13 @@
         <v>590</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="C591" s="6" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="D591" s="11" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -22671,13 +22627,13 @@
         <v>591</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="C592" s="6" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="D592" s="11" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -22685,13 +22641,13 @@
         <v>592</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="C593" s="6" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="D593" s="11" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -22699,13 +22655,13 @@
         <v>593</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="C594" s="6" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D594" s="11" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -22713,13 +22669,13 @@
         <v>594</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="C595" s="6" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="D595" s="11" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -22727,13 +22683,13 @@
         <v>595</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C596" s="6" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D596" s="11" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -22741,13 +22697,13 @@
         <v>596</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="D597" s="11" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -22755,13 +22711,13 @@
         <v>597</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C598" s="6" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="D598" s="11" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -22769,13 +22725,13 @@
         <v>598</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="D599" s="11" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -22783,13 +22739,13 @@
         <v>599</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="D600" s="11" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -22797,13 +22753,13 @@
         <v>600</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C601" s="6" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D601" s="11" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -22811,13 +22767,13 @@
         <v>601</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C602" s="6" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="D602" s="11" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -23648,25 +23604,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -23674,10 +23630,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -23691,10 +23647,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -23708,10 +23664,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -23725,10 +23681,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>1294</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>1298</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -23742,10 +23698,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -23759,10 +23715,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -23776,10 +23732,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -23793,10 +23749,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -23810,10 +23766,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D10" s="1">
         <v>200</v>
@@ -23827,10 +23783,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
@@ -23844,10 +23800,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
@@ -23861,10 +23817,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="D13" s="1">
         <v>101</v>
@@ -23878,10 +23834,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D14" s="1">
         <v>201</v>
@@ -23895,10 +23851,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="D15" s="1">
         <v>300</v>
@@ -23912,10 +23868,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="D16" s="1">
         <v>-44</v>
@@ -23929,10 +23885,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="D17" s="1">
         <v>-55</v>
@@ -23946,10 +23902,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D18" s="1">
         <v>-66</v>
@@ -23963,10 +23919,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="D19" s="1">
         <v>-77</v>
@@ -23980,10 +23936,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="D20" s="1">
         <v>-88</v>
@@ -23997,10 +23953,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="D21" s="1">
         <v>-99</v>
@@ -24014,10 +23970,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -24031,10 +23987,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -24048,10 +24004,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -24065,10 +24021,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -24082,10 +24038,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -24099,10 +24055,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -24116,10 +24072,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -24133,10 +24089,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -24150,10 +24106,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -24167,10 +24123,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -24184,10 +24140,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>1322</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>1326</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -24201,10 +24157,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -24218,7 +24174,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>232</v>
@@ -24235,7 +24191,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>231</v>
@@ -24252,7 +24208,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>230</v>
@@ -24269,7 +24225,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>229</v>
@@ -24286,10 +24242,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -24303,7 +24259,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>230</v>
@@ -24320,7 +24276,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>228</v>
@@ -24337,10 +24293,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -24354,10 +24310,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -24394,28 +24350,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2076</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2080</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>1401</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>1404</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -24426,17 +24382,17 @@
         <v>1201</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="6" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -24448,17 +24404,17 @@
         <v>1202</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="6" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -24470,17 +24426,17 @@
         <v>1203</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="6" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -24492,17 +24448,17 @@
         <v>1204</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="6" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -24514,17 +24470,17 @@
         <v>1205</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -24536,17 +24492,17 @@
         <v>1206</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="6" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -24558,17 +24514,17 @@
         <v>1207</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="6" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -24580,17 +24536,17 @@
         <v>1208</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="6" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -24602,17 +24558,17 @@
         <v>1209</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="6" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -24624,17 +24580,17 @@
         <v>1210</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -24646,17 +24602,17 @@
         <v>1211</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -24668,17 +24624,17 @@
         <v>1212</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="6" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -24690,17 +24646,17 @@
         <v>1213</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="6" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -24712,17 +24668,17 @@
         <v>1214</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="6" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -24734,17 +24690,17 @@
         <v>1215</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="6" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -24756,17 +24712,17 @@
         <v>1216</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="6" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -24778,17 +24734,17 @@
         <v>1217</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="6" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -24800,17 +24756,17 @@
         <v>1218</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="6" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -24822,17 +24778,17 @@
         <v>1219</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="6" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -24844,17 +24800,17 @@
         <v>1220</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="6" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -24866,17 +24822,17 @@
         <v>1221</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="6" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -24888,17 +24844,17 @@
         <v>1222</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="6" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -24910,17 +24866,17 @@
         <v>1223</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="6" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -24932,17 +24888,17 @@
         <v>1224</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="6" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -24954,15 +24910,15 @@
         <v>1225</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
       <c r="G26" s="6" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -24974,17 +24930,17 @@
         <v>1226</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="6" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -24996,15 +24952,15 @@
         <v>1227</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
       <c r="G28" s="6" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -25016,17 +24972,17 @@
         <v>1230</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="6" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -25038,15 +24994,15 @@
         <v>1231</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
       <c r="G30" s="6" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -25058,15 +25014,15 @@
         <v>1232</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="1"/>
       <c r="G31" s="6" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -25078,10 +25034,10 @@
         <v>1302</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="1"/>
@@ -25109,13 +25065,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -25123,10 +25079,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -25134,10 +25090,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -25145,10 +25101,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -25156,10 +25112,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -25167,10 +25123,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -25178,10 +25134,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -25189,10 +25145,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -25200,10 +25156,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -25211,10 +25167,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -25222,10 +25178,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -25233,10 +25189,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -25244,10 +25200,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -25255,10 +25211,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -25266,10 +25222,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -25277,10 +25233,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -25288,10 +25244,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -25299,10 +25255,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -25310,10 +25266,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -25321,10 +25277,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -25354,13 +25310,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -25368,10 +25324,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -25379,10 +25335,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -25390,10 +25346,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -25401,10 +25357,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -25412,10 +25368,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -25423,10 +25379,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -25434,10 +25390,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -25445,10 +25401,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -25456,10 +25412,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -25467,10 +25423,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -25478,10 +25434,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -25489,10 +25445,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -25500,10 +25456,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -25511,10 +25467,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -25522,10 +25478,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -25533,10 +25489,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -25544,10 +25500,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -25555,10 +25511,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -25566,10 +25522,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -25577,10 +25533,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -25588,10 +25544,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -25599,10 +25555,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -25610,10 +25566,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -25621,10 +25577,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -25632,10 +25588,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -25643,10 +25599,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -25654,10 +25610,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -25665,10 +25621,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -25676,10 +25632,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -25687,10 +25643,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -25698,10 +25654,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -25709,10 +25665,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -25720,10 +25676,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -25731,10 +25687,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -25742,10 +25698,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -25753,10 +25709,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -25764,10 +25720,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -25775,10 +25731,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -25786,10 +25742,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -25797,10 +25753,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -25808,10 +25764,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -25819,10 +25775,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -25830,10 +25786,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -25841,10 +25797,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -25852,10 +25808,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -25863,10 +25819,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -25874,10 +25830,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -25885,10 +25841,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -25896,10 +25852,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -25907,10 +25863,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -25918,10 +25874,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -25929,10 +25885,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -25940,10 +25896,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -25951,10 +25907,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -25962,10 +25918,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -25973,10 +25929,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -25984,10 +25940,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -25995,10 +25951,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -26006,10 +25962,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -26017,10 +25973,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -26028,10 +25984,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -26039,10 +25995,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -26050,10 +26006,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -26061,10 +26017,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -26072,10 +26028,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -26083,10 +26039,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -26094,10 +26050,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -26105,10 +26061,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -26116,10 +26072,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
   </sheetData>
@@ -26143,13 +26099,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -26157,10 +26113,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -26168,10 +26124,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -26179,10 +26135,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -26190,10 +26146,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8BD281-6BA1-43F8-88CD-63BF590E142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D470E7-D2E5-453F-91A5-5823A662FC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="2096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="2098">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8072,6 +8072,14 @@
   </si>
   <si>
     <t>Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8525,8 +8533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11289,8 +11297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:A216"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14334,10 +14342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D762"/>
+  <dimension ref="A1:D763"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15473,13 +15481,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1910</v>
+        <v>2096</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>214</v>
+        <v>2097</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>214</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -15487,13 +15495,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>170</v>
+        <v>1910</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -15501,13 +15509,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -15515,13 +15523,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -15529,13 +15537,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -15543,13 +15551,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1884</v>
+        <v>171</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1885</v>
+        <v>172</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>1885</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -15557,13 +15565,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>175</v>
+        <v>1884</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>174</v>
+        <v>1885</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>174</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -15571,13 +15579,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -15585,7 +15593,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>178</v>
@@ -15599,13 +15607,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>977</v>
+        <v>180</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>974</v>
+        <v>178</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>974</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -15613,13 +15621,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -15627,13 +15635,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -15641,13 +15649,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1502</v>
+        <v>979</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1501</v>
+        <v>976</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>1501</v>
+        <v>976</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -15655,13 +15663,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2095</v>
+        <v>1502</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>2094</v>
+        <v>1501</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>2094</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -15669,13 +15677,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1503</v>
+        <v>2095</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1845</v>
+        <v>2094</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1845</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -15683,13 +15691,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1849</v>
+        <v>1503</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -15697,13 +15705,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -15711,13 +15719,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>182</v>
+        <v>1848</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>181</v>
+        <v>1847</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>181</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -15725,13 +15733,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -15739,13 +15747,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>483</v>
+        <v>413</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -15753,13 +15761,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>414</v>
+        <v>185</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>414</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -15767,13 +15775,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>186</v>
+        <v>415</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>482</v>
+        <v>414</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>482</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -15781,13 +15789,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>187</v>
+        <v>482</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>187</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -15795,13 +15803,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -15809,13 +15817,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -15823,13 +15831,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -15837,13 +15845,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -15851,13 +15859,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -15865,13 +15873,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -15879,13 +15887,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -15893,13 +15901,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -15907,13 +15915,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -15921,13 +15929,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -15935,13 +15943,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -15949,13 +15957,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1553</v>
+        <v>237</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -15963,13 +15971,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>238</v>
+        <v>1553</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -15977,13 +15985,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -15991,13 +15999,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1409</v>
+        <v>239</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -16005,13 +16013,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>240</v>
+        <v>1409</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -16019,13 +16027,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>1021</v>
+        <v>240</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -16033,13 +16041,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>233</v>
+        <v>1021</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -16047,13 +16055,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>234</v>
+        <v>1022</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -16061,13 +16069,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -16075,13 +16083,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>469</v>
+        <v>242</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>468</v>
+        <v>235</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>468</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -16089,13 +16097,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>883</v>
+        <v>469</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>236</v>
+        <v>468</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>236</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -16103,13 +16111,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -16117,13 +16125,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>244</v>
+        <v>884</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -16131,13 +16139,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -16145,13 +16153,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>966</v>
+        <v>245</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>967</v>
+        <v>249</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>967</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -16159,13 +16167,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1780</v>
+        <v>966</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1778</v>
+        <v>967</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1778</v>
+        <v>967</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -16173,13 +16181,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -16187,13 +16195,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>836</v>
+        <v>1781</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>250</v>
+        <v>1779</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>250</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -16201,13 +16209,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>252</v>
+        <v>836</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -16215,13 +16223,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1513</v>
+        <v>252</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1512</v>
+        <v>251</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1512</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -16229,13 +16237,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1436</v>
+        <v>1512</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1436</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -16243,13 +16251,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2064</v>
+        <v>1514</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>259</v>
+        <v>1436</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>259</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -16257,13 +16265,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -16271,13 +16279,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>256</v>
+        <v>2065</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -16285,13 +16293,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -16299,13 +16307,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -16313,13 +16321,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -16327,13 +16335,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -16341,13 +16349,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1538</v>
+        <v>258</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -16355,13 +16363,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1534</v>
+        <v>266</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1534</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -16369,13 +16377,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -16383,13 +16391,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -16397,13 +16405,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -16411,13 +16419,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2066</v>
+        <v>1542</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>260</v>
+        <v>1537</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>260</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -16425,13 +16433,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>267</v>
+        <v>2066</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -16439,13 +16447,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1516</v>
+        <v>267</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1515</v>
+        <v>268</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>1515</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -16453,13 +16461,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -16467,13 +16475,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -16481,13 +16489,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -16495,13 +16503,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -16509,13 +16517,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -16523,13 +16531,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -16537,13 +16545,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>1526</v>
+        <v>1533</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1525</v>
+        <v>1532</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>1525</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -16551,13 +16559,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>277</v>
+        <v>1526</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>269</v>
+        <v>1525</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>269</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -16565,13 +16573,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>710</v>
+        <v>277</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>709</v>
+        <v>269</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>709</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -16579,13 +16587,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>896</v>
+        <v>710</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>897</v>
+        <v>709</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>897</v>
+        <v>709</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -16593,13 +16601,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -16607,13 +16615,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>289</v>
+        <v>900</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>288</v>
+        <v>898</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>288</v>
+        <v>898</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -16621,13 +16629,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1984</v>
+        <v>289</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1982</v>
+        <v>288</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>1982</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -16635,13 +16643,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>290</v>
+        <v>1982</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>290</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -16649,13 +16657,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>278</v>
+        <v>1983</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -16663,13 +16671,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>515</v>
+        <v>278</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>1945</v>
+        <v>271</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>1945</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -16677,13 +16685,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>514</v>
+        <v>1945</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>514</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -16691,13 +16699,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1986</v>
+        <v>575</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -16705,13 +16713,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>541</v>
+        <v>1986</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -16719,13 +16727,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>279</v>
+        <v>541</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -16733,13 +16741,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>549</v>
+        <v>279</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -16747,13 +16755,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -16761,13 +16769,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -16775,13 +16783,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>280</v>
+        <v>570</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -16789,13 +16797,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>957</v>
+        <v>280</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -16803,13 +16811,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1992</v>
+        <v>957</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -16817,13 +16825,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>958</v>
+        <v>1992</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -16831,13 +16839,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>281</v>
+        <v>958</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -16845,13 +16853,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -16859,13 +16867,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -16873,13 +16881,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1693</v>
+        <v>283</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -16887,13 +16895,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1697</v>
+        <v>296</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>1697</v>
+        <v>296</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -16901,13 +16909,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>284</v>
+        <v>1698</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>299</v>
+        <v>1697</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>299</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -16915,13 +16923,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -16929,13 +16937,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -16943,13 +16951,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1427</v>
+        <v>285</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -16957,13 +16965,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>286</v>
+        <v>1427</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -16971,13 +16979,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -16985,13 +16993,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -16999,13 +17007,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -17013,13 +17021,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>829</v>
+        <v>303</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>486</v>
+        <v>302</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>486</v>
+        <v>302</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -17027,13 +17035,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>304</v>
+        <v>486</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>304</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -17041,13 +17049,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>321</v>
+        <v>810</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -17055,13 +17063,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -17069,13 +17077,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>894</v>
+        <v>322</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>895</v>
+        <v>306</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>895</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -17083,13 +17091,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>636</v>
+        <v>894</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>574</v>
+        <v>895</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>574</v>
+        <v>895</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -17097,13 +17105,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>308</v>
+        <v>636</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>307</v>
+        <v>574</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>307</v>
+        <v>574</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -17111,13 +17119,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -17125,13 +17133,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -17139,13 +17147,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -17153,13 +17161,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -17167,13 +17175,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1003</v>
+        <v>324</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1006</v>
+        <v>311</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>1006</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -17181,13 +17189,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -17195,13 +17203,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -17209,13 +17217,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -17223,13 +17231,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -17237,13 +17245,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -17251,13 +17259,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>379</v>
+        <v>1005</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>378</v>
+        <v>999</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>378</v>
+        <v>999</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -17265,13 +17273,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>511</v>
+        <v>379</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -17279,13 +17287,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1027</v>
+        <v>511</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -17293,13 +17301,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>546</v>
+        <v>1027</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -17307,13 +17315,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -17321,13 +17329,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -17335,13 +17343,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -17349,13 +17357,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -17363,13 +17371,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1699</v>
+        <v>571</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1695</v>
+        <v>380</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>1695</v>
+        <v>380</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -17377,13 +17385,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -17391,13 +17399,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1011</v>
+        <v>1700</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1012</v>
+        <v>1696</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>1012</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -17405,13 +17413,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1694</v>
+        <v>1012</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>1694</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -17419,13 +17427,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>1014</v>
+        <v>1694</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>1014</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -17433,13 +17441,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>373</v>
+        <v>1015</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>381</v>
+        <v>1014</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>381</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -17447,13 +17455,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1280</v>
+        <v>373</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -17461,13 +17469,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>374</v>
+        <v>1280</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -17475,13 +17483,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -17489,13 +17497,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -17503,13 +17511,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1016</v>
+        <v>375</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1010</v>
+        <v>370</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>1010</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -17517,13 +17525,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>384</v>
+        <v>1010</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>384</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -17531,13 +17539,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>386</v>
+        <v>1017</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -17545,13 +17553,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>885</v>
+        <v>386</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -17559,13 +17567,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -17573,13 +17581,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>377</v>
+        <v>886</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -17587,13 +17595,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>899</v>
+        <v>377</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -17601,13 +17609,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>578</v>
+        <v>899</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -17615,13 +17623,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>1019</v>
+        <v>578</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1018</v>
+        <v>577</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>1018</v>
+        <v>577</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -17629,13 +17637,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>389</v>
+        <v>1019</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>388</v>
+        <v>1018</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>388</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -17643,13 +17651,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -17657,13 +17665,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -17671,13 +17679,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -17685,13 +17693,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -17699,13 +17707,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -17713,13 +17721,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -17727,13 +17735,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>521</v>
+        <v>412</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>520</v>
+        <v>411</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>520</v>
+        <v>411</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -17741,13 +17749,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>397</v>
+        <v>521</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>416</v>
+        <v>520</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>416</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -17755,13 +17763,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -17769,13 +17777,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -17783,13 +17791,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -17797,13 +17805,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -17811,13 +17819,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -17825,13 +17833,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -17839,13 +17847,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -17853,13 +17861,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -17867,13 +17875,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -17881,13 +17889,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -17895,13 +17903,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -17909,13 +17917,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -17923,13 +17931,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -17937,13 +17945,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -17951,13 +17959,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1960</v>
+        <v>435</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -17965,13 +17973,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>407</v>
+        <v>1960</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -17979,13 +17987,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>1961</v>
+        <v>407</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -17993,13 +18001,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1958</v>
+        <v>392</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>1958</v>
+        <v>392</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -18007,13 +18015,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -18021,13 +18029,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1969</v>
+        <v>1959</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>1969</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -18035,13 +18043,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>454</v>
+        <v>1970</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>438</v>
+        <v>1969</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>438</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -18049,13 +18057,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>508</v>
+        <v>438</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>508</v>
+        <v>438</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -18063,13 +18071,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -18077,13 +18085,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -18091,13 +18099,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -18105,13 +18113,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>1703</v>
+        <v>445</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1701</v>
+        <v>441</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>1701</v>
+        <v>441</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -18119,13 +18127,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -18133,13 +18141,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -18147,13 +18155,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -18161,13 +18169,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -18175,13 +18183,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -18189,13 +18197,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -18203,13 +18211,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -18217,13 +18225,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -18231,13 +18239,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1717</v>
+        <v>1734</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>442</v>
+        <v>1721</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>442</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -18245,13 +18253,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>457</v>
+        <v>1717</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -18259,13 +18267,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -18273,13 +18281,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -18287,13 +18295,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1000</v>
+        <v>471</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -18301,13 +18309,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>472</v>
+        <v>1000</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -18315,13 +18323,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1002</v>
+        <v>472</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>1001</v>
+        <v>460</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>1001</v>
+        <v>460</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -18329,13 +18337,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>552</v>
+        <v>1002</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>1711</v>
+        <v>1001</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>1711</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -18343,13 +18351,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1715</v>
+        <v>552</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -18357,13 +18365,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -18371,13 +18379,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1741</v>
+        <v>1714</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1738</v>
+        <v>1713</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>1738</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -18385,13 +18393,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -18399,13 +18407,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -18413,13 +18421,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>478</v>
+        <v>1737</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>461</v>
+        <v>1740</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>461</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -18427,13 +18435,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -18441,13 +18449,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -18455,13 +18463,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -18469,13 +18477,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -18483,13 +18491,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -18497,13 +18505,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1727</v>
+        <v>489</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -18511,13 +18519,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1725</v>
+        <v>491</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>1725</v>
+        <v>491</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -18525,13 +18533,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -18539,13 +18547,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -18553,13 +18561,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -18567,13 +18575,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -18581,13 +18589,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>971</v>
+        <v>1733</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>970</v>
+        <v>1730</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>970</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -18595,13 +18603,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1051</v>
+        <v>971</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1045</v>
+        <v>970</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>1045</v>
+        <v>970</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -18609,13 +18617,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1556</v>
+        <v>1051</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -18623,13 +18631,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>492</v>
+        <v>1556</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>494</v>
+        <v>1044</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>494</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -18637,13 +18645,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -18651,13 +18659,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -18665,13 +18673,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1555</v>
+        <v>559</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>1046</v>
+        <v>554</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>1046</v>
+        <v>554</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -18679,13 +18687,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1047</v>
+        <v>1555</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>484</v>
+        <v>1046</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>484</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -18693,13 +18701,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>564</v>
+        <v>1047</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -18707,13 +18715,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -18721,13 +18729,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -18735,13 +18743,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1667</v>
+        <v>561</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>1049</v>
+        <v>555</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>1049</v>
+        <v>555</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -18749,13 +18757,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1050</v>
+        <v>1667</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -18763,13 +18771,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>493</v>
+        <v>1050</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>485</v>
+        <v>1048</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>485</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -18777,13 +18785,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>566</v>
+        <v>493</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -18791,13 +18799,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -18805,13 +18813,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -18819,13 +18827,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -18833,13 +18841,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1664</v>
+        <v>490</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1024</v>
+        <v>488</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>1024</v>
+        <v>488</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -18847,13 +18855,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1262</v>
+        <v>1664</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -18861,13 +18869,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1665</v>
+        <v>1262</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -18875,13 +18883,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1055</v>
+        <v>1665</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -18889,13 +18897,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1034</v>
+        <v>1055</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="D325" s="11" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -18903,13 +18911,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D326" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -18917,13 +18925,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -18931,13 +18939,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -18945,13 +18953,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -18959,13 +18967,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -18973,13 +18981,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>513</v>
+        <v>1037</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>522</v>
+        <v>1030</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>522</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -18987,13 +18995,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>935</v>
+        <v>513</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -19001,13 +19009,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -19015,13 +19023,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -19029,13 +19037,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>572</v>
+        <v>937</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -19043,13 +19051,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -19057,13 +19065,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -19071,13 +19079,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -19085,13 +19093,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -19099,13 +19107,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -19113,13 +19121,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -19127,13 +19135,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -19141,13 +19149,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -19155,13 +19163,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1743</v>
+        <v>537</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1742</v>
+        <v>536</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>1742</v>
+        <v>536</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -19169,13 +19177,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D345" s="11" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -19183,13 +19191,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -19197,13 +19205,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -19211,13 +19219,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -19225,13 +19233,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1928</v>
+        <v>1751</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1927</v>
+        <v>1750</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>1927</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -19239,13 +19247,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1753</v>
+        <v>1928</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1752</v>
+        <v>1927</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>1752</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -19253,13 +19261,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1930</v>
+        <v>1753</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>1929</v>
+        <v>1752</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>1929</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -19267,13 +19275,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -19281,13 +19289,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1755</v>
+        <v>1931</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>1754</v>
+        <v>1932</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>1754</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -19295,13 +19303,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1947</v>
+        <v>1755</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>1946</v>
+        <v>1754</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>1946</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -19309,13 +19317,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -19323,13 +19331,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -19337,13 +19345,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1965</v>
+        <v>1951</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -19351,13 +19359,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -19365,13 +19373,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -19379,13 +19387,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -19393,13 +19401,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1953</v>
+        <v>1968</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -19407,13 +19415,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1757</v>
+        <v>1953</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1756</v>
+        <v>1957</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>1756</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -19421,13 +19429,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1934</v>
+        <v>1757</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -19435,13 +19443,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1760</v>
+        <v>1934</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -19449,13 +19457,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1933</v>
+        <v>1760</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -19463,13 +19471,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1763</v>
+        <v>1933</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -19477,13 +19485,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -19491,13 +19499,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1935</v>
+        <v>1765</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -19505,13 +19513,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -19519,13 +19527,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1768</v>
+        <v>1936</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -19533,13 +19541,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1937</v>
+        <v>1768</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>1938</v>
+        <v>1769</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>1938</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -19547,13 +19555,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -19561,13 +19569,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -19575,13 +19583,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>629</v>
+        <v>1944</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>576</v>
+        <v>1943</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>576</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -19589,13 +19597,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -19603,13 +19611,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1889</v>
+        <v>638</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>1890</v>
+        <v>637</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1890</v>
+        <v>637</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -19617,13 +19625,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>639</v>
+        <v>1889</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>633</v>
+        <v>1890</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>633</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -19631,13 +19639,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -19645,13 +19653,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1471</v>
+        <v>641</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>1426</v>
+        <v>640</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1426</v>
+        <v>640</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -19659,13 +19667,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>972</v>
+        <v>1471</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>603</v>
+        <v>1426</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>603</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -19673,13 +19681,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>605</v>
+        <v>972</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -19687,13 +19695,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -19701,13 +19709,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -19715,13 +19723,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1690</v>
+        <v>608</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>1689</v>
+        <v>580</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -19729,13 +19737,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>973</v>
+        <v>1690</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>581</v>
+        <v>1689</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -19743,13 +19751,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>604</v>
+        <v>973</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D386" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -19757,13 +19765,13 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="D387" s="11" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -19771,13 +19779,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>1552</v>
+        <v>609</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>1552</v>
+        <v>609</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -19785,13 +19793,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1902</v>
+        <v>612</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>1904</v>
+        <v>1552</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>1904</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -19799,13 +19807,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -19813,13 +19821,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>613</v>
+        <v>1903</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>583</v>
+        <v>1905</v>
       </c>
       <c r="D391" s="11" t="s">
-        <v>583</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -19827,13 +19835,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D392" s="11" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -19841,13 +19849,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D393" s="11" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -19855,13 +19863,13 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D394" s="11" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -19869,13 +19877,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="D395" s="11" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -19883,13 +19891,13 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="D396" s="11" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -19897,13 +19905,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D397" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -19911,13 +19919,13 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="D398" s="11" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -19925,13 +19933,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D399" s="11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -19939,13 +19947,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D400" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -19953,13 +19961,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D401" s="11" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -19967,13 +19975,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>959</v>
+        <v>626</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D402" s="11" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -19981,13 +19989,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1062</v>
+        <v>959</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="D403" s="11" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -19995,13 +20003,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="D404" s="11" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -20009,13 +20017,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>839</v>
+        <v>1063</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="D405" s="11" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -20023,13 +20031,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>838</v>
+        <v>628</v>
       </c>
       <c r="D406" s="11" t="s">
-        <v>838</v>
+        <v>628</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -20037,13 +20045,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1906</v>
+        <v>840</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>593</v>
+        <v>838</v>
       </c>
       <c r="D407" s="11" t="s">
-        <v>593</v>
+        <v>838</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -20051,13 +20059,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>986</v>
+        <v>1906</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="D408" s="11" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -20065,13 +20073,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>642</v>
+        <v>986</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D409" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -20079,13 +20087,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D410" s="11" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -20093,13 +20101,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D411" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -20107,13 +20115,13 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>982</v>
+        <v>646</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>985</v>
+        <v>645</v>
       </c>
       <c r="D412" s="11" t="s">
-        <v>985</v>
+        <v>645</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -20121,13 +20129,13 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D413" s="11" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -20135,13 +20143,13 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D414" s="11" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -20149,13 +20157,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1828</v>
+        <v>988</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>1827</v>
+        <v>987</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>1827</v>
+        <v>987</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -20163,13 +20171,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>652</v>
+        <v>1828</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>658</v>
+        <v>1827</v>
       </c>
       <c r="D416" s="11" t="s">
-        <v>658</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -20177,13 +20185,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="D417" s="11" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -20191,13 +20199,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -20205,13 +20213,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -20219,13 +20227,13 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -20233,13 +20241,13 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -20247,13 +20255,13 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D422" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -20261,13 +20269,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="D423" s="11" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -20275,13 +20283,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1899</v>
+        <v>667</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>1900</v>
+        <v>648</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1900</v>
+        <v>648</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -20289,13 +20297,13 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>656</v>
+        <v>1899</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>668</v>
+        <v>1900</v>
       </c>
       <c r="D425" s="11" t="s">
-        <v>668</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -20303,13 +20311,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D426" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -20317,13 +20325,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>876</v>
+        <v>657</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -20331,13 +20339,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>1059</v>
+        <v>876</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D428" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -20345,13 +20353,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1424</v>
+        <v>1059</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>1425</v>
+        <v>650</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>1425</v>
+        <v>650</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -20359,13 +20367,13 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>670</v>
+        <v>1424</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>651</v>
+        <v>1425</v>
       </c>
       <c r="D430" s="11" t="s">
-        <v>651</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -20373,13 +20381,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1830</v>
+        <v>670</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>1829</v>
+        <v>651</v>
       </c>
       <c r="D431" s="11" t="s">
-        <v>1829</v>
+        <v>651</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -20387,13 +20395,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1894</v>
+        <v>1830</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>1893</v>
+        <v>1829</v>
       </c>
       <c r="D432" s="11" t="s">
-        <v>1893</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -20401,7 +20409,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>1893</v>
@@ -20415,13 +20423,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1881</v>
+        <v>1895</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>687</v>
+        <v>1893</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>687</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -20429,13 +20437,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>1879</v>
+        <v>687</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>1879</v>
+        <v>687</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -20443,13 +20451,13 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>674</v>
+        <v>1880</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>688</v>
+        <v>1879</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>688</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -20457,13 +20465,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1831</v>
+        <v>674</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D437" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -20471,13 +20479,13 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>675</v>
+        <v>1831</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D438" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -20485,13 +20493,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D439" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -20499,13 +20507,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>2003</v>
+        <v>691</v>
       </c>
       <c r="D440" s="11" t="s">
-        <v>2003</v>
+        <v>691</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -20513,13 +20521,13 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>692</v>
+        <v>2003</v>
       </c>
       <c r="D441" s="11" t="s">
-        <v>692</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -20527,13 +20535,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1417</v>
+        <v>678</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -20541,13 +20549,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>694</v>
+        <v>1417</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="D443" s="11" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -20555,13 +20563,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D444" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -20569,13 +20577,13 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -20583,13 +20591,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D446" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -20597,13 +20605,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -20611,13 +20619,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -20625,13 +20633,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="D449" s="11" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -20639,13 +20647,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>980</v>
+        <v>685</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -20653,13 +20661,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>702</v>
+        <v>980</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -20667,13 +20675,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>981</v>
+        <v>702</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D452" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -20681,13 +20689,13 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>704</v>
+        <v>981</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D453" s="11" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -20695,13 +20703,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D454" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -20709,13 +20717,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D455" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -20723,13 +20731,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1493</v>
+        <v>686</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="D456" s="11" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -20737,13 +20745,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>1492</v>
+        <v>771</v>
       </c>
       <c r="D457" s="11" t="s">
-        <v>1492</v>
+        <v>771</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -20751,13 +20759,13 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1962</v>
+        <v>1494</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>772</v>
+        <v>1492</v>
       </c>
       <c r="D458" s="11" t="s">
-        <v>772</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -20765,13 +20773,13 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>773</v>
+        <v>1962</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D459" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -20779,13 +20787,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>1498</v>
+        <v>773</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>1497</v>
+        <v>774</v>
       </c>
       <c r="D460" s="11" t="s">
-        <v>1497</v>
+        <v>774</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -20793,13 +20801,13 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>779</v>
+        <v>1498</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>778</v>
+        <v>1497</v>
       </c>
       <c r="D461" s="11" t="s">
-        <v>778</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -20807,13 +20815,13 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>990</v>
+        <v>779</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D462" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -20821,13 +20829,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D463" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -20835,13 +20843,13 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>993</v>
+        <v>781</v>
       </c>
       <c r="D464" s="11" t="s">
-        <v>993</v>
+        <v>781</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -20849,13 +20857,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>787</v>
+        <v>994</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>788</v>
+        <v>993</v>
       </c>
       <c r="D465" s="11" t="s">
-        <v>788</v>
+        <v>993</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -20863,13 +20871,13 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D466" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -20877,13 +20885,13 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D467" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -20891,13 +20899,13 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D468" s="11" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -20905,13 +20913,13 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D469" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -20919,13 +20927,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D470" s="11" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -20933,13 +20941,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D471" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -20947,13 +20955,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D472" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -20961,13 +20969,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D473" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -20975,13 +20983,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D474" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -20989,13 +20997,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="D475" s="11" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -21003,13 +21011,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D476" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -21017,13 +21025,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1891</v>
+        <v>801</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>1892</v>
+        <v>800</v>
       </c>
       <c r="D477" s="11" t="s">
-        <v>1892</v>
+        <v>800</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -21031,13 +21039,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -21045,13 +21053,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>805</v>
+        <v>1897</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>804</v>
+        <v>1896</v>
       </c>
       <c r="D479" s="11" t="s">
-        <v>804</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -21059,13 +21067,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>968</v>
+        <v>805</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="D480" s="11" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -21073,13 +21081,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>808</v>
+        <v>968</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="D481" s="11" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -21087,13 +21095,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D482" s="11" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -21101,13 +21109,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C483" s="6" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D483" s="11" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -21115,13 +21123,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D484" s="11" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -21129,13 +21137,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D485" s="11" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -21143,13 +21151,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D486" s="11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -21157,13 +21165,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C487" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D487" s="11" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -21171,13 +21179,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C488" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D488" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -21185,13 +21193,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1971</v>
+        <v>823</v>
       </c>
       <c r="C489" s="6" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="D489" s="11" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -21199,13 +21207,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>928</v>
+        <v>1971</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="D490" s="11" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -21213,13 +21221,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="C491" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D491" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -21227,13 +21235,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C492" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -21241,13 +21249,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C493" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D493" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -21255,13 +21263,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D494" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -21269,13 +21277,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="C495" s="6" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="D495" s="11" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -21283,13 +21291,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D496" s="11" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -21297,13 +21305,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1545</v>
+        <v>853</v>
       </c>
       <c r="C497" s="6" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D497" s="11" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -21311,13 +21319,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>851</v>
+        <v>1545</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D498" s="11" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -21325,13 +21333,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C499" s="6" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="D499" s="11" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -21339,13 +21347,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C500" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D500" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -21353,13 +21361,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="C501" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D501" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -21367,13 +21375,13 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C502" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D502" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -21381,13 +21389,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C503" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D503" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -21395,13 +21403,13 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C504" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D504" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -21409,13 +21417,13 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C505" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D505" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -21423,13 +21431,13 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="C506" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D506" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -21437,13 +21445,13 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D507" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -21451,13 +21459,13 @@
         <v>507</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>910</v>
+        <v>865</v>
       </c>
       <c r="C508" s="6" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D508" s="11" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -21465,13 +21473,13 @@
         <v>508</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="C509" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D509" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -21479,13 +21487,13 @@
         <v>509</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C510" s="6" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="D510" s="11" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -21493,13 +21501,13 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1972</v>
+        <v>868</v>
       </c>
       <c r="C511" s="6" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D511" s="11" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -21507,13 +21515,13 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C512" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D512" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -21521,13 +21529,13 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>892</v>
+        <v>1973</v>
       </c>
       <c r="C513" s="6" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="D513" s="11" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -21535,13 +21543,13 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C514" s="6" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="D514" s="11" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -21549,13 +21557,13 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C515" s="6" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="D515" s="11" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -21563,13 +21571,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C516" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D516" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -21577,13 +21585,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>934</v>
+        <v>890</v>
       </c>
       <c r="C517" s="6" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="D517" s="11" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -21591,13 +21599,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>903</v>
+        <v>934</v>
       </c>
       <c r="C518" s="6" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="D518" s="11" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -21605,13 +21613,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C519" s="6" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="D519" s="11" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -21619,13 +21627,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C520" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D520" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -21633,13 +21641,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C521" s="6" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="D521" s="11" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -21647,13 +21655,13 @@
         <v>521</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C522" s="6" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D522" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -21661,13 +21669,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C523" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D523" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -21675,13 +21683,13 @@
         <v>523</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="C524" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D524" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -21689,13 +21697,13 @@
         <v>524</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="D525" s="11" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -21703,13 +21711,13 @@
         <v>525</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C526" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D526" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -21717,13 +21725,13 @@
         <v>526</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1020</v>
+        <v>908</v>
       </c>
       <c r="C527" s="6" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="D527" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -21731,13 +21739,13 @@
         <v>527</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>918</v>
+        <v>1020</v>
       </c>
       <c r="C528" s="6" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D528" s="11" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -21745,13 +21753,13 @@
         <v>528</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="C529" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D529" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -21759,13 +21767,13 @@
         <v>529</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C530" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D530" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -21773,13 +21781,13 @@
         <v>530</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C531" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D531" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -21787,13 +21795,13 @@
         <v>531</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C532" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D532" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -21801,13 +21809,13 @@
         <v>532</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1038</v>
+        <v>930</v>
       </c>
       <c r="C533" s="6" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D533" s="11" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -21815,13 +21823,13 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C534" s="6" t="s">
-        <v>1039</v>
+        <v>933</v>
       </c>
       <c r="D534" s="11" t="s">
-        <v>1039</v>
+        <v>933</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -21829,13 +21837,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="C535" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D535" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -21843,13 +21851,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="C536" s="6" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="D536" s="11" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -21857,13 +21865,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C537" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D537" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -21871,13 +21879,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="C538" s="6" t="s">
-        <v>1058</v>
+        <v>1032</v>
       </c>
       <c r="D538" s="11" t="s">
-        <v>1058</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -21885,13 +21893,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C539" s="6" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="D539" s="11" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -21899,13 +21907,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C540" s="6" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
       <c r="D540" s="11" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -21913,13 +21921,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C541" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D541" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -21927,13 +21935,13 @@
         <v>541</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1116</v>
+        <v>1066</v>
       </c>
       <c r="C542" s="6" t="s">
-        <v>1110</v>
+        <v>1057</v>
       </c>
       <c r="D542" s="11" t="s">
-        <v>1110</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -21941,13 +21949,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C543" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D543" s="11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -21955,13 +21963,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C544" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D544" s="11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -21969,13 +21977,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1666</v>
+        <v>1115</v>
       </c>
       <c r="C545" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D545" s="11" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -21983,13 +21991,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1118</v>
+        <v>1666</v>
       </c>
       <c r="C546" s="6" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D546" s="11" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -21997,13 +22005,13 @@
         <v>546</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="C547" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D547" s="11" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -22011,13 +22019,13 @@
         <v>547</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C548" s="6" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D548" s="11" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -22025,13 +22033,13 @@
         <v>548</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1674</v>
+        <v>1125</v>
       </c>
       <c r="C549" s="6" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D549" s="11" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -22039,13 +22047,13 @@
         <v>549</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1129</v>
+        <v>1674</v>
       </c>
       <c r="C550" s="6" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D550" s="11" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -22053,13 +22061,13 @@
         <v>550</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C551" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D551" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -22067,13 +22075,13 @@
         <v>551</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C552" s="6" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D552" s="11" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -22081,13 +22089,13 @@
         <v>552</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1261</v>
+        <v>1128</v>
       </c>
       <c r="C553" s="6" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="D553" s="11" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -22095,13 +22103,13 @@
         <v>553</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1675</v>
+        <v>1261</v>
       </c>
       <c r="C554" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D554" s="11" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -22109,13 +22117,13 @@
         <v>554</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1285</v>
+        <v>1675</v>
       </c>
       <c r="C555" s="6" t="s">
-        <v>1252</v>
+        <v>1142</v>
       </c>
       <c r="D555" s="11" t="s">
-        <v>1252</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -22123,13 +22131,13 @@
         <v>555</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1776</v>
+        <v>1285</v>
       </c>
       <c r="C556" s="6" t="s">
-        <v>1407</v>
+        <v>1252</v>
       </c>
       <c r="D556" s="11" t="s">
-        <v>1407</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -22137,13 +22145,13 @@
         <v>556</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C557" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D557" s="11" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -22151,13 +22159,13 @@
         <v>557</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C558" s="10" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D558" s="15" t="s">
-        <v>1296</v>
+        <v>1777</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D558" s="11" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -22165,13 +22173,13 @@
         <v>558</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D559" s="15" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -22179,13 +22187,13 @@
         <v>559</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C560" s="6" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D560" s="11" t="s">
-        <v>1558</v>
+        <v>1477</v>
+      </c>
+      <c r="C560" s="10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D560" s="15" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -22193,13 +22201,13 @@
         <v>560</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C561" s="6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D561" s="11" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -22207,13 +22215,13 @@
         <v>561</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D562" s="11" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -22221,13 +22229,13 @@
         <v>562</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C563" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D563" s="11" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -22235,13 +22243,13 @@
         <v>563</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C564" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D564" s="11" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -22249,13 +22257,13 @@
         <v>564</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1625</v>
+        <v>1567</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>1619</v>
+        <v>1562</v>
       </c>
       <c r="D565" s="11" t="s">
-        <v>1619</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -22263,13 +22271,13 @@
         <v>565</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C566" s="6" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -22277,13 +22285,13 @@
         <v>566</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D567" s="11" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -22291,13 +22299,13 @@
         <v>567</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D568" s="11" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -22305,13 +22313,13 @@
         <v>568</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C569" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D569" s="11" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -22319,13 +22327,13 @@
         <v>569</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D570" s="11" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -22333,13 +22341,13 @@
         <v>570</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>1638</v>
+        <v>1624</v>
       </c>
       <c r="D571" s="11" t="s">
-        <v>1638</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -22347,13 +22355,13 @@
         <v>571</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D572" s="11" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -22361,13 +22369,13 @@
         <v>572</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D573" s="11" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -22375,13 +22383,13 @@
         <v>573</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D574" s="11" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -22389,13 +22397,13 @@
         <v>574</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D575" s="11" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -22403,13 +22411,13 @@
         <v>575</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D576" s="11" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -22417,13 +22425,13 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D577" s="11" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -22431,13 +22439,13 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1660</v>
+        <v>1637</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D578" s="11" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -22445,13 +22453,13 @@
         <v>578</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1646</v>
+        <v>1660</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="D579" s="11" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -22459,13 +22467,13 @@
         <v>579</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D580" s="11" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -22473,13 +22481,13 @@
         <v>580</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D581" s="11" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -22487,13 +22495,13 @@
         <v>581</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D582" s="11" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -22501,13 +22509,13 @@
         <v>582</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D583" s="11" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -22515,13 +22523,13 @@
         <v>583</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D584" s="11" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -22529,13 +22537,13 @@
         <v>584</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D585" s="11" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -22543,27 +22551,27 @@
         <v>585</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D586" s="11" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="17">
         <v>586</v>
       </c>
-      <c r="B587" s="5" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C587" s="10" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D587" s="15" t="s">
-        <v>1682</v>
+      <c r="B587" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D587" s="11" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -22571,13 +22579,13 @@
         <v>587</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C588" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D588" s="15" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -22585,27 +22593,27 @@
         <v>588</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C589" s="6" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D589" s="11" t="s">
-        <v>1684</v>
+        <v>1687</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D589" s="15" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="17">
         <v>589</v>
       </c>
-      <c r="B590" s="4" t="s">
-        <v>1686</v>
+      <c r="B590" s="5" t="s">
+        <v>1681</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D590" s="11" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -22613,13 +22621,13 @@
         <v>590</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1981</v>
+        <v>1686</v>
       </c>
       <c r="C591" s="6" t="s">
-        <v>1975</v>
+        <v>1685</v>
       </c>
       <c r="D591" s="11" t="s">
-        <v>1975</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -22627,13 +22635,13 @@
         <v>591</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="C592" s="6" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D592" s="11" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -22641,13 +22649,13 @@
         <v>592</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="C593" s="6" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="D593" s="11" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -22655,13 +22663,13 @@
         <v>593</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C594" s="6" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="D594" s="11" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -22669,13 +22677,13 @@
         <v>594</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="C595" s="6" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="D595" s="11" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -22683,13 +22691,13 @@
         <v>595</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="C596" s="6" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D596" s="11" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -22697,13 +22705,13 @@
         <v>596</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D597" s="11" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -22711,13 +22719,13 @@
         <v>597</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="C598" s="6" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="D598" s="11" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -22725,13 +22733,13 @@
         <v>598</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D599" s="11" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -22739,13 +22747,13 @@
         <v>599</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D600" s="11" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -22753,13 +22761,13 @@
         <v>600</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C601" s="6" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D601" s="11" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -22767,19 +22775,28 @@
         <v>601</v>
       </c>
       <c r="B602" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C602" s="6" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D602" s="11" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="17">
+        <v>602</v>
+      </c>
+      <c r="B603" s="4" t="s">
         <v>2002</v>
       </c>
-      <c r="C602" s="6" t="s">
+      <c r="C603" s="6" t="s">
         <v>2001</v>
       </c>
-      <c r="D602" s="11" t="s">
+      <c r="D603" s="11" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B603" s="4"/>
-      <c r="C603" s="6"/>
-      <c r="D603" s="11"/>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B604" s="4"/>
@@ -23575,6 +23592,11 @@
       <c r="B762" s="4"/>
       <c r="C762" s="6"/>
       <c r="D762" s="11"/>
+    </row>
+    <row r="763" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B763" s="4"/>
+      <c r="C763" s="6"/>
+      <c r="D763" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-zh_CN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D470E7-D2E5-453F-91A5-5823A662FC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8D68F0-4292-4F36-8A7D-F43FA418ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="2098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="2102">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8080,6 +8080,22 @@
   </si>
   <si>
     <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WellFSDiagramWorkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downlink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8533,8 +8549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11295,10 +11311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11468,13 +11484,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1283</v>
+        <v>2099</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>100</v>
+        <v>2098</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11482,13 +11498,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>1283</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11496,13 +11512,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -11510,13 +11526,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11524,13 +11540,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11538,13 +11554,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11552,13 +11568,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11566,13 +11582,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11580,13 +11596,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11594,13 +11610,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11608,13 +11624,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -11622,13 +11638,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -11636,13 +11652,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1864</v>
+        <v>89</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1546</v>
+        <v>90</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1546</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -11650,13 +11666,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>91</v>
+        <v>1546</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>91</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -11664,13 +11680,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -11678,13 +11694,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -11692,13 +11708,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1844</v>
+        <v>1863</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -11706,13 +11722,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1858</v>
+        <v>1844</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -11720,13 +11736,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>1858</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -11734,13 +11750,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -11748,13 +11764,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -11762,13 +11778,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -11776,13 +11792,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -11790,41 +11806,41 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1843</v>
+        <v>109</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>1859</v>
+      <c r="B36" s="1" t="s">
+        <v>1843</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>111</v>
+      <c r="B37" s="2" t="s">
+        <v>1859</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -11832,13 +11848,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -11846,13 +11862,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -11860,13 +11876,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -11874,13 +11890,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -11888,13 +11904,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -11902,13 +11918,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -11916,13 +11932,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -11930,13 +11946,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>120</v>
+        <v>134</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -11944,13 +11960,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -11958,13 +11974,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1075</v>
+        <v>122</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1079</v>
+        <v>123</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1079</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -11972,13 +11988,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -11986,13 +12002,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -12000,13 +12016,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -12014,13 +12030,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1527</v>
+        <v>1081</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1101</v>
+        <v>723</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1101</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -12028,13 +12044,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>724</v>
+        <v>1101</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>724</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -12042,13 +12058,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2067</v>
+        <v>1528</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -12056,13 +12072,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -12070,13 +12086,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1547</v>
+        <v>2068</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -12084,13 +12100,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2069</v>
+        <v>1547</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>770</v>
+        <v>729</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>770</v>
+        <v>729</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -12098,13 +12114,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1548</v>
+        <v>2069</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -12112,13 +12128,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -12126,13 +12142,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -12140,13 +12156,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1570</v>
+        <v>1550</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1568</v>
+        <v>730</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>1568</v>
+        <v>730</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -12154,13 +12170,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -12168,13 +12184,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1076</v>
+        <v>1571</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>746</v>
+        <v>1569</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>746</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -12182,13 +12198,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1551</v>
+        <v>1076</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -12196,13 +12212,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1077</v>
+        <v>1551</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -12210,13 +12226,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1084</v>
+        <v>731</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>1084</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -12224,13 +12240,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>712</v>
+        <v>1084</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>712</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -12238,13 +12254,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>732</v>
+        <v>1085</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -12252,13 +12268,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -12266,13 +12282,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1086</v>
+        <v>733</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -12280,13 +12296,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -12294,13 +12310,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>734</v>
+        <v>1087</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>713</v>
+        <v>751</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>713</v>
+        <v>751</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -12308,13 +12324,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1088</v>
+        <v>734</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -12322,13 +12338,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>736</v>
+        <v>1088</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>752</v>
+        <v>714</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>752</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -12336,13 +12352,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1089</v>
+        <v>736</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -12350,13 +12366,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -12364,13 +12380,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -12378,13 +12394,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>737</v>
+        <v>1095</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -12392,13 +12408,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>755</v>
+        <v>716</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>755</v>
+        <v>716</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -12406,13 +12422,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -12420,13 +12436,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -12434,13 +12450,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>717</v>
+        <v>758</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>717</v>
+        <v>758</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -12448,13 +12464,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -12462,13 +12478,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -12476,13 +12492,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -12490,13 +12506,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -12504,13 +12520,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1096</v>
+        <v>744</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -12518,13 +12534,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -12532,13 +12548,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>762</v>
+        <v>720</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>762</v>
+        <v>720</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -12546,13 +12562,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -12560,13 +12576,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -12574,13 +12590,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -12588,13 +12604,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>765</v>
+        <v>721</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>765</v>
+        <v>721</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -12602,13 +12618,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -12616,13 +12632,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>745</v>
+        <v>1092</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1093</v>
+        <v>756</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>1093</v>
+        <v>756</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -12630,13 +12646,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2093</v>
+        <v>745</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>2092</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>2092</v>
+        <v>1093</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -12644,13 +12660,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>841</v>
+        <v>2093</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>2092</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -12658,13 +12674,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>766</v>
+        <v>841</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>766</v>
+        <v>841</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -12672,13 +12688,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>843</v>
+        <v>1083</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>842</v>
+        <v>766</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>842</v>
+        <v>766</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -12686,13 +12702,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -12700,13 +12716,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1070</v>
+        <v>845</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>1067</v>
+        <v>844</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>1067</v>
+        <v>844</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -12714,13 +12730,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>769</v>
+        <v>1067</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>769</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -12728,13 +12744,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -12742,13 +12758,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>767</v>
+        <v>1071</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>767</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -12756,13 +12772,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -12770,13 +12786,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1103</v>
+        <v>1073</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1102</v>
+        <v>768</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>1102</v>
+        <v>768</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -12784,13 +12800,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -12798,13 +12814,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -12812,13 +12828,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -12826,13 +12842,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1133</v>
+        <v>1106</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>1133</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -12840,13 +12856,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1543</v>
+        <v>1130</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1544</v>
+        <v>1133</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>1544</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -12854,13 +12870,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1136</v>
+        <v>1543</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1135</v>
+        <v>1544</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>1135</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -12868,13 +12884,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>960</v>
+        <v>1135</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>960</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -12882,13 +12898,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -12896,13 +12912,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -12910,13 +12926,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -12924,13 +12940,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -12938,13 +12954,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -12952,13 +12968,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1478</v>
+        <v>1131</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1132</v>
+        <v>965</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>1132</v>
+        <v>965</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -12966,13 +12982,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>992</v>
+        <v>1132</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>992</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -12980,13 +12996,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1584</v>
+        <v>1479</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1281</v>
+        <v>992</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>1281</v>
+        <v>992</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -12994,13 +13010,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -13008,13 +13024,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1192</v>
+        <v>1590</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1191</v>
+        <v>1282</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>1191</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -13022,13 +13038,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1557</v>
+        <v>1192</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1143</v>
+        <v>1191</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>1143</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -13036,13 +13052,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1193</v>
+        <v>1557</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -13050,13 +13066,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1253</v>
+        <v>1193</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -13064,13 +13080,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1194</v>
+        <v>1253</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -13078,13 +13094,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -13092,13 +13108,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1575</v>
+        <v>1195</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1254</v>
+        <v>1147</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>99</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -13106,13 +13122,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1196</v>
+        <v>1575</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1148</v>
+        <v>1254</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>1148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -13120,13 +13136,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1255</v>
+        <v>1148</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1255</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -13134,13 +13150,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1256</v>
+        <v>1197</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1149</v>
+        <v>1255</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1149</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -13148,13 +13164,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1198</v>
+        <v>1256</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -13162,13 +13178,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1257</v>
+        <v>1198</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -13176,13 +13192,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1258</v>
+        <v>1151</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1258</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -13190,13 +13206,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1199</v>
+        <v>1259</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -13204,13 +13220,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1152</v>
+        <v>1260</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>1152</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -13218,13 +13234,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -13232,13 +13248,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1263</v>
+        <v>1201</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -13246,13 +13262,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1202</v>
+        <v>1263</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -13260,13 +13276,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1265</v>
+        <v>1155</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -13274,13 +13290,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1157</v>
+        <v>1265</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -13288,13 +13304,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1266</v>
+        <v>1204</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -13302,13 +13318,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -13316,13 +13332,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1205</v>
+        <v>1268</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -13330,13 +13346,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -13344,13 +13360,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -13358,13 +13374,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -13372,13 +13388,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -13386,13 +13402,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -13400,13 +13416,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1264</v>
+        <v>1210</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -13414,13 +13430,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1211</v>
+        <v>1264</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -13428,13 +13444,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -13442,13 +13458,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1267</v>
+        <v>1212</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -13456,13 +13472,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1190</v>
+        <v>1267</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -13470,13 +13486,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -13484,13 +13500,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -13498,13 +13514,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1269</v>
+        <v>1214</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -13512,13 +13528,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1215</v>
+        <v>1269</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -13526,13 +13542,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1618</v>
+        <v>1215</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1270</v>
+        <v>1163</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>95</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -13540,13 +13556,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1216</v>
+        <v>1618</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1164</v>
+        <v>1270</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>1164</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -13554,13 +13570,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -13568,13 +13584,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -13582,13 +13598,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -13596,13 +13612,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -13610,13 +13626,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -13624,13 +13640,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -13638,13 +13654,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -13652,13 +13668,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1284</v>
+        <v>1171</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>1284</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -13666,13 +13682,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>1172</v>
+        <v>1284</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>1172</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -13680,13 +13696,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1860</v>
+        <v>1225</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>1271</v>
+        <v>1172</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>1271</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -13694,13 +13710,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1250</v>
+        <v>1860</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -13708,13 +13724,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1226</v>
+        <v>1250</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>1151</v>
+        <v>1272</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>1151</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -13722,13 +13738,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1273</v>
+        <v>1226</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1251</v>
+        <v>1151</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>1174</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -13736,13 +13752,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1227</v>
+        <v>1273</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>1173</v>
+        <v>1251</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -13750,13 +13766,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -13764,13 +13780,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -13778,13 +13794,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1274</v>
+        <v>1175</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>1274</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -13792,13 +13808,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -13806,13 +13822,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -13820,13 +13836,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -13834,13 +13850,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -13848,13 +13864,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -13862,13 +13878,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -13876,13 +13892,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -13890,13 +13906,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -13904,13 +13920,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -13918,13 +13934,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1275</v>
+        <v>1184</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>1275</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -13932,13 +13948,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1185</v>
+        <v>1275</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>1185</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -13946,13 +13962,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -13960,13 +13976,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -13974,13 +13990,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -13988,13 +14004,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1276</v>
+        <v>1188</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>1276</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -14002,13 +14018,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -14016,13 +14032,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -14030,13 +14046,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -14044,13 +14060,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>1189</v>
+        <v>1279</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>1189</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -14058,13 +14074,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1614</v>
+        <v>1249</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1595</v>
+        <v>1189</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>1595</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -14072,13 +14088,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1577</v>
+        <v>1614</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -14086,13 +14102,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -14100,13 +14116,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1615</v>
+        <v>1578</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -14114,13 +14130,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1579</v>
+        <v>1615</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -14128,13 +14144,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -14142,13 +14158,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1616</v>
+        <v>1580</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -14156,13 +14172,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -14170,13 +14186,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1604</v>
+        <v>1617</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>95</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -14184,13 +14200,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1581</v>
+        <v>1604</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>1605</v>
+        <v>95</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -14198,13 +14214,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -14212,13 +14228,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -14226,13 +14242,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>1583</v>
+        <v>1607</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>1583</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -14240,13 +14256,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1608</v>
+        <v>1583</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>1608</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -14254,13 +14270,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -14268,13 +14284,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1453</v>
+        <v>1609</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>1453</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -14282,13 +14298,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1610</v>
+        <v>1453</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>1610</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -14296,13 +14312,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -14310,13 +14326,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -14324,12 +14340,26 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="17">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C217" s="6" t="s">
         <v>1613</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D217" s="11" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -14342,10 +14372,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D763"/>
+  <dimension ref="A1:D764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20535,13 +20565,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>678</v>
+        <v>2101</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>692</v>
+        <v>2100</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>692</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -20549,13 +20579,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1417</v>
+        <v>678</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="D443" s="11" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -20563,13 +20593,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>694</v>
+        <v>1417</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="D444" s="11" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -20577,13 +20607,13 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -20591,13 +20621,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D446" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -20605,13 +20635,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -20619,13 +20649,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -20633,13 +20663,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="D449" s="11" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -20647,13 +20677,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -20661,13 +20691,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>980</v>
+        <v>685</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -20675,13 +20705,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>702</v>
+        <v>980</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D452" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -20689,13 +20719,13 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>981</v>
+        <v>702</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D453" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -20703,13 +20733,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>704</v>
+        <v>981</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D454" s="11" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -20717,13 +20747,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D455" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -20731,13 +20761,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D456" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -20745,13 +20775,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1493</v>
+        <v>686</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="D457" s="11" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -20759,13 +20789,13 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>1492</v>
+        <v>771</v>
       </c>
       <c r="D458" s="11" t="s">
-        <v>1492</v>
+        <v>771</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -20773,13 +20803,13 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>1962</v>
+        <v>1494</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>772</v>
+        <v>1492</v>
       </c>
       <c r="D459" s="11" t="s">
-        <v>772</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -20787,13 +20817,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>773</v>
+        <v>1962</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D460" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -20801,13 +20831,13 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>1498</v>
+        <v>773</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>1497</v>
+        <v>774</v>
       </c>
       <c r="D461" s="11" t="s">
-        <v>1497</v>
+        <v>774</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -20815,13 +20845,13 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>779</v>
+        <v>1498</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>778</v>
+        <v>1497</v>
       </c>
       <c r="D462" s="11" t="s">
-        <v>778</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -20829,13 +20859,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>990</v>
+        <v>779</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D463" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -20843,13 +20873,13 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D464" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -20857,13 +20887,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>993</v>
+        <v>781</v>
       </c>
       <c r="D465" s="11" t="s">
-        <v>993</v>
+        <v>781</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -20871,13 +20901,13 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>787</v>
+        <v>994</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>788</v>
+        <v>993</v>
       </c>
       <c r="D466" s="11" t="s">
-        <v>788</v>
+        <v>993</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -20885,13 +20915,13 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D467" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -20899,13 +20929,13 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D468" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -20913,13 +20943,13 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D469" s="11" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -20927,13 +20957,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D470" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -20941,13 +20971,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D471" s="11" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -20955,13 +20985,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D472" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -20969,13 +20999,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D473" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -20983,13 +21013,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D474" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -20997,13 +21027,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D475" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -21011,13 +21041,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="D476" s="11" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -21025,13 +21055,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D477" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -21039,13 +21069,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1891</v>
+        <v>801</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>1892</v>
+        <v>800</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>1892</v>
+        <v>800</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -21053,13 +21083,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="D479" s="11" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -21067,13 +21097,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>805</v>
+        <v>1897</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>804</v>
+        <v>1896</v>
       </c>
       <c r="D480" s="11" t="s">
-        <v>804</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -21081,13 +21111,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>968</v>
+        <v>805</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="D481" s="11" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -21095,13 +21125,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>808</v>
+        <v>968</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="D482" s="11" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -21109,13 +21139,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C483" s="6" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D483" s="11" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -21123,13 +21153,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D484" s="11" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -21137,13 +21167,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D485" s="11" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -21151,13 +21181,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D486" s="11" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -21165,13 +21195,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C487" s="6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D487" s="11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -21179,13 +21209,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C488" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D488" s="11" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -21193,13 +21223,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C489" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D489" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -21207,13 +21237,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1971</v>
+        <v>823</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="D490" s="11" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -21221,13 +21251,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>928</v>
+        <v>1971</v>
       </c>
       <c r="C491" s="6" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="D491" s="11" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -21235,13 +21265,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="C492" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -21249,13 +21279,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C493" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D493" s="11" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -21263,13 +21293,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D494" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -21277,13 +21307,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C495" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D495" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -21291,13 +21321,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="D496" s="11" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -21305,13 +21335,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C497" s="6" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D497" s="11" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -21319,13 +21349,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1545</v>
+        <v>853</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D498" s="11" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -21333,13 +21363,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>851</v>
+        <v>1545</v>
       </c>
       <c r="C499" s="6" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D499" s="11" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -21347,13 +21377,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C500" s="6" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="D500" s="11" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -21361,13 +21391,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C501" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D501" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -21375,13 +21405,13 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="C502" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D502" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -21389,13 +21419,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C503" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D503" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -21403,13 +21433,13 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C504" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D504" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -21417,13 +21447,13 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C505" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D505" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -21431,13 +21461,13 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C506" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D506" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -21445,13 +21475,13 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D507" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -21459,13 +21489,13 @@
         <v>507</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="C508" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D508" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -21473,13 +21503,13 @@
         <v>508</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>910</v>
+        <v>865</v>
       </c>
       <c r="C509" s="6" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D509" s="11" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -21487,13 +21517,13 @@
         <v>509</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="C510" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D510" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -21501,13 +21531,13 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C511" s="6" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="D511" s="11" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -21515,13 +21545,13 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1972</v>
+        <v>868</v>
       </c>
       <c r="C512" s="6" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D512" s="11" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -21529,13 +21559,13 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C513" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D513" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -21543,13 +21573,13 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>892</v>
+        <v>1973</v>
       </c>
       <c r="C514" s="6" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="D514" s="11" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -21557,13 +21587,13 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C515" s="6" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="D515" s="11" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -21571,13 +21601,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C516" s="6" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="D516" s="11" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -21585,13 +21615,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C517" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D517" s="11" t="s">
-        <v